--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$68</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -128,6 +128,42 @@
     <t>2025-10-01</t>
   </si>
   <si>
+    <t>15:51:00</t>
+  </si>
+  <si>
+    <t>16:06:00</t>
+  </si>
+  <si>
+    <t>T252000130</t>
+  </si>
+  <si>
+    <t>eS-2520AC 彩色複合機</t>
+  </si>
+  <si>
+    <t>MFP商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岳吉不動產股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市北投區義理街1號1樓</t>
+  </si>
+  <si>
+    <t>住商石牌</t>
+  </si>
+  <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>抄表</t>
+  </si>
+  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -137,12 +173,6 @@
     <t>T252000150</t>
   </si>
   <si>
-    <t>eS-2520AC 彩色複合機</t>
-  </si>
-  <si>
-    <t>MFP商品</t>
-  </si>
-  <si>
     <t xml:space="preserve">漢庭營造股份有限公司 </t>
   </si>
   <si>
@@ -152,18 +182,6 @@
     <t>士林</t>
   </si>
   <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>抄表</t>
-  </si>
-  <si>
     <t>13:00:00</t>
   </si>
   <si>
@@ -183,6 +201,42 @@
   </si>
   <si>
     <t>淡水</t>
+  </si>
+  <si>
+    <t>16:22:00</t>
+  </si>
+  <si>
+    <t>16:37:00</t>
+  </si>
+  <si>
+    <t>T302800001</t>
+  </si>
+  <si>
+    <t>eS-3028A 黑白複合機</t>
+  </si>
+  <si>
+    <t>財團法人台北國際社區青年育樂活動中心基金會</t>
+  </si>
+  <si>
+    <t>台北市士林區天玉街26-1號</t>
+  </si>
+  <si>
+    <t>天玉街</t>
+  </si>
+  <si>
+    <t>15:12:00</t>
+  </si>
+  <si>
+    <t>15:27:00</t>
+  </si>
+  <si>
+    <t>T302800006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">信宇顧問有限公司 </t>
+  </si>
+  <si>
+    <t>新北市淡水區民族路50巷46號3樓</t>
   </si>
   <si>
     <t>13:36:00</t>
@@ -235,9 +289,159 @@
 換上8138002690</t>
   </si>
   <si>
+    <t>2025-10-02</t>
+  </si>
+  <si>
+    <t>14:45:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>THILF03627</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路四段176號</t>
+  </si>
+  <si>
+    <t>三重重新橋</t>
+  </si>
+  <si>
+    <t>PMQ4</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>THILF03890</t>
+  </si>
+  <si>
+    <t>新北市三重區二重疏洪道疏洪十六路重新橋下</t>
+  </si>
+  <si>
+    <t>三重美堤店</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>USB線材被老鼠咬斷，更換USB線</t>
+  </si>
+  <si>
+    <t>16:10:00</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>THILF04084</t>
+  </si>
+  <si>
+    <t>新北市三重區環河南路221巷14號及16號1樓全部</t>
+  </si>
+  <si>
+    <t>三重昌隆店</t>
+  </si>
+  <si>
+    <t>15:39:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>THILF04260</t>
+  </si>
+  <si>
+    <t>新北市三重區集美街211、213號一樓全部</t>
+  </si>
+  <si>
+    <t>三重高中店</t>
+  </si>
+  <si>
+    <t>15:11:00</t>
+  </si>
+  <si>
+    <t>15:29:00</t>
+  </si>
+  <si>
+    <t>THILF0D070</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路四段244巷40號</t>
+  </si>
+  <si>
+    <t>三重重新店</t>
+  </si>
+  <si>
+    <t>11:56:00</t>
+  </si>
+  <si>
+    <t>12:26:00</t>
+  </si>
+  <si>
+    <t>THILF0D390</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路518號</t>
+  </si>
+  <si>
+    <t>三重大有店</t>
+  </si>
+  <si>
+    <t>變壓器鬆脫，將變壓器插回後正常</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>12:28:00</t>
+  </si>
+  <si>
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>08:30:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>T251000056</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奧創資訊股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市板橋區文化路二段285號32樓</t>
+  </si>
+  <si>
+    <t>奧爾資訊多媒體</t>
+  </si>
+  <si>
+    <t>碳粉</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>T251000090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯有線電視股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區中山一路12號3樓(行政組)</t>
+  </si>
+  <si>
+    <t>行政組</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -256,12 +460,27 @@
     <t>pm</t>
   </si>
   <si>
+    <t>測試正常</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>T252000136</t>
+  </si>
+  <si>
+    <t>新北市三重區德厚街76號7樓</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
     <t>11:45:00</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
     <t>T301800026</t>
   </si>
   <si>
@@ -274,27 +493,57 @@
     <t>異地備援泰山</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>11:30:00</t>
+    <t>T302800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財團法人台灣省私立台灣盲人重建院 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號3樓</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>T302800008</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路384號4樓</t>
+  </si>
+  <si>
+    <t>4F</t>
+  </si>
+  <si>
+    <t>T302800057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣善美的股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市五股區工商路128號1樓(五股DC廠工商運輸)</t>
+  </si>
+  <si>
+    <t>五股DC廠工商運輸</t>
+  </si>
+  <si>
+    <t>T302800060</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股運輸)</t>
+  </si>
+  <si>
+    <t>五股運輸</t>
   </si>
   <si>
     <t>T302800152</t>
   </si>
   <si>
-    <t>eS-3028A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市新莊區中正路651-5號10樓(營管部)</t>
   </si>
   <si>
     <t>營管部</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>T302800153</t>
   </si>
   <si>
@@ -304,12 +553,6 @@
     <t>走道</t>
   </si>
   <si>
-    <t>08:30:00</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
-  </si>
-  <si>
     <t>T302800154</t>
   </si>
   <si>
@@ -319,9 +562,6 @@
     <t>櫃台2</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>T302800155</t>
   </si>
   <si>
@@ -340,12 +580,48 @@
     <t>工程部1</t>
   </si>
   <si>
+    <t>T351500136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">家福股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區五華街282號(蘆洲)</t>
+  </si>
+  <si>
+    <t>蘆洲</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
+  </si>
+  <si>
+    <t>T351800042</t>
+  </si>
+  <si>
+    <t>eS-3518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全聯實業股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市蘆洲區水湳街74號2樓</t>
+  </si>
+  <si>
+    <t>蘆洲北二處</t>
+  </si>
+  <si>
+    <t>T351800045</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股生鮮物流)</t>
+  </si>
+  <si>
+    <t>五股</t>
+  </si>
+  <si>
     <t>T351800082</t>
   </si>
   <si>
-    <t>eS-3518A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市新莊區中正路651-5號10樓(櫃台1)</t>
   </si>
   <si>
@@ -361,7 +637,19 @@
     <t>節目部</t>
   </si>
   <si>
-    <t>14:00:00</t>
+    <t>T351800110</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號4樓(五股)</t>
+  </si>
+  <si>
+    <t>T351800111</t>
+  </si>
+  <si>
+    <t>新北市五股區五工六路35號1樓(五股檢品)</t>
+  </si>
+  <si>
+    <t>五股檢品</t>
   </si>
   <si>
     <t>T452800047</t>
@@ -389,9 +677,6 @@
   </si>
   <si>
     <t>12:30:00</t>
-  </si>
-  <si>
-    <t>PMQ4</t>
   </si>
   <si>
     <t>合計</t>
@@ -808,10 +1093,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -969,7 +1254,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025100022</v>
+        <v>2025100146</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1012,10 +1297,10 @@
       </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R3" s="7">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="S3" s="7" t="s">
         <v>41</v>
@@ -1041,7 +1326,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025100023</v>
+        <v>2025100147</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1084,10 +1369,10 @@
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="R4" s="3">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1109,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025100049</v>
+        <v>2025100023</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1133,31 +1418,31 @@
         <v>46</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="O5" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="7">
+        <v>24</v>
+      </c>
       <c r="R5" s="7">
-        <v>25058</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="S5" s="7"/>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1179,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025100050</v>
+        <v>2025100022</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1203,29 +1488,33 @@
         <v>46</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="O6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>24</v>
+      </c>
       <c r="R6" s="3">
-        <v>25058</v>
-      </c>
-      <c r="S6" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1245,7 +1534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="7">
-        <v>2025100056</v>
+        <v>2025100049</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -1260,38 +1549,36 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="7"/>
-      <c r="Q7" s="7">
-        <v>2436</v>
-      </c>
+      <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <v>302935</v>
+        <v>25058</v>
       </c>
       <c r="S7" s="7" t="s">
         <v>41</v>
@@ -1317,7 +1604,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2025100057</v>
+        <v>2025100050</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1332,38 +1619,36 @@
         <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>2436</v>
-      </c>
+      <c r="Q8" s="3"/>
       <c r="R8" s="3">
-        <v>302935</v>
+        <v>25058</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1385,7 +1670,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7">
-        <v>2025100008</v>
+        <v>2025100153</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
@@ -1412,26 +1697,28 @@
         <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="N9" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N9" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7"/>
+        <v>68653</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
@@ -1439,7 +1726,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="7" t="s">
         <v>41</v>
@@ -1453,7 +1740,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>2025100077</v>
+        <v>2025100154</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1462,48 +1749,44 @@
         <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3">
-        <v>843</v>
-      </c>
+      <c r="Q10" s="3"/>
       <c r="R10" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>68653</v>
+      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1511,9 +1794,11 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA10" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28">
@@ -1521,7 +1806,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7">
-        <v>2025100078</v>
+        <v>2025100100</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1530,46 +1815,44 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>72</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
-      <c r="Q11" s="7">
-        <v>843</v>
-      </c>
+      <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <v>44687</v>
-      </c>
-      <c r="S11" s="7"/>
+        <v>28400</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
@@ -1577,19 +1860,21 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB11" s="7"/>
+      <c r="AB11" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>2025100074</v>
+        <v>2025100101</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1598,46 +1883,42 @@
         <v>29</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>79</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3">
-        <v>193</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>28400</v>
+      </c>
+      <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -1645,21 +1926,19 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="7">
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025100075</v>
+        <v>2025100056</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -1668,44 +1947,48 @@
         <v>29</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="7">
+        <v>2436</v>
+      </c>
       <c r="R13" s="7">
-        <v>193</v>
-      </c>
-      <c r="S13" s="7"/>
+        <v>302935</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
@@ -1713,19 +1996,21 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB13" s="7"/>
+      <c r="AB13" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025100070</v>
+        <v>2025100057</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1734,46 +2019,46 @@
         <v>29</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3">
+        <v>2436</v>
+      </c>
       <c r="R14" s="3">
-        <v>4020</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>302935</v>
+      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -1781,21 +2066,19 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025100071</v>
+        <v>2025100008</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1804,42 +2087,42 @@
         <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="M15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="N15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="O15" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <v>4020</v>
+        <v>0</v>
       </c>
       <c r="S15" s="7"/>
       <c r="T15" s="7"/>
@@ -1849,19 +2132,21 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7"/>
+      <c r="AB15" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025100065</v>
+        <v>2025100452</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -1870,34 +2155,30 @@
         <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>86</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -1905,7 +2186,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3">
-        <v>5001</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
         <v>41</v>
@@ -1917,7 +2198,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
@@ -1931,7 +2212,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025100066</v>
+        <v>2025100396</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -1940,44 +2221,42 @@
         <v>29</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <v>5001</v>
-      </c>
-      <c r="S17" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -1985,19 +2264,21 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB17" s="7"/>
+      <c r="AB17" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025100059</v>
+        <v>2025100094</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2006,46 +2287,44 @@
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
-        <v>3173</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2053,7 +2332,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2067,7 +2346,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025100060</v>
+        <v>2025100520</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2076,44 +2355,42 @@
         <v>29</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <v>3173</v>
-      </c>
-      <c r="S19" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2121,19 +2398,21 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB19" s="7"/>
+      <c r="AB19" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025100063</v>
+        <v>2025100501</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2142,34 +2421,30 @@
         <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>40</v>
@@ -2177,7 +2452,7 @@
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
-        <v>2841</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>41</v>
@@ -2189,7 +2464,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -2203,7 +2478,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025100064</v>
+        <v>2025100457</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2212,44 +2487,42 @@
         <v>29</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <v>2841</v>
-      </c>
-      <c r="S21" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -2257,19 +2530,21 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025100061</v>
+        <v>2025100326</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2278,46 +2553,44 @@
         <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
-        <v>1935</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2325,7 +2598,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
@@ -2339,7 +2612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025100062</v>
+        <v>2025100405</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2348,44 +2621,42 @@
         <v>29</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <v>1935</v>
-      </c>
-      <c r="S23" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -2393,7 +2664,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -2405,7 +2676,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025100072</v>
+        <v>2025100333</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2414,54 +2685,56 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3">
+        <v>16366</v>
+      </c>
       <c r="R24" s="3">
-        <v>54</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>143510</v>
+      </c>
+      <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -2475,7 +2748,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025100073</v>
+        <v>2025100335</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2484,64 +2757,70 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="Q25" s="7">
+        <v>5983</v>
+      </c>
       <c r="R25" s="7">
-        <v>54</v>
+        <v>32582</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
+      <c r="U25" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025100067</v>
+        <v>2025100077</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2550,42 +2829,44 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="3">
+        <v>843</v>
+      </c>
       <c r="R26" s="3">
-        <v>942</v>
+        <v>44687</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>41</v>
@@ -2597,21 +2878,17 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025100068</v>
+        <v>2025100078</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2620,42 +2897,44 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="Q27" s="7">
+        <v>843</v>
+      </c>
       <c r="R27" s="7">
-        <v>942</v>
+        <v>44687</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -2665,7 +2944,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
@@ -2677,7 +2956,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025100079</v>
+        <v>2025100454</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2686,46 +2965,46 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>68</v>
+        <v>105</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="Q28" s="3">
+        <v>843</v>
+      </c>
       <c r="R28" s="3">
-        <v>68795</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -2733,17 +3012,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025100080</v>
+        <v>2025100084</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -2752,44 +3035,48 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
+      <c r="Q29" s="7">
+        <v>56</v>
+      </c>
       <c r="R29" s="7">
-        <v>68795</v>
-      </c>
-      <c r="S29" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -2797,19 +3084,21 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100009</v>
+        <v>2025100085</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -2818,42 +3107,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="Q30" s="3">
+        <v>56</v>
+      </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -2863,21 +3154,19 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB30" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100042</v>
+        <v>2025100074</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -2886,30 +3175,34 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+        <v>149</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L31" s="8" t="s">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2917,7 +3210,7 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="S31" s="7" t="s">
         <v>41</v>
@@ -2929,45 +3222,2465 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="9" t="s">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2025100075</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="AB32" s="9">
-        <v>13</v>
+      <c r="I32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3">
+        <v>193</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="1:28">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7">
+        <v>2025100368</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7">
+        <v>155192</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2025100369</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3">
+        <v>155192</v>
+      </c>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="1:28">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2025100371</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7">
+        <v>140987</v>
+      </c>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2025100370</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3">
+        <v>140987</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="1:28">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="7">
+        <v>2025100502</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7">
+        <v>299683</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+    </row>
+    <row r="38" spans="1:28">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2025100503</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3">
+        <v>299683</v>
+      </c>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="7">
+        <v>2025100498</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7">
+        <v>240934</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="1:28">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2025100499</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3">
+        <v>240934</v>
+      </c>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="7">
+        <v>2025100070</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7">
+        <v>4020</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2025100071</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3">
+        <v>4020</v>
+      </c>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB42" s="3"/>
+    </row>
+    <row r="43" spans="1:28">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="7">
+        <v>2025100065</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7">
+        <v>5001</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2025100066</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3">
+        <v>5001</v>
+      </c>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="1:28">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="7">
+        <v>2025100059</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7">
+        <v>3173</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2025100060</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3">
+        <v>3173</v>
+      </c>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="1:28">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7">
+        <v>2025100063</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7">
+        <v>2841</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2025100064</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3">
+        <v>2841</v>
+      </c>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="1:28">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2025100061</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7">
+        <v>1935</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2025100062</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3">
+        <v>1935</v>
+      </c>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7">
+        <v>2025100336</v>
+      </c>
+      <c r="C51" s="7">
+        <v>1</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7">
+        <v>28805</v>
+      </c>
+      <c r="R51" s="7">
+        <v>28881</v>
+      </c>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2025100516</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3">
+        <v>297956</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="1:28">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2025100517</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7">
+        <v>297956</v>
+      </c>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA53" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB53" s="7"/>
+    </row>
+    <row r="54" spans="1:28">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2025100511</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3">
+        <v>117288</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+    </row>
+    <row r="55" spans="1:28">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="7">
+        <v>2025100512</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7">
+        <v>117288</v>
+      </c>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA55" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7"/>
+    </row>
+    <row r="56" spans="1:28">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2025100072</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L56" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3">
+        <v>54</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="7">
+        <v>2025100073</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7">
+        <v>54</v>
+      </c>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7"/>
+    </row>
+    <row r="58" spans="1:28">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2025100067</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L58" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3">
+        <v>942</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+      <c r="Z58" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7">
+        <v>2025100068</v>
+      </c>
+      <c r="C59" s="7">
+        <v>1</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K59" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7">
+        <v>942</v>
+      </c>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA59" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7"/>
+    </row>
+    <row r="60" spans="1:28">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2025100505</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3">
+        <v>187561</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="3"/>
+    </row>
+    <row r="61" spans="1:28">
+      <c r="A61" s="7">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>2025100506</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7">
+        <v>187561</v>
+      </c>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA61" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7"/>
+    </row>
+    <row r="62" spans="1:28">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2025100508</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3">
+        <v>367919</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+      <c r="Z62" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
+    </row>
+    <row r="63" spans="1:28">
+      <c r="A63" s="7">
+        <v>61</v>
+      </c>
+      <c r="B63" s="7">
+        <v>2025100509</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J63" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K63" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7">
+        <v>367919</v>
+      </c>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA63" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB63" s="7"/>
+    </row>
+    <row r="64" spans="1:28">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2025100079</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="N64" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3">
+        <v>68795</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+      <c r="Z64" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
+    </row>
+    <row r="65" spans="1:28">
+      <c r="A65" s="7">
+        <v>63</v>
+      </c>
+      <c r="B65" s="7">
+        <v>2025100080</v>
+      </c>
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K65" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7">
+        <v>68795</v>
+      </c>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA65" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB65" s="7"/>
+    </row>
+    <row r="66" spans="1:28">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3">
+        <v>2025100009</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="N66" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+      <c r="Z66" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28">
+      <c r="A67" s="7">
+        <v>65</v>
+      </c>
+      <c r="B67" s="7">
+        <v>2025100042</v>
+      </c>
+      <c r="C67" s="7">
+        <v>1</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="O67" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7">
+        <v>0</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB68" s="9">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$68</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$79</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -152,16 +152,16 @@
     <t>住商石牌</t>
   </si>
   <si>
+    <t>抄表</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
     <t>服務</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>抄表</t>
   </si>
   <si>
     <t>10:30:00</t>
@@ -403,6 +403,24 @@
     <t>湯家瑋</t>
   </si>
   <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>T251000051</t>
+  </si>
+  <si>
+    <t>eS-2510AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">沛盈實業有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路665號9樓</t>
+  </si>
+  <si>
+    <t>pm</t>
+  </si>
+  <si>
     <t>08:30:00</t>
   </si>
   <si>
@@ -412,9 +430,6 @@
     <t>T251000056</t>
   </si>
   <si>
-    <t>eS-2510AC 彩色複合機</t>
-  </si>
-  <si>
     <t xml:space="preserve">奧創資訊股份有限公司 </t>
   </si>
   <si>
@@ -442,6 +457,18 @@
     <t>行政組</t>
   </si>
   <si>
+    <t>T252000102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仲誠不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路3段110號</t>
+  </si>
+  <si>
+    <t>三重</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -457,9 +484,6 @@
     <t>林口文化2F放款部</t>
   </si>
   <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>測試正常</t>
   </si>
   <si>
@@ -475,9 +499,6 @@
     <t>新北市三重區德厚街76號7樓</t>
   </si>
   <si>
-    <t>三重</t>
-  </si>
-  <si>
     <t>11:45:00</t>
   </si>
   <si>
@@ -514,6 +535,15 @@
     <t>4F</t>
   </si>
   <si>
+    <t>T302800012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">捷旺宅不動產經紀有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區捷運路32號</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -652,6 +682,27 @@
     <t>五股檢品</t>
   </si>
   <si>
+    <t>T351800123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喬治費歇爾機械股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區興德路94號</t>
+  </si>
+  <si>
+    <t>T352500148</t>
+  </si>
+  <si>
+    <t>eS-3525AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宏偉營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區光復路1段61巷26號2樓</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -677,6 +728,30 @@
   </si>
   <si>
     <t>12:30:00</t>
+  </si>
+  <si>
+    <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>TX30000054</t>
+  </si>
+  <si>
+    <t>TCx300 POS 終端系統</t>
+  </si>
+  <si>
+    <t>POS商品</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣泛亞零售管理顧問股份有限公司 </t>
+  </si>
+  <si>
+    <t>台北市萬華區西寧南路123號</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>更換DS4608usb線材</t>
   </si>
   <si>
     <t>合計</t>
@@ -1093,10 +1168,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AB79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1254,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025100146</v>
+        <v>2025100147</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1302,9 +1377,7 @@
       <c r="R3" s="7">
         <v>105</v>
       </c>
-      <c r="S3" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1312,10 +1385,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1326,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025100147</v>
+        <v>2025100146</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1374,7 +1447,9 @@
       <c r="R4" s="3">
         <v>105</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1382,10 +1457,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1394,7 +1469,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="7">
-        <v>2025100023</v>
+        <v>2025100022</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1442,7 +1517,9 @@
       <c r="R5" s="7">
         <v>159</v>
       </c>
-      <c r="S5" s="7"/>
+      <c r="S5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
       <c r="V5" s="7"/>
@@ -1450,10 +1527,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1464,7 +1541,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2025100022</v>
+        <v>2025100023</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1512,9 +1589,7 @@
       <c r="R6" s="3">
         <v>159</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1522,10 +1597,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
@@ -1573,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1581,7 +1656,7 @@
         <v>25058</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1590,10 +1665,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1643,7 +1718,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1658,10 +1733,10 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
@@ -1709,7 +1784,7 @@
         <v>63</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1717,7 +1792,7 @@
         <v>68653</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1726,10 +1801,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1779,7 +1854,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1794,10 +1869,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
@@ -1843,7 +1918,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1851,7 +1926,7 @@
         <v>28400</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -1860,10 +1935,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -1911,7 +1986,7 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -1926,10 +2001,10 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB12" s="3"/>
     </row>
@@ -1977,7 +2052,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -1987,7 +2062,7 @@
         <v>302935</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -1996,10 +2071,10 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2049,7 +2124,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -2066,10 +2141,10 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB14" s="3"/>
     </row>
@@ -2135,7 +2210,7 @@
         <v>84</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2181,7 +2256,7 @@
         <v>90</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2189,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2201,7 +2276,7 @@
         <v>91</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -2247,7 +2322,7 @@
         <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -2255,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
@@ -2267,7 +2342,7 @@
         <v>91</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2335,7 +2410,7 @@
         <v>98</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2381,7 +2456,7 @@
         <v>103</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
@@ -2389,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
@@ -2401,7 +2476,7 @@
         <v>91</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2447,7 +2522,7 @@
         <v>108</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
@@ -2455,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2467,7 +2542,7 @@
         <v>91</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -2513,7 +2588,7 @@
         <v>113</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2521,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2533,7 +2608,7 @@
         <v>91</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB21" s="7">
         <v>1</v>
@@ -2601,7 +2676,7 @@
         <v>119</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2647,7 +2722,7 @@
         <v>118</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2655,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2667,7 +2742,7 @@
         <v>91</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB23" s="7"/>
     </row>
@@ -2676,7 +2751,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025100333</v>
+        <v>2025100602</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2688,56 +2763,54 @@
         <v>122</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>125</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M24" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>129</v>
-      </c>
+      <c r="N24" s="6"/>
       <c r="O24" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3">
-        <v>16366</v>
+        <v>2150</v>
       </c>
       <c r="R24" s="3">
-        <v>143510</v>
-      </c>
-      <c r="S24" s="3"/>
+        <v>43000</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -2748,7 +2821,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025100335</v>
+        <v>2025100603</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2760,67 +2833,61 @@
         <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="N25" s="8"/>
       <c r="O25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7">
-        <v>5983</v>
+        <v>2150</v>
       </c>
       <c r="R25" s="7">
-        <v>32582</v>
+        <v>43000</v>
       </c>
       <c r="S25" s="7"/>
       <c r="T25" s="7"/>
-      <c r="U25" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB25" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB25" s="7"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025100077</v>
+        <v>2025100333</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2832,63 +2899,67 @@
         <v>122</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3">
-        <v>843</v>
+        <v>16366</v>
       </c>
       <c r="R26" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>143510</v>
+      </c>
+      <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
+      <c r="U26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7">
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025100078</v>
+        <v>2025100335</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2900,10 +2971,10 @@
         <v>122</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>136</v>
@@ -2912,7 +2983,7 @@
         <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>36</v>
@@ -2931,32 +3002,36 @@
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7">
-        <v>843</v>
+        <v>5983</v>
       </c>
       <c r="R27" s="7">
-        <v>44687</v>
+        <v>32582</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
+      <c r="U27" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB27" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB27" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025100454</v>
+        <v>2025100597</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -2968,16 +3043,16 @@
         <v>122</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>35</v>
@@ -2986,25 +3061,27 @@
         <v>36</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="R28" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S28" s="3"/>
+        <v>13500</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3012,10 +3089,10 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB28" s="3">
         <v>1</v>
@@ -3026,7 +3103,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025100084</v>
+        <v>2025100598</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3038,16 +3115,16 @@
         <v>122</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>144</v>
+        <v>92</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>35</v>
@@ -3056,27 +3133,25 @@
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
-        <v>56</v>
+        <v>900</v>
       </c>
       <c r="R29" s="7">
-        <v>400</v>
-      </c>
-      <c r="S29" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>13500</v>
+      </c>
+      <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3084,21 +3159,19 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB29" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100085</v>
+        <v>2025100077</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3113,13 +3186,13 @@
         <v>31</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>35</v>
@@ -3128,25 +3201,27 @@
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>56</v>
+        <v>843</v>
       </c>
       <c r="R30" s="3">
-        <v>400</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>44687</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3154,11 +3229,9 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA30" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
@@ -3166,7 +3239,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100074</v>
+        <v>2025100078</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3181,40 +3254,40 @@
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
+      <c r="Q31" s="7">
+        <v>843</v>
+      </c>
       <c r="R31" s="7">
-        <v>193</v>
-      </c>
-      <c r="S31" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="7"/>
       <c r="V31" s="7"/>
@@ -3222,21 +3295,19 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB31" s="7">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB31" s="7"/>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025100075</v>
+        <v>2025100454</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3248,39 +3319,41 @@
         <v>122</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3">
+        <v>843</v>
+      </c>
       <c r="R32" s="3">
-        <v>193</v>
+        <v>44687</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -3290,19 +3363,21 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB32" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025100368</v>
+        <v>2025100084</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3314,42 +3389,44 @@
         <v>122</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>153</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M33" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="M33" s="8" t="s">
-        <v>155</v>
-      </c>
       <c r="N33" s="8" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
+      <c r="Q33" s="7">
+        <v>56</v>
+      </c>
       <c r="R33" s="7">
-        <v>155192</v>
+        <v>400</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -3358,10 +3435,10 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -3372,7 +3449,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025100369</v>
+        <v>2025100085</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3384,39 +3461,41 @@
         <v>122</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>153</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M34" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M34" s="6" t="s">
-        <v>155</v>
-      </c>
       <c r="N34" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3">
+        <v>56</v>
+      </c>
       <c r="R34" s="3">
-        <v>155192</v>
+        <v>400</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3426,10 +3505,10 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB34" s="3"/>
     </row>
@@ -3438,7 +3517,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025100371</v>
+        <v>2025100074</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3450,25 +3529,25 @@
         <v>122</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M35" s="8" t="s">
         <v>158</v>
@@ -3482,9 +3561,11 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>140987</v>
-      </c>
-      <c r="S35" s="7"/>
+        <v>193</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
       <c r="V35" s="7"/>
@@ -3492,10 +3573,10 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA35" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB35" s="7">
         <v>1</v>
@@ -3506,7 +3587,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025100370</v>
+        <v>2025100075</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3518,25 +3599,25 @@
         <v>122</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M36" s="6" t="s">
         <v>158</v>
@@ -3550,11 +3631,9 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>140987</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3562,10 +3641,10 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB36" s="3"/>
     </row>
@@ -3574,7 +3653,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025100502</v>
+        <v>2025100368</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3589,10 +3668,10 @@
         <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>160</v>
@@ -3613,15 +3692,15 @@
         <v>163</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>299683</v>
+        <v>155192</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
@@ -3630,17 +3709,21 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="AA37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB37" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025100503</v>
+        <v>2025100369</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3655,10 +3738,10 @@
         <v>85</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>160</v>
@@ -3679,12 +3762,12 @@
         <v>163</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>299683</v>
+        <v>155192</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
@@ -3694,10 +3777,10 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB38" s="3"/>
     </row>
@@ -3706,7 +3789,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025100498</v>
+        <v>2025100371</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3721,10 +3804,10 @@
         <v>85</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>164</v>
@@ -3750,11 +3833,9 @@
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>240934</v>
-      </c>
-      <c r="S39" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>140987</v>
+      </c>
+      <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3762,17 +3843,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
+        <v>128</v>
+      </c>
+      <c r="AA39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025100499</v>
+        <v>2025100370</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3787,10 +3872,10 @@
         <v>85</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>164</v>
@@ -3816,9 +3901,11 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>240934</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>140987</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3826,10 +3913,10 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB40" s="3"/>
     </row>
@@ -3838,7 +3925,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025100070</v>
+        <v>2025100599</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3850,13 +3937,13 @@
         <v>122</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>167</v>
@@ -3868,24 +3955,22 @@
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="N41" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="N41" s="8"/>
       <c r="O41" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>4020</v>
+        <v>50000</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
@@ -3894,10 +3979,10 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB41" s="7">
         <v>1</v>
@@ -3908,7 +3993,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025100071</v>
+        <v>2025100600</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -3920,13 +4005,13 @@
         <v>122</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>167</v>
@@ -3938,21 +4023,19 @@
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="N42" s="6" t="s">
         <v>169</v>
       </c>
+      <c r="N42" s="6"/>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>4020</v>
+        <v>50000</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
@@ -3962,10 +4045,10 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB42" s="3"/>
     </row>
@@ -3974,7 +4057,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025100065</v>
+        <v>2025100502</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -3986,13 +4069,13 @@
         <v>122</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="I43" s="7" t="s">
         <v>170</v>
@@ -4004,24 +4087,24 @@
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>5001</v>
+        <v>299683</v>
       </c>
       <c r="S43" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
@@ -4030,21 +4113,17 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA43" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025100066</v>
+        <v>2025100503</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4056,13 +4135,13 @@
         <v>122</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>170</v>
@@ -4074,21 +4153,21 @@
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>5001</v>
+        <v>299683</v>
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
@@ -4098,10 +4177,10 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB44" s="3"/>
     </row>
@@ -4110,7 +4189,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025100059</v>
+        <v>2025100498</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4122,16 +4201,16 @@
         <v>122</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -4140,24 +4219,24 @@
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>3173</v>
+        <v>240934</v>
       </c>
       <c r="S45" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
@@ -4166,21 +4245,17 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA45" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025100060</v>
+        <v>2025100499</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4192,16 +4267,16 @@
         <v>122</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>60</v>
@@ -4210,21 +4285,21 @@
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>3173</v>
+        <v>240934</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
@@ -4234,10 +4309,10 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB46" s="3"/>
     </row>
@@ -4246,7 +4321,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025100063</v>
+        <v>2025100070</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4261,13 +4336,13 @@
         <v>31</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>60</v>
@@ -4276,24 +4351,24 @@
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>2841</v>
+        <v>4020</v>
       </c>
       <c r="S47" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
@@ -4302,10 +4377,10 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB47" s="7">
         <v>1</v>
@@ -4316,7 +4391,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025100064</v>
+        <v>2025100071</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4331,13 +4406,13 @@
         <v>31</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>60</v>
@@ -4346,21 +4421,21 @@
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>2841</v>
+        <v>4020</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
@@ -4370,10 +4445,10 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB48" s="3"/>
     </row>
@@ -4382,7 +4457,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025100061</v>
+        <v>2025100065</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4397,13 +4472,13 @@
         <v>31</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>60</v>
@@ -4412,24 +4487,24 @@
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>1935</v>
+        <v>5001</v>
       </c>
       <c r="S49" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
@@ -4438,10 +4513,10 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA49" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB49" s="7">
         <v>1</v>
@@ -4452,7 +4527,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025100062</v>
+        <v>2025100066</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4467,13 +4542,13 @@
         <v>31</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>60</v>
@@ -4482,21 +4557,21 @@
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>1935</v>
+        <v>5001</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
@@ -4506,10 +4581,10 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA50" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB50" s="3"/>
     </row>
@@ -4518,7 +4593,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025100336</v>
+        <v>2025100059</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4530,25 +4605,25 @@
         <v>122</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="M51" s="8" t="s">
         <v>184</v>
@@ -4557,29 +4632,27 @@
         <v>185</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P51" s="7"/>
-      <c r="Q51" s="7">
-        <v>28805</v>
-      </c>
+      <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>28881</v>
-      </c>
-      <c r="S51" s="7"/>
+        <v>3173</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T51" s="7"/>
-      <c r="U51" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U51" s="7"/>
       <c r="V51" s="7"/>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AA51" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB51" s="7">
         <v>1</v>
@@ -4590,7 +4663,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025100516</v>
+        <v>2025100060</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4602,31 +4675,31 @@
         <v>122</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4634,11 +4707,9 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>297956</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -4646,9 +4717,11 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA52" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
@@ -4656,7 +4729,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025100517</v>
+        <v>2025100063</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4668,31 +4741,31 @@
         <v>122</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G53" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I53" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H53" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="J53" s="7" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>43</v>
@@ -4700,9 +4773,11 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>297956</v>
-      </c>
-      <c r="S53" s="7"/>
+        <v>2841</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4710,19 +4785,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB53" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025100511</v>
+        <v>2025100064</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4734,31 +4811,31 @@
         <v>122</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="H54" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="J54" s="3" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
@@ -4766,11 +4843,9 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>117288</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2841</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -4778,9 +4853,11 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA54" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
@@ -4788,7 +4865,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025100512</v>
+        <v>2025100061</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4800,31 +4877,31 @@
         <v>122</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>43</v>
@@ -4832,9 +4909,11 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>117288</v>
-      </c>
-      <c r="S55" s="7"/>
+        <v>1935</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -4842,19 +4921,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB55" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025100072</v>
+        <v>2025100062</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4869,28 +4950,28 @@
         <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
@@ -4898,11 +4979,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>54</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1935</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -4910,21 +4989,19 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025100073</v>
+        <v>2025100336</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -4936,61 +5013,67 @@
         <v>122</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>150</v>
+        <v>193</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="Q57" s="7">
+        <v>28805</v>
+      </c>
       <c r="R57" s="7">
-        <v>54</v>
+        <v>28881</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
+      <c r="U57" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB57" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="AB57" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025100067</v>
+        <v>2025100516</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5002,42 +5085,42 @@
         <v>122</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I58" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>942</v>
+        <v>297956</v>
       </c>
       <c r="S58" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
@@ -5046,21 +5129,17 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AA58" s="3"/>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025100068</v>
+        <v>2025100517</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5072,39 +5151,39 @@
         <v>122</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>44</v>
+        <v>196</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I59" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>942</v>
+        <v>297956</v>
       </c>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
@@ -5114,10 +5193,10 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB59" s="7"/>
     </row>
@@ -5126,7 +5205,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025100505</v>
+        <v>2025100511</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5141,39 +5220,39 @@
         <v>85</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>187561</v>
+        <v>117288</v>
       </c>
       <c r="S60" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
@@ -5182,7 +5261,7 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="3"/>
@@ -5192,7 +5271,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025100506</v>
+        <v>2025100512</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5207,36 +5286,36 @@
         <v>85</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>187561</v>
+        <v>117288</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5246,10 +5325,10 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB61" s="7"/>
     </row>
@@ -5258,7 +5337,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025100508</v>
+        <v>2025100072</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5270,42 +5349,42 @@
         <v>122</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>367919</v>
+        <v>54</v>
       </c>
       <c r="S62" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
@@ -5314,17 +5393,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025100509</v>
+        <v>2025100073</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5336,39 +5419,39 @@
         <v>122</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>367919</v>
+        <v>54</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -5378,10 +5461,10 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB63" s="7"/>
     </row>
@@ -5390,7 +5473,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025100079</v>
+        <v>2025100067</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5405,39 +5488,39 @@
         <v>31</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>68795</v>
+        <v>942</v>
       </c>
       <c r="S64" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
@@ -5446,17 +5529,21 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025100080</v>
+        <v>2025100068</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5471,36 +5558,36 @@
         <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>68795</v>
+        <v>942</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -5510,10 +5597,10 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="AA65" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AB65" s="7"/>
     </row>
@@ -5522,7 +5609,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025100009</v>
+        <v>2025100505</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5534,41 +5621,43 @@
         <v>122</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>0</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>187561</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5576,21 +5665,17 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025100042</v>
+        <v>2025100506</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5602,27 +5687,31 @@
         <v>122</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+        <v>211</v>
+      </c>
+      <c r="J67" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K67" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L67" s="8" t="s">
-        <v>80</v>
+        <v>171</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>40</v>
@@ -5630,11 +5719,9 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>0</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>187561</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5642,45 +5729,781 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB67" s="7"/>
+    </row>
+    <row r="68" spans="1:28">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2025100508</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3">
+        <v>367919</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+      <c r="Z68" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
+    </row>
+    <row r="69" spans="1:28">
+      <c r="A69" s="7">
+        <v>67</v>
+      </c>
+      <c r="B69" s="7">
+        <v>2025100509</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7">
+        <v>367919</v>
+      </c>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA69" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB69" s="7"/>
+    </row>
+    <row r="70" spans="1:28">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2025100559</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="N70" s="6"/>
+      <c r="O70" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3">
+        <v>140018</v>
+      </c>
+      <c r="S70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28">
+      <c r="A71" s="7">
+        <v>69</v>
+      </c>
+      <c r="B71" s="7">
+        <v>2025100560</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="J71" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="O71" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7">
+        <v>140018</v>
+      </c>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA71" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB71" s="7"/>
+    </row>
+    <row r="72" spans="1:28">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2025100557</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3">
+        <v>3480</v>
+      </c>
+      <c r="R72" s="3">
+        <v>8923</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28">
+      <c r="A73" s="7">
+        <v>71</v>
+      </c>
+      <c r="B73" s="7">
+        <v>2025100558</v>
+      </c>
+      <c r="C73" s="7">
+        <v>1</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K73" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O73" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7">
+        <v>3480</v>
+      </c>
+      <c r="R73" s="7">
+        <v>8923</v>
+      </c>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA73" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB73" s="7"/>
+    </row>
+    <row r="74" spans="1:28">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2025100079</v>
+      </c>
+      <c r="C74" s="3">
+        <v>1</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3">
+        <v>68795</v>
+      </c>
+      <c r="S74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="3"/>
+    </row>
+    <row r="75" spans="1:28">
+      <c r="A75" s="7">
+        <v>73</v>
+      </c>
+      <c r="B75" s="7">
+        <v>2025100080</v>
+      </c>
+      <c r="C75" s="7">
+        <v>1</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="J75" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K75" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M75" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="N75" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7">
+        <v>68795</v>
+      </c>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA75" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB75" s="7"/>
+    </row>
+    <row r="76" spans="1:28">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2025100009</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28">
+      <c r="A77" s="7">
+        <v>75</v>
+      </c>
+      <c r="B77" s="7">
+        <v>2025100042</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M77" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7">
+        <v>0</v>
+      </c>
+      <c r="S77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="AA67" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB67" s="7"/>
-    </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="T68" s="9"/>
-      <c r="U68" s="9"/>
-      <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
-      <c r="X68" s="9"/>
-      <c r="Y68" s="9"/>
-      <c r="Z68" s="10"/>
-      <c r="AA68" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB68" s="9">
-        <v>30</v>
+      <c r="AA77" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB77" s="7"/>
+    </row>
+    <row r="78" spans="1:28">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2025100636</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="L78" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N78" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB79" s="9">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$90</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -310,6 +310,24 @@
     <t>PMQ4</t>
   </si>
   <si>
+    <t>2025-10-03</t>
+  </si>
+  <si>
+    <t>15:10:00</t>
+  </si>
+  <si>
+    <t>15:34:00</t>
+  </si>
+  <si>
+    <t>THILF03840</t>
+  </si>
+  <si>
+    <t>新北市三重區龍門路176號</t>
+  </si>
+  <si>
+    <t>北縣天龍店</t>
+  </si>
+  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -346,6 +364,21 @@
     <t>三重昌隆店</t>
   </si>
   <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>13:50:00</t>
+  </si>
+  <si>
+    <t>THILF04241</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街12號壹樓部份及仁興街39巷37號壹樓部份</t>
+  </si>
+  <si>
+    <t>三重仁義店</t>
+  </si>
+  <si>
     <t>15:39:00</t>
   </si>
   <si>
@@ -361,6 +394,51 @@
     <t>三重高中店</t>
   </si>
   <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>THILF04352</t>
+  </si>
+  <si>
+    <t>新北市三重區仁興街28巷44、46號</t>
+  </si>
+  <si>
+    <t>三重公園店</t>
+  </si>
+  <si>
+    <t>15:50:00</t>
+  </si>
+  <si>
+    <t>16:12:00</t>
+  </si>
+  <si>
+    <t>THILF04397</t>
+  </si>
+  <si>
+    <t>新北市三重區仁愛街72號一樓</t>
+  </si>
+  <si>
+    <t>三重仁旺店</t>
+  </si>
+  <si>
+    <t>16:20:00</t>
+  </si>
+  <si>
+    <t>16:39:00</t>
+  </si>
+  <si>
+    <t>THILF04586</t>
+  </si>
+  <si>
+    <t>新北市三重區文化北路224巷1號及3號</t>
+  </si>
+  <si>
+    <t>三重三文店</t>
+  </si>
+  <si>
     <t>15:11:00</t>
   </si>
   <si>
@@ -403,9 +481,6 @@
     <t>湯家瑋</t>
   </si>
   <si>
-    <t>2025-10-03</t>
-  </si>
-  <si>
     <t>T251000051</t>
   </si>
   <si>
@@ -469,9 +544,6 @@
     <t>三重</t>
   </si>
   <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
     <t>T252000125</t>
   </si>
   <si>
@@ -490,9 +562,6 @@
     <t>14:00:00</t>
   </si>
   <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -544,6 +613,18 @@
     <t>新北市三重區捷運路32號</t>
   </si>
   <si>
+    <t>T302800029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路5段609巷2號3樓</t>
+  </si>
+  <si>
+    <t>三重湯城4樓(黑)</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -703,16 +784,49 @@
     <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
+    <t>T451800027</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
+  </si>
+  <si>
+    <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
+    <t>T452800031</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號4樓-2(三重湯城)</t>
+  </si>
+  <si>
+    <t>台北客服4樓-2LJ23(黑)</t>
+  </si>
+  <si>
+    <t>T452800032</t>
+  </si>
+  <si>
+    <t>台北客服4樓-2LJ15(黑)</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
-    <t xml:space="preserve"> eS-4528A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市林口區文化二路1段62-5號1F(營業部)</t>
   </si>
   <si>
     <t>林口文化1F營業部</t>
+  </si>
+  <si>
+    <t>T452800069</t>
+  </si>
+  <si>
+    <t>台北客服4樓-2LJ6(黑)</t>
   </si>
   <si>
     <t>THILF03052</t>
@@ -1168,10 +1282,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB79"/>
+  <dimension ref="A1:AB90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A79" sqref="A79"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2287,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025100396</v>
+        <v>2025100705</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2299,16 +2413,16 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
@@ -2316,10 +2430,10 @@
         <v>80</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>43</v>
@@ -2353,7 +2467,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025100094</v>
+        <v>2025100396</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2368,38 +2482,36 @@
         <v>85</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
         <v>80</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2407,7 +2519,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>42</v>
@@ -2421,7 +2533,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025100520</v>
+        <v>2025100094</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2436,36 +2548,38 @@
         <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="L19" s="8" t="s">
         <v>80</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2473,7 +2587,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>42</v>
@@ -2487,7 +2601,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025100501</v>
+        <v>2025100520</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2502,13 +2616,13 @@
         <v>85</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -2516,10 +2630,10 @@
         <v>80</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>43</v>
@@ -2553,7 +2667,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025100457</v>
+        <v>2025100662</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2565,16 +2679,16 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
@@ -2582,10 +2696,10 @@
         <v>80</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>43</v>
@@ -2619,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025100326</v>
+        <v>2025100501</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2634,38 +2748,36 @@
         <v>85</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
         <v>80</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2673,7 +2785,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>42</v>
@@ -2687,7 +2799,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025100405</v>
+        <v>2025100682</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2699,7 +2811,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>120</v>
@@ -2708,7 +2820,7 @@
         <v>121</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
@@ -2716,10 +2828,10 @@
         <v>80</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>43</v>
@@ -2744,14 +2856,16 @@
       <c r="AA23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB23" s="7"/>
+      <c r="AB23" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025100602</v>
+        <v>2025100723</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2760,42 +2874,38 @@
         <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N24" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="O24" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3">
-        <v>2150</v>
-      </c>
+      <c r="Q24" s="3"/>
       <c r="R24" s="3">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>42</v>
@@ -2807,7 +2917,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>42</v>
@@ -2821,7 +2931,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025100603</v>
+        <v>2025100731</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2830,44 +2940,42 @@
         <v>29</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="N25" s="8"/>
+        <v>133</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P25" s="7"/>
-      <c r="Q25" s="7">
-        <v>2150</v>
-      </c>
+      <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <v>43000</v>
-      </c>
-      <c r="S25" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2875,19 +2983,21 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB25" s="7"/>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025100333</v>
+        <v>2025100457</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -2896,56 +3006,50 @@
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="3">
-        <v>16366</v>
-      </c>
+      <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <v>143510</v>
-      </c>
-      <c r="S26" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T26" s="3"/>
-      <c r="U26" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>42</v>
@@ -2959,7 +3063,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025100335</v>
+        <v>2025100326</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -2968,56 +3072,52 @@
         <v>29</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P27" s="7"/>
-      <c r="Q27" s="7">
-        <v>5983</v>
-      </c>
+      <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <v>32582</v>
+        <v>0</v>
       </c>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
-      <c r="U27" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>42</v>
@@ -3031,7 +3131,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025100597</v>
+        <v>2025100405</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3040,28 +3140,24 @@
         <v>29</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>143</v>
@@ -3073,11 +3169,9 @@
         <v>43</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="3">
-        <v>900</v>
-      </c>
+      <c r="Q28" s="3"/>
       <c r="R28" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>42</v>
@@ -3089,21 +3183,19 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB28" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025100598</v>
+        <v>2025100602</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3112,46 +3204,46 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N29" s="8"/>
       <c r="O29" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7">
-        <v>900</v>
+        <v>2150</v>
       </c>
       <c r="R29" s="7">
-        <v>13500</v>
-      </c>
-      <c r="S29" s="7"/>
+        <v>43000</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
@@ -3159,19 +3251,21 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB29" s="7"/>
+      <c r="AB29" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100077</v>
+        <v>2025100603</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3180,48 +3274,44 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>149</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N30" s="6"/>
       <c r="O30" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="3">
-        <v>843</v>
+        <v>2150</v>
       </c>
       <c r="R30" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>43000</v>
+      </c>
+      <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3229,9 +3319,11 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA30" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="AA30" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28">
@@ -3239,7 +3331,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100078</v>
+        <v>2025100333</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3248,66 +3340,70 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7">
-        <v>843</v>
+        <v>16366</v>
       </c>
       <c r="R31" s="7">
-        <v>44687</v>
+        <v>143510</v>
       </c>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
+      <c r="U31" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB31" s="7"/>
+      <c r="AB31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025100454</v>
+        <v>2025100335</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3316,54 +3412,56 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="3">
-        <v>843</v>
+        <v>5983</v>
       </c>
       <c r="R32" s="3">
-        <v>44687</v>
+        <v>32582</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+      <c r="U32" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>42</v>
@@ -3377,7 +3475,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025100084</v>
+        <v>2025100597</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3386,19 +3484,19 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>35</v>
@@ -3407,23 +3505,23 @@
         <v>36</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P33" s="7"/>
       <c r="Q33" s="7">
-        <v>56</v>
+        <v>900</v>
       </c>
       <c r="R33" s="7">
-        <v>400</v>
+        <v>13500</v>
       </c>
       <c r="S33" s="7" t="s">
         <v>42</v>
@@ -3435,7 +3533,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>42</v>
@@ -3449,7 +3547,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025100085</v>
+        <v>2025100598</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3458,19 +3556,19 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>35</v>
@@ -3479,23 +3577,23 @@
         <v>36</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="3">
-        <v>56</v>
+        <v>900</v>
       </c>
       <c r="R34" s="3">
-        <v>400</v>
+        <v>13500</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -3505,7 +3603,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>42</v>
@@ -3517,7 +3615,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025100074</v>
+        <v>2025100077</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3526,42 +3624,44 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
+      <c r="Q35" s="7">
+        <v>843</v>
+      </c>
       <c r="R35" s="7">
-        <v>193</v>
+        <v>44687</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>42</v>
@@ -3573,21 +3673,17 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB35" s="7">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025100075</v>
+        <v>2025100078</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3596,42 +3692,44 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>155</v>
+        <v>50</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K36" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="Q36" s="3">
+        <v>843</v>
+      </c>
       <c r="R36" s="3">
-        <v>193</v>
+        <v>44687</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -3641,7 +3739,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>42</v>
@@ -3653,7 +3751,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025100368</v>
+        <v>2025100454</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3662,46 +3760,46 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
+      <c r="Q37" s="7">
+        <v>843</v>
+      </c>
       <c r="R37" s="7">
-        <v>155192</v>
-      </c>
-      <c r="S37" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3709,7 +3807,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>42</v>
@@ -3723,7 +3821,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025100369</v>
+        <v>2025100084</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3732,44 +3830,48 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="Q38" s="3">
+        <v>56</v>
+      </c>
       <c r="R38" s="3">
-        <v>155192</v>
-      </c>
-      <c r="S38" s="3"/>
+        <v>400</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3777,19 +3879,21 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB38" s="3"/>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025100371</v>
+        <v>2025100085</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3798,42 +3902,44 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
+      <c r="Q39" s="7">
+        <v>56</v>
+      </c>
       <c r="R39" s="7">
-        <v>140987</v>
+        <v>400</v>
       </c>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
@@ -3843,21 +3949,19 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB39" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB39" s="7"/>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025100370</v>
+        <v>2025100074</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3866,34 +3970,34 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>43</v>
@@ -3901,7 +4005,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>140987</v>
+        <v>193</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>42</v>
@@ -3913,19 +4017,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB40" s="3"/>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025100599</v>
+        <v>2025100075</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -3934,44 +4040,44 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="N41" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="O41" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>50000</v>
-      </c>
-      <c r="S41" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
@@ -3979,21 +4085,19 @@
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB41" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025100600</v>
+        <v>2025100368</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4002,19 +4106,19 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>60</v>
@@ -4023,21 +4127,25 @@
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="N42" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>50000</v>
-      </c>
-      <c r="S42" s="3"/>
+        <v>155192</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
@@ -4045,19 +4153,21 @@
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB42" s="3"/>
+      <c r="AB42" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7">
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025100502</v>
+        <v>2025100369</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4066,19 +4176,19 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>151</v>
+        <v>44</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>60</v>
@@ -4087,25 +4197,23 @@
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>299683</v>
-      </c>
-      <c r="S43" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>155192</v>
+      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4113,9 +4221,11 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA43" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="AA43" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
@@ -4123,7 +4233,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025100503</v>
+        <v>2025100370</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4132,19 +4242,19 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>60</v>
@@ -4153,23 +4263,25 @@
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>299683</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>140987</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4177,19 +4289,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025100498</v>
+        <v>2025100371</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4198,19 +4312,19 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>60</v>
@@ -4219,25 +4333,23 @@
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7">
-        <v>240934</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>140987</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4245,9 +4357,11 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA45" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="AA45" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
@@ -4255,7 +4369,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025100499</v>
+        <v>2025100599</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4264,19 +4378,19 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>60</v>
@@ -4285,23 +4399,23 @@
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N46" s="6"/>
       <c r="O46" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3">
-        <v>240934</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4309,19 +4423,21 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB46" s="3"/>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025100070</v>
+        <v>2025100600</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4330,19 +4446,19 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>60</v>
@@ -4351,25 +4467,21 @@
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>179</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N47" s="8"/>
       <c r="O47" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7">
-        <v>4020</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4377,21 +4489,19 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB47" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB47" s="7"/>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025100071</v>
+        <v>2025100713</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4400,19 +4510,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>60</v>
@@ -4421,43 +4531,47 @@
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3">
-        <v>4020</v>
+        <v>10255</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="U48" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025100065</v>
+        <v>2025100503</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4466,19 +4580,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>60</v>
@@ -4487,25 +4601,23 @@
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7">
-        <v>5001</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>299683</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4513,7 +4625,7 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>42</v>
@@ -4527,7 +4639,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025100066</v>
+        <v>2025100502</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4536,19 +4648,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>60</v>
@@ -4557,23 +4669,25 @@
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3">
-        <v>5001</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>299683</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4581,11 +4695,9 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA50" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA50" s="3"/>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
@@ -4593,7 +4705,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025100059</v>
+        <v>2025100498</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4602,19 +4714,19 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>60</v>
@@ -4623,13 +4735,13 @@
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>43</v>
@@ -4637,7 +4749,7 @@
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7">
-        <v>3173</v>
+        <v>240934</v>
       </c>
       <c r="S51" s="7" t="s">
         <v>42</v>
@@ -4649,21 +4761,17 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB51" s="7">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025100060</v>
+        <v>2025100499</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4672,19 +4780,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>60</v>
@@ -4693,13 +4801,13 @@
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>40</v>
@@ -4707,7 +4815,7 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3">
-        <v>3173</v>
+        <v>240934</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4717,7 +4825,7 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>42</v>
@@ -4729,7 +4837,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025100063</v>
+        <v>2025100070</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4738,19 +4846,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>60</v>
@@ -4759,13 +4867,13 @@
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O53" s="7" t="s">
         <v>43</v>
@@ -4773,7 +4881,7 @@
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7">
-        <v>2841</v>
+        <v>4020</v>
       </c>
       <c r="S53" s="7" t="s">
         <v>42</v>
@@ -4785,7 +4893,7 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>42</v>
@@ -4799,7 +4907,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025100064</v>
+        <v>2025100071</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4808,19 +4916,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>60</v>
@@ -4829,13 +4937,13 @@
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>40</v>
@@ -4843,7 +4951,7 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3">
-        <v>2841</v>
+        <v>4020</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -4853,7 +4961,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>42</v>
@@ -4865,7 +4973,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025100061</v>
+        <v>2025100065</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4874,19 +4982,19 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>60</v>
@@ -4895,13 +5003,13 @@
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O55" s="7" t="s">
         <v>43</v>
@@ -4909,7 +5017,7 @@
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7">
-        <v>1935</v>
+        <v>5001</v>
       </c>
       <c r="S55" s="7" t="s">
         <v>42</v>
@@ -4921,7 +5029,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>42</v>
@@ -4935,7 +5043,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025100062</v>
+        <v>2025100066</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -4944,19 +5052,19 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>60</v>
@@ -4965,13 +5073,13 @@
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
@@ -4979,7 +5087,7 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>1935</v>
+        <v>5001</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -4989,7 +5097,7 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA56" s="3" t="s">
         <v>42</v>
@@ -5001,7 +5109,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025100336</v>
+        <v>2025100059</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5010,56 +5118,54 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7">
-        <v>28805</v>
-      </c>
+      <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>28881</v>
-      </c>
-      <c r="S57" s="7"/>
+        <v>3173</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T57" s="7"/>
-      <c r="U57" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U57" s="7"/>
       <c r="V57" s="7"/>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>42</v>
@@ -5073,7 +5179,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025100516</v>
+        <v>2025100060</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5082,46 +5188,44 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>297956</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5129,9 +5233,11 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA58" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
@@ -5139,7 +5245,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025100517</v>
+        <v>2025100063</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5148,44 +5254,46 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>297956</v>
-      </c>
-      <c r="S59" s="7"/>
+        <v>2841</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5193,19 +5301,21 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB59" s="7"/>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025100511</v>
+        <v>2025100064</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5214,46 +5324,44 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>117288</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>2841</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5261,9 +5369,11 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA60" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
@@ -5271,7 +5381,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025100512</v>
+        <v>2025100061</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5280,44 +5390,46 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>117288</v>
-      </c>
-      <c r="S61" s="7"/>
+        <v>1935</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -5325,19 +5437,21 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB61" s="7"/>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025100072</v>
+        <v>2025100062</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5346,46 +5460,44 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>198</v>
+        <v>60</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>54</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>1935</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5393,21 +5505,19 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AB62" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025100073</v>
+        <v>2025100336</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5416,64 +5526,70 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>198</v>
+        <v>72</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="7">
+        <v>28805</v>
+      </c>
       <c r="R63" s="7">
-        <v>54</v>
+        <v>28881</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
+      <c r="U63" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AB63" s="7"/>
+      <c r="AB63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025100067</v>
+        <v>2025100516</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5482,34 +5598,34 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>43</v>
@@ -5517,7 +5633,7 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>942</v>
+        <v>297956</v>
       </c>
       <c r="S64" s="3" t="s">
         <v>42</v>
@@ -5529,21 +5645,17 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA64" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA64" s="3"/>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025100068</v>
+        <v>2025100517</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5552,34 +5664,34 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>157</v>
+        <v>226</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>40</v>
@@ -5587,7 +5699,7 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>942</v>
+        <v>297956</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
@@ -5597,7 +5709,7 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>42</v>
@@ -5609,7 +5721,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025100505</v>
+        <v>2025100512</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5618,46 +5730,44 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>85</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>187561</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>117288</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5665,17 +5775,21 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025100506</v>
+        <v>2025100511</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5684,44 +5798,46 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>187561</v>
-      </c>
-      <c r="S67" s="7"/>
+        <v>117288</v>
+      </c>
+      <c r="S67" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5729,11 +5845,9 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA67" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5741,7 +5855,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025100508</v>
+        <v>2025100072</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5750,34 +5864,34 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>43</v>
@@ -5785,7 +5899,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>367919</v>
+        <v>54</v>
       </c>
       <c r="S68" s="3" t="s">
         <v>42</v>
@@ -5797,17 +5911,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025100509</v>
+        <v>2025100073</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5816,34 +5934,34 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>40</v>
@@ -5851,7 +5969,7 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>367919</v>
+        <v>54</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -5861,7 +5979,7 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>42</v>
@@ -5873,7 +5991,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025100559</v>
+        <v>2025100067</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -5882,40 +6000,42 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="N70" s="6"/>
+        <v>236</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>237</v>
+      </c>
       <c r="O70" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>140018</v>
+        <v>942</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>42</v>
@@ -5927,7 +6047,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>42</v>
@@ -5941,7 +6061,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025100560</v>
+        <v>2025100068</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -5950,40 +6070,42 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="N71" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>237</v>
+      </c>
       <c r="O71" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>140018</v>
+        <v>942</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -5993,7 +6115,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>42</v>
@@ -6005,7 +6127,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025100557</v>
+        <v>2025100505</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6014,44 +6136,42 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P72" s="3"/>
-      <c r="Q72" s="3">
-        <v>3480</v>
-      </c>
+      <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>8923</v>
+        <v>187561</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>42</v>
@@ -6063,21 +6183,17 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA72" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025100558</v>
+        <v>2025100506</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6086,44 +6202,42 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P73" s="7"/>
-      <c r="Q73" s="7">
-        <v>3480</v>
-      </c>
+      <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>8923</v>
+        <v>187561</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -6133,7 +6247,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>42</v>
@@ -6145,7 +6259,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025100079</v>
+        <v>2025100508</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6154,34 +6268,34 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="O74" s="3" t="s">
         <v>43</v>
@@ -6189,7 +6303,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>68795</v>
+        <v>367919</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>42</v>
@@ -6201,7 +6315,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA74" s="3"/>
       <c r="AB74" s="3"/>
@@ -6211,7 +6325,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025100080</v>
+        <v>2025100509</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6220,34 +6334,34 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>40</v>
@@ -6255,7 +6369,7 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>68795</v>
+        <v>367919</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6265,7 +6379,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>42</v>
@@ -6277,7 +6391,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025100009</v>
+        <v>2025100559</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6286,44 +6400,44 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>229</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N76" s="6"/>
       <c r="O76" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3"/>
+        <v>140018</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
@@ -6331,7 +6445,7 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>42</v>
@@ -6345,7 +6459,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025100042</v>
+        <v>2025100560</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6354,42 +6468,42 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L77" s="8" t="s">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>229</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N77" s="8"/>
       <c r="O77" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>0</v>
-      </c>
-      <c r="S77" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>140018</v>
+      </c>
+      <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
       <c r="V77" s="7"/>
@@ -6397,7 +6511,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>42</v>
@@ -6409,7 +6523,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025100636</v>
+        <v>2025100557</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6418,44 +6532,48 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>232</v>
+        <v>148</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
+      <c r="Q78" s="3">
+        <v>3480</v>
+      </c>
       <c r="R78" s="3">
-        <v>0</v>
-      </c>
-      <c r="S78" s="3"/>
+        <v>8923</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
@@ -6463,7 +6581,7 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="AA78" s="3" t="s">
         <v>42</v>
@@ -6473,37 +6591,779 @@
       </c>
     </row>
     <row r="79" spans="1:28">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="9"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-      <c r="Y79" s="9"/>
-      <c r="Z79" s="10"/>
-      <c r="AA79" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB79" s="9">
+      <c r="A79" s="7">
+        <v>77</v>
+      </c>
+      <c r="B79" s="7">
+        <v>2025100558</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="N79" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7">
+        <v>3480</v>
+      </c>
+      <c r="R79" s="7">
+        <v>8923</v>
+      </c>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA79" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB79" s="7"/>
+    </row>
+    <row r="80" spans="1:28">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2025100708</v>
+      </c>
+      <c r="C80" s="3">
+        <v>1</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="N80" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3">
+        <v>28</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+    </row>
+    <row r="81" spans="1:28">
+      <c r="A81" s="7">
+        <v>79</v>
+      </c>
+      <c r="B81" s="7">
+        <v>2025100709</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K81" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M81" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="N81" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7">
+        <v>28</v>
+      </c>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB81" s="7"/>
+    </row>
+    <row r="82" spans="1:28">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" s="3">
+        <v>2025100712</v>
+      </c>
+      <c r="C82" s="3">
+        <v>1</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N82" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3">
+        <v>12160</v>
+      </c>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28">
+      <c r="A83" s="7">
+        <v>81</v>
+      </c>
+      <c r="B83" s="7">
+        <v>2025100711</v>
+      </c>
+      <c r="C83" s="7">
+        <v>1</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K83" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="M83" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="N83" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7">
+        <v>87781</v>
+      </c>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2025100079</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L84" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="N84" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3">
+        <v>68795</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28">
+      <c r="A85" s="7">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
+        <v>2025100080</v>
+      </c>
+      <c r="C85" s="7">
+        <v>1</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="J85" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K85" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="N85" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O85" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7">
+        <v>68795</v>
+      </c>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA85" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB85" s="7"/>
+    </row>
+    <row r="86" spans="1:28">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2025100710</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3">
+        <v>47607</v>
+      </c>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28">
+      <c r="A87" s="7">
+        <v>85</v>
+      </c>
+      <c r="B87" s="7">
+        <v>2025100009</v>
+      </c>
+      <c r="C87" s="7">
+        <v>1</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="J87" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M87" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="N87" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="O87" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7">
+        <v>0</v>
+      </c>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA87" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2025100042</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="N88" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28">
+      <c r="A89" s="7">
+        <v>87</v>
+      </c>
+      <c r="B89" s="7">
+        <v>2025100636</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="M89" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7">
+        <v>0</v>
+      </c>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28">
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
+      <c r="Z90" s="10"/>
+      <c r="AA90" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB90" s="9">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$114</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -152,18 +152,18 @@
     <t>住商石牌</t>
   </si>
   <si>
+    <t>服務</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PM抄表</t>
+  </si>
+  <si>
     <t>抄表</t>
   </si>
   <si>
-    <t>PM抄表</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>服務</t>
-  </si>
-  <si>
     <t>10:30:00</t>
   </si>
   <si>
@@ -257,6 +257,45 @@
     <t>新北市淡水區中正路28號4樓(淡水)</t>
   </si>
   <si>
+    <t>2025-10-07</t>
+  </si>
+  <si>
+    <t>15:20:00</t>
+  </si>
+  <si>
+    <t>15:40:00</t>
+  </si>
+  <si>
+    <t>THILF02014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路66號</t>
+  </si>
+  <si>
+    <t>三重果菜市場</t>
+  </si>
+  <si>
+    <t>PMQ4</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>THILF02259</t>
+  </si>
+  <si>
+    <t>新北市三重區中華路18號</t>
+  </si>
+  <si>
+    <t>三重興華店</t>
+  </si>
+  <si>
     <t>11:59:00</t>
   </si>
   <si>
@@ -270,9 +309,6 @@
   </si>
   <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t xml:space="preserve">萊爾富國際股份有限公司 </t>
   </si>
   <si>
     <t>新北市淡水區北新路137、139號1F</t>
@@ -289,6 +325,72 @@
 換上8138002690</t>
   </si>
   <si>
+    <t>10:10:00</t>
+  </si>
+  <si>
+    <t>THILF02399</t>
+  </si>
+  <si>
+    <t>新北市三重區三陽路59號</t>
+  </si>
+  <si>
+    <t>三重三陽店</t>
+  </si>
+  <si>
+    <t>11:20:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>THILF02837</t>
+  </si>
+  <si>
+    <t>新北市三重區中華路92號及94號</t>
+  </si>
+  <si>
+    <t>三重洛陽店</t>
+  </si>
+  <si>
+    <t>13:45:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>THILF03362</t>
+  </si>
+  <si>
+    <t>新北市三重區安慶街203之1號</t>
+  </si>
+  <si>
+    <t>三重安慶店</t>
+  </si>
+  <si>
+    <t>變壓器鬆脫，插緊後測試正常</t>
+  </si>
+  <si>
+    <t>14:10:00</t>
+  </si>
+  <si>
+    <t>14:52:00</t>
+  </si>
+  <si>
+    <t>14:55:00</t>
+  </si>
+  <si>
+    <t>15:15:00</t>
+  </si>
+  <si>
+    <t>THILF03623</t>
+  </si>
+  <si>
+    <t>新北市三重區自強路二段74巷1號及特76號</t>
+  </si>
+  <si>
+    <t>三重自強店</t>
+  </si>
+  <si>
     <t>2025-10-02</t>
   </si>
   <si>
@@ -307,7 +409,19 @@
     <t>三重重新橋</t>
   </si>
   <si>
-    <t>PMQ4</t>
+    <t>16:25:00</t>
+  </si>
+  <si>
+    <t>16:50:00</t>
+  </si>
+  <si>
+    <t>THILF03676</t>
+  </si>
+  <si>
+    <t>新北市三重區忠孝路三段50巷98號</t>
+  </si>
+  <si>
+    <t>三重田心店</t>
   </si>
   <si>
     <t>2025-10-03</t>
@@ -340,9 +454,6 @@
     <t>三重美堤店</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -394,9 +505,6 @@
     <t>三重高中店</t>
   </si>
   <si>
-    <t>14:10:00</t>
-  </si>
-  <si>
     <t>14:30:00</t>
   </si>
   <si>
@@ -439,6 +547,27 @@
     <t>三重三文店</t>
   </si>
   <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>THILF05245</t>
+  </si>
+  <si>
+    <t>新北市三重區三陽路14巷12號及14號</t>
+  </si>
+  <si>
+    <t>三重護山店</t>
+  </si>
+  <si>
+    <t>THILF0D024</t>
+  </si>
+  <si>
+    <t>新北市三重區三民街100,102號</t>
+  </si>
+  <si>
+    <t>三重三民店</t>
+  </si>
+  <si>
     <t>15:11:00</t>
   </si>
   <si>
@@ -472,9 +601,6 @@
     <t>變壓器鬆脫，將變壓器插回後正常</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
     <t>12:28:00</t>
   </si>
   <si>
@@ -517,9 +643,6 @@
     <t>碳粉</t>
   </si>
   <si>
-    <t>09:30:00</t>
-  </si>
-  <si>
     <t>T251000090</t>
   </si>
   <si>
@@ -532,6 +655,27 @@
     <t>行政組</t>
   </si>
   <si>
+    <t>T252000025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">品興營造股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市泰山區莊田路與信華三街交叉口(華固一莊)</t>
+  </si>
+  <si>
+    <t>華固一莊</t>
+  </si>
+  <si>
+    <t>T252000086</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街79巷旁工地</t>
+  </si>
+  <si>
+    <t>華固慕川</t>
+  </si>
+  <si>
     <t>T252000102</t>
   </si>
   <si>
@@ -544,6 +688,15 @@
     <t>三重</t>
   </si>
   <si>
+    <t>T252000113</t>
+  </si>
+  <si>
+    <t>新北市三重區仁義街與元信一街交叉口</t>
+  </si>
+  <si>
+    <t>華固織幸</t>
+  </si>
+  <si>
     <t>T252000125</t>
   </si>
   <si>
@@ -559,9 +712,6 @@
     <t>測試正常</t>
   </si>
   <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
     <t>T252000136</t>
   </si>
   <si>
@@ -625,6 +775,9 @@
     <t>三重湯城4樓(黑)</t>
   </si>
   <si>
+    <t>09:15:00</t>
+  </si>
+  <si>
     <t>T302800057</t>
   </si>
   <si>
@@ -814,6 +967,9 @@
     <t>台北客服4樓-2LJ15(黑)</t>
   </si>
   <si>
+    <t>08:45:00</t>
+  </si>
+  <si>
     <t>T452800047</t>
   </si>
   <si>
@@ -842,6 +998,35 @@
   </si>
   <si>
     <t>12:30:00</t>
+  </si>
+  <si>
+    <t>THILF04210</t>
+  </si>
+  <si>
+    <t>新北市三重區五華街70號</t>
+  </si>
+  <si>
+    <t>三重福華店</t>
+  </si>
+  <si>
+    <t>暫撤店</t>
+  </si>
+  <si>
+    <t>THILF04679</t>
+  </si>
+  <si>
+    <t>新北市新莊區幸福東路149、151號一樓</t>
+  </si>
+  <si>
+    <t>新莊幸運店</t>
+  </si>
+  <si>
+    <t>PMQ3</t>
+  </si>
+  <si>
+    <t>更換發票機
+換上8155004152
+換下8155002887</t>
   </si>
   <si>
     <t>狄澤洋</t>
@@ -1282,10 +1467,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB90"/>
+  <dimension ref="A1:AB114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1443,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <v>2025100147</v>
+        <v>2025100146</v>
       </c>
       <c r="C3" s="7">
         <v>1</v>
@@ -1491,7 +1676,9 @@
       <c r="R3" s="7">
         <v>105</v>
       </c>
-      <c r="S3" s="7"/>
+      <c r="S3" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
@@ -1499,10 +1686,10 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
       <c r="Z3" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="7">
         <v>1</v>
@@ -1513,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2025100146</v>
+        <v>2025100147</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1561,9 +1748,7 @@
       <c r="R4" s="3">
         <v>105</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1571,10 +1756,10 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="3"/>
     </row>
@@ -1622,7 +1807,7 @@
         <v>49</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7">
@@ -1632,7 +1817,7 @@
         <v>159</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
@@ -1641,10 +1826,10 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
       <c r="Z5" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="7">
         <v>1</v>
@@ -1694,7 +1879,7 @@
         <v>49</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3">
@@ -1711,10 +1896,10 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="3"/>
     </row>
@@ -1762,7 +1947,7 @@
         <v>56</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
@@ -1770,7 +1955,7 @@
         <v>25058</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="7"/>
@@ -1779,10 +1964,10 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA7" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="7">
         <v>1</v>
@@ -1832,7 +2017,7 @@
         <v>56</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1847,10 +2032,10 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB8" s="3"/>
     </row>
@@ -1898,7 +2083,7 @@
         <v>63</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
@@ -1906,7 +2091,7 @@
         <v>68653</v>
       </c>
       <c r="S9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1915,10 +2100,10 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
       <c r="Z9" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="7">
         <v>1</v>
@@ -1968,7 +2153,7 @@
         <v>63</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -1983,10 +2168,10 @@
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="3"/>
     </row>
@@ -2032,7 +2217,7 @@
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -2040,7 +2225,7 @@
         <v>28400</v>
       </c>
       <c r="S11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="7"/>
@@ -2049,10 +2234,10 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
       <c r="Z11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB11" s="7">
         <v>1</v>
@@ -2100,7 +2285,7 @@
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2115,10 +2300,10 @@
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB12" s="3"/>
     </row>
@@ -2166,7 +2351,7 @@
         <v>56</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
@@ -2176,7 +2361,7 @@
         <v>302935</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" s="7"/>
       <c r="U13" s="7"/>
@@ -2185,10 +2370,10 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB13" s="7">
         <v>1</v>
@@ -2238,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -2255,10 +2440,10 @@
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB14" s="3"/>
     </row>
@@ -2267,7 +2452,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025100008</v>
+        <v>2025100991</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2279,41 +2464,39 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="N15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="N15" s="8" t="s">
-        <v>82</v>
-      </c>
       <c r="O15" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
         <v>0</v>
       </c>
-      <c r="S15" s="7"/>
+      <c r="S15" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2321,10 +2504,10 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB15" s="7">
         <v>1</v>
@@ -2335,7 +2518,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025100452</v>
+        <v>2025100874</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2347,30 +2530,30 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2378,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2387,10 +2570,10 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB16" s="3">
         <v>1</v>
@@ -2401,7 +2584,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025100705</v>
+        <v>2025100008</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2413,39 +2596,41 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="N17" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="O17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>0</v>
       </c>
-      <c r="S17" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S17" s="7"/>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2453,10 +2638,10 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AA17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB17" s="7">
         <v>1</v>
@@ -2467,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025100396</v>
+        <v>2025100856</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2479,30 +2664,30 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M18" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N18" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
@@ -2510,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2519,10 +2704,10 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB18" s="3">
         <v>1</v>
@@ -2533,7 +2718,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025100094</v>
+        <v>2025100916</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2545,41 +2730,39 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="I19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="M19" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>0</v>
       </c>
-      <c r="S19" s="7"/>
+      <c r="S19" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -2587,10 +2770,10 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AA19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB19" s="7">
         <v>1</v>
@@ -2601,7 +2784,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025100520</v>
+        <v>2025100893</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2613,39 +2796,41 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="L20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2653,10 +2838,10 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="AA20" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB20" s="3">
         <v>1</v>
@@ -2667,7 +2852,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025100662</v>
+        <v>2025100966</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -2679,30 +2864,30 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -2710,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
@@ -2719,21 +2904,19 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB21" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB21" s="7"/>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025100501</v>
+        <v>2025100973</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -2745,30 +2928,30 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="N22" s="6" t="s">
-        <v>119</v>
-      </c>
       <c r="O22" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2776,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2785,10 +2968,10 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB22" s="3">
         <v>1</v>
@@ -2799,7 +2982,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025100682</v>
+        <v>2025100452</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -2811,7 +2994,7 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>120</v>
@@ -2825,7 +3008,7 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>123</v>
@@ -2834,7 +3017,7 @@
         <v>124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
@@ -2842,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
@@ -2851,10 +3034,10 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA23" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB23" s="7">
         <v>1</v>
@@ -2865,7 +3048,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025100723</v>
+        <v>2025101027</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -2877,7 +3060,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>125</v>
@@ -2891,7 +3074,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M24" s="6" t="s">
         <v>128</v>
@@ -2900,7 +3083,7 @@
         <v>129</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2908,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -2917,10 +3100,10 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB24" s="3">
         <v>1</v>
@@ -2931,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025100731</v>
+        <v>2025100705</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -2943,30 +3126,30 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
@@ -2974,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
@@ -2983,10 +3166,10 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA25" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB25" s="7">
         <v>1</v>
@@ -2997,7 +3180,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025100457</v>
+        <v>2025100396</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3009,13 +3192,13 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>137</v>
@@ -3023,7 +3206,7 @@
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M26" s="6" t="s">
         <v>138</v>
@@ -3032,7 +3215,7 @@
         <v>139</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
@@ -3040,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3049,10 +3232,10 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB26" s="3">
         <v>1</v>
@@ -3063,7 +3246,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025100326</v>
+        <v>2025100094</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3075,34 +3258,34 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="I27" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="M27" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
@@ -3117,10 +3300,10 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA27" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB27" s="7">
         <v>1</v>
@@ -3131,7 +3314,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025100405</v>
+        <v>2025100520</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3143,30 +3326,30 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
@@ -3174,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
@@ -3183,19 +3366,21 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB28" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025100602</v>
+        <v>2025100662</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3204,45 +3389,41 @@
         <v>29</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M29" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L29" s="8" t="s">
+      <c r="N29" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="N29" s="8"/>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P29" s="7"/>
-      <c r="Q29" s="7">
-        <v>2150</v>
-      </c>
+      <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
@@ -3251,10 +3432,10 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA29" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB29" s="7">
         <v>1</v>
@@ -3265,7 +3446,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100603</v>
+        <v>2025100501</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3274,44 +3455,42 @@
         <v>29</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
       <c r="L30" s="6" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="N30" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P30" s="3"/>
-      <c r="Q30" s="3">
-        <v>2150</v>
-      </c>
+      <c r="Q30" s="3"/>
       <c r="R30" s="3">
-        <v>43000</v>
-      </c>
-      <c r="S30" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -3319,19 +3498,21 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB30" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100333</v>
+        <v>2025100682</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3340,59 +3521,53 @@
         <v>29</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="8" t="s">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7">
-        <v>16366</v>
-      </c>
+      <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <v>143510</v>
-      </c>
-      <c r="S31" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T31" s="7"/>
-      <c r="U31" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U31" s="7"/>
       <c r="V31" s="7"/>
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AA31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB31" s="7">
         <v>1</v>
@@ -3403,7 +3578,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025100335</v>
+        <v>2025100723</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3412,28 +3587,24 @@
         <v>29</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="M32" s="6" t="s">
         <v>164</v>
@@ -3442,29 +3613,27 @@
         <v>165</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3">
-        <v>5983</v>
-      </c>
+      <c r="Q32" s="3"/>
       <c r="R32" s="3">
-        <v>32582</v>
-      </c>
-      <c r="S32" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T32" s="3"/>
-      <c r="U32" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AA32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB32" s="3">
         <v>1</v>
@@ -3475,7 +3644,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025100597</v>
+        <v>2025100731</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3484,47 +3653,41 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>98</v>
+        <v>167</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="8" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P33" s="7"/>
-      <c r="Q33" s="7">
-        <v>900</v>
-      </c>
+      <c r="Q33" s="7"/>
       <c r="R33" s="7">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
@@ -3533,10 +3696,10 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB33" s="7">
         <v>1</v>
@@ -3547,7 +3710,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025100598</v>
+        <v>2025100855</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3556,46 +3719,42 @@
         <v>29</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3">
-        <v>900</v>
-      </c>
+      <c r="Q34" s="3"/>
       <c r="R34" s="3">
-        <v>13500</v>
-      </c>
-      <c r="S34" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3603,19 +3762,21 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA34" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB34" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025100077</v>
+        <v>2025101018</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3624,47 +3785,41 @@
         <v>29</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P35" s="7"/>
-      <c r="Q35" s="7">
-        <v>843</v>
-      </c>
+      <c r="Q35" s="7"/>
       <c r="R35" s="7">
-        <v>44687</v>
+        <v>0</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35" s="7"/>
       <c r="U35" s="7"/>
@@ -3673,17 +3828,21 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="AA35" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025100078</v>
+        <v>2025100457</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3692,46 +3851,42 @@
         <v>29</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="3"/>
-      <c r="Q36" s="3">
-        <v>843</v>
-      </c>
+      <c r="Q36" s="3"/>
       <c r="R36" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S36" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3739,19 +3894,21 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA36" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB36" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025100454</v>
+        <v>2025100326</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3760,44 +3917,42 @@
         <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>171</v>
+        <v>79</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="P37" s="7"/>
-      <c r="Q37" s="7">
-        <v>843</v>
-      </c>
+      <c r="Q37" s="7"/>
       <c r="R37" s="7">
-        <v>44687</v>
+        <v>0</v>
       </c>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
@@ -3807,10 +3962,10 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="AA37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB37" s="7">
         <v>1</v>
@@ -3821,7 +3976,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025100084</v>
+        <v>2025100405</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3830,47 +3985,41 @@
         <v>29</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P38" s="3"/>
-      <c r="Q38" s="3">
-        <v>56</v>
-      </c>
+      <c r="Q38" s="3"/>
       <c r="R38" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
@@ -3879,21 +4028,19 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="AA38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025100085</v>
+        <v>2025100602</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -3902,46 +4049,46 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="K39" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>169</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N39" s="8"/>
       <c r="O39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P39" s="7"/>
       <c r="Q39" s="7">
-        <v>56</v>
+        <v>2150</v>
       </c>
       <c r="R39" s="7">
-        <v>400</v>
-      </c>
-      <c r="S39" s="7"/>
+        <v>43000</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
@@ -3949,19 +4096,21 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB39" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025100074</v>
+        <v>2025100603</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -3970,46 +4119,44 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K40" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="N40" s="6" t="s">
-        <v>182</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N40" s="6"/>
       <c r="O40" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="Q40" s="3">
+        <v>2150</v>
+      </c>
       <c r="R40" s="3">
-        <v>193</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>43000</v>
+      </c>
+      <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4017,21 +4164,19 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025100075</v>
+        <v>2025100333</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4040,64 +4185,70 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="7">
+        <v>16366</v>
+      </c>
       <c r="R41" s="7">
-        <v>193</v>
+        <v>143510</v>
       </c>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
+      <c r="U41" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="AA41" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB41" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB41" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:28">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025100368</v>
+        <v>2025100335</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4106,57 +4257,59 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>98</v>
+        <v>197</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="Q42" s="3">
+        <v>5983</v>
+      </c>
       <c r="R42" s="3">
-        <v>155192</v>
-      </c>
-      <c r="S42" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>32582</v>
+      </c>
+      <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
+      <c r="U42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="AA42" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB42" s="3">
         <v>1</v>
@@ -4167,7 +4320,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025100369</v>
+        <v>2025100847</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4176,44 +4329,50 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="P43" s="7">
+        <v>6677</v>
+      </c>
+      <c r="Q43" s="7">
+        <v>15120</v>
+      </c>
       <c r="R43" s="7">
-        <v>155192</v>
-      </c>
-      <c r="S43" s="7"/>
+        <v>19337</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4221,19 +4380,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB43" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025100370</v>
+        <v>2025100848</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4242,46 +4403,48 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="I44" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="P44" s="3">
+        <v>6677</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>15120</v>
+      </c>
       <c r="R44" s="3">
-        <v>140987</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>19337</v>
+      </c>
+      <c r="S44" s="3"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4289,21 +4452,19 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025100371</v>
+        <v>2025100845</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4312,44 +4473,50 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="O45" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="P45" s="7">
+        <v>1800</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>2596</v>
+      </c>
       <c r="R45" s="7">
-        <v>140987</v>
-      </c>
-      <c r="S45" s="7"/>
+        <v>7150</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4357,19 +4524,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA45" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB45" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025100599</v>
+        <v>2025100846</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4378,44 +4547,48 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="N46" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="O46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="P46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>2596</v>
+      </c>
       <c r="R46" s="3">
-        <v>50000</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -4423,21 +4596,19 @@
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA46" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025100600</v>
+        <v>2025100597</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4446,42 +4617,48 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="N47" s="8"/>
+        <v>216</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
+      <c r="Q47" s="7">
+        <v>900</v>
+      </c>
       <c r="R47" s="7">
-        <v>50000</v>
-      </c>
-      <c r="S47" s="7"/>
+        <v>13500</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
@@ -4489,19 +4666,21 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB47" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB47" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:28">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025100713</v>
+        <v>2025100598</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4510,68 +4689,66 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="3">
+        <v>900</v>
+      </c>
       <c r="R48" s="3">
-        <v>10255</v>
+        <v>13500</v>
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AA48" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025100503</v>
+        <v>2025101025</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4580,44 +4757,50 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O49" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
+      <c r="P49" s="7">
+        <v>117</v>
+      </c>
+      <c r="Q49" s="7">
+        <v>926</v>
+      </c>
       <c r="R49" s="7">
-        <v>299683</v>
-      </c>
-      <c r="S49" s="7"/>
+        <v>3189</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4625,10 +4808,10 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA49" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB49" s="7">
         <v>1</v>
@@ -4639,7 +4822,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025100502</v>
+        <v>2025101026</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4648,46 +4831,48 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K50" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="O50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="P50" s="3">
+        <v>117</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>926</v>
+      </c>
       <c r="R50" s="3">
-        <v>299683</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>3189</v>
+      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4695,9 +4880,11 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA50" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
@@ -4705,7 +4892,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025100498</v>
+        <v>2025100077</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4714,45 +4901,47 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
+      <c r="Q51" s="7">
+        <v>843</v>
+      </c>
       <c r="R51" s="7">
-        <v>240934</v>
+        <v>44687</v>
       </c>
       <c r="S51" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
@@ -4761,7 +4950,7 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
@@ -4771,7 +4960,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025100499</v>
+        <v>2025100078</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4780,42 +4969,44 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>50</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="Q52" s="3">
+        <v>843</v>
+      </c>
       <c r="R52" s="3">
-        <v>240934</v>
+        <v>44687</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
@@ -4825,10 +5016,10 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA52" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB52" s="3"/>
     </row>
@@ -4837,7 +5028,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025100070</v>
+        <v>2025100454</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -4846,46 +5037,46 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K53" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
+      <c r="Q53" s="7">
+        <v>843</v>
+      </c>
       <c r="R53" s="7">
-        <v>4020</v>
-      </c>
-      <c r="S53" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -4893,10 +5084,10 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="AA53" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB53" s="7">
         <v>1</v>
@@ -4907,7 +5098,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025100071</v>
+        <v>2025100085</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -4916,42 +5107,44 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="Q54" s="3">
+        <v>56</v>
+      </c>
       <c r="R54" s="3">
-        <v>4020</v>
+        <v>400</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
@@ -4961,19 +5154,21 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB54" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025100065</v>
+        <v>2025100084</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -4982,45 +5177,47 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K55" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
+      <c r="Q55" s="7">
+        <v>56</v>
+      </c>
       <c r="R55" s="7">
-        <v>5001</v>
+        <v>400</v>
       </c>
       <c r="S55" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
@@ -5029,21 +5226,19 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA55" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB55" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB55" s="7"/>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025100066</v>
+        <v>2025100074</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5052,34 +5247,34 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
@@ -5087,9 +5282,11 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3">
-        <v>5001</v>
-      </c>
-      <c r="S56" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5097,19 +5294,21 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB56" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025100059</v>
+        <v>2025100075</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5118,34 +5317,34 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>155</v>
+        <v>102</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
@@ -5153,11 +5352,9 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7">
-        <v>3173</v>
-      </c>
-      <c r="S57" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5165,21 +5362,19 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA57" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB57" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025100060</v>
+        <v>2025100368</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5188,19 +5383,19 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>60</v>
@@ -5209,13 +5404,13 @@
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>40</v>
@@ -5223,9 +5418,11 @@
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3">
-        <v>3173</v>
-      </c>
-      <c r="S58" s="3"/>
+        <v>155192</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5233,19 +5430,21 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB58" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025100063</v>
+        <v>2025100369</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5254,19 +5453,19 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>60</v>
@@ -5275,13 +5474,13 @@
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O59" s="7" t="s">
         <v>43</v>
@@ -5289,11 +5488,9 @@
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7">
-        <v>2841</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>155192</v>
+      </c>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5301,21 +5498,19 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA59" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB59" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB59" s="7"/>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025100064</v>
+        <v>2025100370</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5324,19 +5519,19 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>60</v>
@@ -5345,13 +5540,13 @@
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>40</v>
@@ -5359,9 +5554,11 @@
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3">
-        <v>2841</v>
-      </c>
-      <c r="S60" s="3"/>
+        <v>140987</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5369,19 +5566,21 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB60" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025100061</v>
+        <v>2025100371</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5390,19 +5589,19 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>161</v>
+        <v>84</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>60</v>
@@ -5411,13 +5610,13 @@
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>43</v>
@@ -5425,11 +5624,9 @@
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7">
-        <v>1935</v>
-      </c>
-      <c r="S61" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>140987</v>
+      </c>
+      <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
       <c r="V61" s="7"/>
@@ -5437,21 +5634,19 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA61" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025100062</v>
+        <v>2025100599</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5460,19 +5655,19 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>60</v>
@@ -5481,23 +5676,23 @@
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="N62" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N62" s="6"/>
       <c r="O62" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3">
-        <v>1935</v>
-      </c>
-      <c r="S62" s="3"/>
+        <v>50000</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5505,19 +5700,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA62" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB62" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025100336</v>
+        <v>2025100600</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5526,70 +5723,62 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>222</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N63" s="8"/>
       <c r="O63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7">
-        <v>28805</v>
-      </c>
+      <c r="Q63" s="7"/>
       <c r="R63" s="7">
-        <v>28881</v>
+        <v>50000</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
-      <c r="U63" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U63" s="7"/>
       <c r="V63" s="7"/>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AA63" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB63" s="7">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025100516</v>
+        <v>2025100713</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5598,64 +5787,68 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>297956</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>10255</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
+      <c r="U64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025100517</v>
+        <v>2025100836</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5664,34 +5857,34 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="O65" s="7" t="s">
         <v>40</v>
@@ -5699,29 +5892,33 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>297956</v>
+        <v>10255</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
+      <c r="U65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="AA65" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB65" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025100512</v>
+        <v>2025100502</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5730,34 +5927,34 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>40</v>
@@ -5765,9 +5962,11 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>117288</v>
-      </c>
-      <c r="S66" s="3"/>
+        <v>299683</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -5775,21 +5974,17 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA66" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025100511</v>
+        <v>2025100503</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5798,34 +5993,34 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>223</v>
+        <v>107</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>43</v>
@@ -5833,11 +6028,9 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>117288</v>
-      </c>
-      <c r="S67" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>299683</v>
+      </c>
+      <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -5845,9 +6038,11 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA67" s="7"/>
+        <v>195</v>
+      </c>
+      <c r="AA67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="1:28">
@@ -5855,7 +6050,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025100072</v>
+        <v>2025100498</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -5864,45 +6059,45 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>54</v>
+        <v>240934</v>
       </c>
       <c r="S68" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
@@ -5911,21 +6106,17 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA68" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025100073</v>
+        <v>2025100499</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -5934,42 +6125,42 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>54</v>
+        <v>240934</v>
       </c>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
@@ -5979,10 +6170,10 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA69" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB69" s="7"/>
     </row>
@@ -5991,7 +6182,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025100067</v>
+        <v>2025100070</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6000,45 +6191,45 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>942</v>
+        <v>4020</v>
       </c>
       <c r="S70" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
@@ -6047,10 +6238,10 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB70" s="3">
         <v>1</v>
@@ -6061,7 +6252,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025100068</v>
+        <v>2025100071</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6070,42 +6261,42 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>942</v>
+        <v>4020</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -6115,10 +6306,10 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA71" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB71" s="7"/>
     </row>
@@ -6127,7 +6318,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025100505</v>
+        <v>2025100065</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6136,45 +6327,45 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>187561</v>
+        <v>5001</v>
       </c>
       <c r="S72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
@@ -6183,17 +6374,21 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025100506</v>
+        <v>2025100066</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6202,42 +6397,42 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K73" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>187561</v>
+        <v>5001</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -6247,10 +6442,10 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA73" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB73" s="7"/>
     </row>
@@ -6259,7 +6454,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025100508</v>
+        <v>2025100059</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6268,45 +6463,45 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>367919</v>
+        <v>3173</v>
       </c>
       <c r="S74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
@@ -6315,17 +6510,21 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025100509</v>
+        <v>2025100060</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6334,42 +6533,42 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>367919</v>
+        <v>3173</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6379,10 +6578,10 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA75" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB75" s="7"/>
     </row>
@@ -6391,7 +6590,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025100559</v>
+        <v>2025100063</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6400,43 +6599,45 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N76" s="6"/>
+        <v>265</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="O76" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>140018</v>
+        <v>2841</v>
       </c>
       <c r="S76" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
@@ -6445,10 +6646,10 @@
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA76" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB76" s="3">
         <v>1</v>
@@ -6459,7 +6660,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025100560</v>
+        <v>2025100064</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6468,40 +6669,42 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="K77" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="N77" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="N77" s="8" t="s">
+        <v>266</v>
+      </c>
       <c r="O77" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>140018</v>
+        <v>2841</v>
       </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
@@ -6511,10 +6714,10 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA77" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB77" s="7"/>
     </row>
@@ -6523,7 +6726,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025100557</v>
+        <v>2025100061</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6532,47 +6735,45 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="K78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P78" s="3"/>
-      <c r="Q78" s="3">
-        <v>3480</v>
-      </c>
+      <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>8923</v>
+        <v>1935</v>
       </c>
       <c r="S78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
@@ -6581,10 +6782,10 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA78" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB78" s="3">
         <v>1</v>
@@ -6595,7 +6796,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025100558</v>
+        <v>2025100062</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6604,44 +6805,42 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>154</v>
+        <v>197</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="K79" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P79" s="7"/>
-      <c r="Q79" s="7">
-        <v>3480</v>
-      </c>
+      <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>8923</v>
+        <v>1935</v>
       </c>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -6651,10 +6850,10 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA79" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB79" s="7"/>
     </row>
@@ -6663,7 +6862,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025100708</v>
+        <v>2025100336</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6672,64 +6871,70 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>251</v>
+        <v>72</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>194</v>
+        <v>271</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+      <c r="Q80" s="3">
+        <v>28805</v>
+      </c>
       <c r="R80" s="3">
-        <v>28</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>28881</v>
+      </c>
+      <c r="S80" s="3"/>
       <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
+      <c r="U80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
+        <v>202</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB80" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025100709</v>
+        <v>2025100516</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6738,34 +6943,34 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>87</v>
+        <v>274</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>223</v>
+        <v>153</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="O81" s="7" t="s">
         <v>40</v>
@@ -6773,9 +6978,11 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>28</v>
-      </c>
-      <c r="S81" s="7"/>
+        <v>297956</v>
+      </c>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -6783,11 +6990,9 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>42</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -6795,7 +7000,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025100712</v>
+        <v>2025100517</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -6804,34 +7009,34 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="O82" s="3" t="s">
         <v>43</v>
@@ -6839,33 +7044,29 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>12160</v>
+        <v>297956</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-      <c r="U82" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AA82" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025100711</v>
+        <v>2025100511</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -6874,68 +7075,64 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>87781</v>
-      </c>
-      <c r="S83" s="7"/>
+        <v>117288</v>
+      </c>
+      <c r="S83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T83" s="7"/>
-      <c r="U83" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="U83" s="7"/>
       <c r="V83" s="7"/>
       <c r="W83" s="7"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA83" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB83" s="7">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025100079</v>
+        <v>2025100512</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -6944,34 +7141,34 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>175</v>
+        <v>274</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="O84" s="3" t="s">
         <v>43</v>
@@ -6979,11 +7176,9 @@
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>68795</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>117288</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -6991,9 +7186,11 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA84" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
@@ -7001,7 +7198,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025100080</v>
+        <v>2025100072</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7010,34 +7207,34 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="O85" s="7" t="s">
         <v>40</v>
@@ -7045,9 +7242,11 @@
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>68795</v>
-      </c>
-      <c r="S85" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="S85" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7055,19 +7254,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="AA85" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB85" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025100710</v>
+        <v>2025100073</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7076,34 +7277,34 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>110</v>
+        <v>228</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="O86" s="3" t="s">
         <v>43</v>
@@ -7111,33 +7312,29 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>47607</v>
+        <v>54</v>
       </c>
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
-      <c r="U86" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="AA86" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025100009</v>
+        <v>2025100067</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7146,44 +7343,46 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>0</v>
-      </c>
-      <c r="S87" s="7"/>
+        <v>942</v>
+      </c>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7191,10 +7390,10 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="AA87" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB87" s="7">
         <v>1</v>
@@ -7205,7 +7404,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025100042</v>
+        <v>2025100068</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7214,30 +7413,34 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L88" s="6" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>43</v>
@@ -7245,11 +7448,9 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>0</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7257,10 +7458,10 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB88" s="3"/>
     </row>
@@ -7269,7 +7470,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025100636</v>
+        <v>2025100505</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7278,44 +7479,46 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>273</v>
+        <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>0</v>
-      </c>
-      <c r="S89" s="7"/>
+        <v>187561</v>
+      </c>
+      <c r="S89" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7323,47 +7526,1659 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA89" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB89" s="7">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="9"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="T90" s="9"/>
-      <c r="U90" s="9"/>
-      <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
-      <c r="X90" s="9"/>
-      <c r="Y90" s="9"/>
-      <c r="Z90" s="10"/>
-      <c r="AA90" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB90" s="9">
-        <v>47</v>
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2025100506</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3">
+        <v>187561</v>
+      </c>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28">
+      <c r="A91" s="7">
+        <v>89</v>
+      </c>
+      <c r="B91" s="7">
+        <v>2025100508</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M91" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="N91" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7">
+        <v>367919</v>
+      </c>
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+    </row>
+    <row r="92" spans="1:28">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2025100509</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3">
+        <v>367919</v>
+      </c>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA92" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28">
+      <c r="A93" s="7">
+        <v>91</v>
+      </c>
+      <c r="B93" s="7">
+        <v>2025100559</v>
+      </c>
+      <c r="C93" s="7">
+        <v>1</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="M93" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="N93" s="8"/>
+      <c r="O93" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7">
+        <v>140018</v>
+      </c>
+      <c r="S93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA93" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2025100560</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N94" s="6"/>
+      <c r="O94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3">
+        <v>140018</v>
+      </c>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA94" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB94" s="3"/>
+    </row>
+    <row r="95" spans="1:28">
+      <c r="A95" s="7">
+        <v>93</v>
+      </c>
+      <c r="B95" s="7">
+        <v>2025100557</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="7">
+        <v>3480</v>
+      </c>
+      <c r="R95" s="7">
+        <v>8923</v>
+      </c>
+      <c r="S95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T95" s="7"/>
+      <c r="U95" s="7"/>
+      <c r="V95" s="7"/>
+      <c r="W95" s="7"/>
+      <c r="X95" s="7"/>
+      <c r="Y95" s="7"/>
+      <c r="Z95" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2025100558</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N96" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3">
+        <v>3480</v>
+      </c>
+      <c r="R96" s="3">
+        <v>8923</v>
+      </c>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB96" s="3"/>
+    </row>
+    <row r="97" spans="1:28">
+      <c r="A97" s="7">
+        <v>95</v>
+      </c>
+      <c r="B97" s="7">
+        <v>2025100708</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M97" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7">
+        <v>28</v>
+      </c>
+      <c r="S97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+    </row>
+    <row r="98" spans="1:28">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2025100709</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="N98" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3">
+        <v>28</v>
+      </c>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB98" s="3"/>
+    </row>
+    <row r="99" spans="1:28">
+      <c r="A99" s="7">
+        <v>97</v>
+      </c>
+      <c r="B99" s="7">
+        <v>2025100712</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M99" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N99" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="7"/>
+      <c r="R99" s="7">
+        <v>12160</v>
+      </c>
+      <c r="S99" s="7"/>
+      <c r="T99" s="7"/>
+      <c r="U99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V99" s="7"/>
+      <c r="W99" s="7"/>
+      <c r="X99" s="7"/>
+      <c r="Y99" s="7"/>
+      <c r="Z99" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB99" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2025100835</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3">
+        <v>12160</v>
+      </c>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA100" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28">
+      <c r="A101" s="7">
+        <v>99</v>
+      </c>
+      <c r="B101" s="7">
+        <v>2025100711</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="O101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="7"/>
+      <c r="R101" s="7">
+        <v>87781</v>
+      </c>
+      <c r="S101" s="7"/>
+      <c r="T101" s="7"/>
+      <c r="U101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V101" s="7"/>
+      <c r="W101" s="7"/>
+      <c r="X101" s="7"/>
+      <c r="Y101" s="7"/>
+      <c r="Z101" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB101" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2025100834</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N102" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3">
+        <v>87781</v>
+      </c>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28">
+      <c r="A103" s="7">
+        <v>101</v>
+      </c>
+      <c r="B103" s="7">
+        <v>2025100079</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="M103" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="N103" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7">
+        <v>68795</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+    </row>
+    <row r="104" spans="1:28">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2025100080</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N104" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3">
+        <v>68795</v>
+      </c>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA104" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB104" s="3"/>
+    </row>
+    <row r="105" spans="1:28">
+      <c r="A105" s="7">
+        <v>103</v>
+      </c>
+      <c r="B105" s="7">
+        <v>2025100710</v>
+      </c>
+      <c r="C105" s="7">
+        <v>1</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K105" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="M105" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="7"/>
+      <c r="R105" s="7">
+        <v>47607</v>
+      </c>
+      <c r="S105" s="7"/>
+      <c r="T105" s="7"/>
+      <c r="U105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V105" s="7"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="7"/>
+      <c r="Y105" s="7"/>
+      <c r="Z105" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2025100833</v>
+      </c>
+      <c r="C106" s="3">
+        <v>1</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L106" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N106" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3">
+        <v>47607</v>
+      </c>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA106" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28">
+      <c r="A107" s="7">
+        <v>105</v>
+      </c>
+      <c r="B107" s="7">
+        <v>2025100009</v>
+      </c>
+      <c r="C107" s="7">
+        <v>1</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G107" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K107" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="7"/>
+      <c r="R107" s="7">
+        <v>0</v>
+      </c>
+      <c r="S107" s="7"/>
+      <c r="T107" s="7"/>
+      <c r="U107" s="7"/>
+      <c r="V107" s="7"/>
+      <c r="W107" s="7"/>
+      <c r="X107" s="7"/>
+      <c r="Y107" s="7"/>
+      <c r="Z107" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB107" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3">
+        <v>2025100042</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB108" s="3"/>
+    </row>
+    <row r="109" spans="1:28">
+      <c r="A109" s="7">
+        <v>107</v>
+      </c>
+      <c r="B109" s="7">
+        <v>2025100974</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="7"/>
+      <c r="L109" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M109" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="7"/>
+      <c r="R109" s="7">
+        <v>0</v>
+      </c>
+      <c r="S109" s="7"/>
+      <c r="T109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U109" s="7"/>
+      <c r="V109" s="7"/>
+      <c r="W109" s="7"/>
+      <c r="X109" s="7"/>
+      <c r="Y109" s="7"/>
+      <c r="Z109" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB109" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2025100926</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA110" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28">
+      <c r="A111" s="7">
+        <v>109</v>
+      </c>
+      <c r="B111" s="7">
+        <v>2025100894</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M111" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="N111" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="7"/>
+      <c r="R111" s="7">
+        <v>0</v>
+      </c>
+      <c r="S111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T111" s="7"/>
+      <c r="U111" s="7"/>
+      <c r="V111" s="7"/>
+      <c r="W111" s="7"/>
+      <c r="X111" s="7"/>
+      <c r="Y111" s="7"/>
+      <c r="Z111" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA111" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB111" s="7"/>
+    </row>
+    <row r="112" spans="1:28">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2025100752</v>
+      </c>
+      <c r="C112" s="3">
+        <v>1</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3">
+        <v>0</v>
+      </c>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA112" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="1:28">
+      <c r="A113" s="7">
+        <v>111</v>
+      </c>
+      <c r="B113" s="7">
+        <v>2025100636</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="J113" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K113" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>0</v>
+      </c>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7"/>
+      <c r="U113" s="7"/>
+      <c r="V113" s="7"/>
+      <c r="W113" s="7"/>
+      <c r="X113" s="7"/>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB113" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
+      <c r="Z114" s="10"/>
+      <c r="AA114" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB114" s="9">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$137</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -475,6 +475,21 @@
     <t>三重昌隆店</t>
   </si>
   <si>
+    <t>2025-10-08</t>
+  </si>
+  <si>
+    <t>09:40:00</t>
+  </si>
+  <si>
+    <t>THILF04155</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路415號及417號1樓全部</t>
+  </si>
+  <si>
+    <t>三重穀保店</t>
+  </si>
+  <si>
     <t>13:30:00</t>
   </si>
   <si>
@@ -517,6 +532,18 @@
     <t>三重公園店</t>
   </si>
   <si>
+    <t>11:51:00</t>
+  </si>
+  <si>
+    <t>THILF04388</t>
+  </si>
+  <si>
+    <t>新北市三重區後竹圍街177+179號</t>
+  </si>
+  <si>
+    <t>三重薔薇店</t>
+  </si>
+  <si>
     <t>15:50:00</t>
   </si>
   <si>
@@ -547,6 +574,27 @@
     <t>三重三文店</t>
   </si>
   <si>
+    <t>THILF04652</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路278、280及282號</t>
+  </si>
+  <si>
+    <t>三重商工店</t>
+  </si>
+  <si>
+    <t>10:50:00</t>
+  </si>
+  <si>
+    <t>THILF04968</t>
+  </si>
+  <si>
+    <t>新北市三重區中正北路430號及430之1號一樓全部</t>
+  </si>
+  <si>
+    <t>三重太璞宮</t>
+  </si>
+  <si>
     <t>09:30:00</t>
   </si>
   <si>
@@ -583,6 +631,18 @@
     <t>三重重新店</t>
   </si>
   <si>
+    <t>THILF0D195</t>
+  </si>
+  <si>
+    <t>新北市三重區車路頭街35號</t>
+  </si>
+  <si>
+    <t>三重車路頭</t>
+  </si>
+  <si>
+    <t>裝潢撤機完成</t>
+  </si>
+  <si>
     <t>11:56:00</t>
   </si>
   <si>
@@ -718,6 +778,24 @@
     <t>新北市三重區德厚街76號7樓</t>
   </si>
   <si>
+    <t>15:16:00</t>
+  </si>
+  <si>
+    <t>新電腦設定驅動 掃描</t>
+  </si>
+  <si>
+    <t>T252000146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台固媒體股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服</t>
+  </si>
+  <si>
+    <t>新莊8F客服部</t>
+  </si>
+  <si>
     <t>11:45:00</t>
   </si>
   <si>
@@ -733,6 +811,24 @@
     <t>異地備援泰山</t>
   </si>
   <si>
+    <t>T301800171</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正區336-1號(新莊)</t>
+  </si>
+  <si>
+    <t>新莊</t>
+  </si>
+  <si>
+    <t>T301800174</t>
+  </si>
+  <si>
+    <t>新北市板橋區中山路1段10號5樓(板橋分校)</t>
+  </si>
+  <si>
+    <t>板橋</t>
+  </si>
+  <si>
     <t>T302800007</t>
   </si>
   <si>
@@ -799,6 +895,12 @@
     <t>五股運輸</t>
   </si>
   <si>
+    <t>T302800123</t>
+  </si>
+  <si>
+    <t>新北市三重區正義北路218號(三重分校)</t>
+  </si>
+  <si>
     <t>T302800152</t>
   </si>
   <si>
@@ -883,6 +985,15 @@
     <t>五股</t>
   </si>
   <si>
+    <t>T351800081</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊客服部)</t>
+  </si>
+  <si>
+    <t>新莊8F</t>
+  </si>
+  <si>
     <t>T351800082</t>
   </si>
   <si>
@@ -937,16 +1048,46 @@
     <t>新北市三重區光復路1段61巷26號2樓</t>
   </si>
   <si>
+    <t>T451800006</t>
+  </si>
+  <si>
+    <t>eS-4518A 黑白複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">凱擘股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-10號2樓</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>T451800022</t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號10樓(三重湯城客服)</t>
+  </si>
+  <si>
+    <t>台北客服10樓(黑)</t>
+  </si>
+  <si>
+    <t>碳粉用完了</t>
+  </si>
+  <si>
     <t>T451800027</t>
   </si>
   <si>
-    <t>eS-4518A 黑白複合機</t>
-  </si>
-  <si>
     <t>新北市三重區重新路五段609巷2號4樓(客服)</t>
   </si>
   <si>
     <t>台北客服4F申裝查核處(黑)</t>
+  </si>
+  <si>
+    <t>T451800125</t>
+  </si>
+  <si>
+    <t>新北市新莊區中正路657-12號8樓(新莊8F)</t>
   </si>
   <si>
     <t>T452800031</t>
@@ -1030,6 +1171,36 @@
   </si>
   <si>
     <t>狄澤洋</t>
+  </si>
+  <si>
+    <t>11:40:00</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
+  </si>
+  <si>
+    <t>THILF04680</t>
+  </si>
+  <si>
+    <t>新北市板橋區江寧路三段49、51號一樓</t>
+  </si>
+  <si>
+    <t>板橋江寧店</t>
+  </si>
+  <si>
+    <t>11:49:00</t>
+  </si>
+  <si>
+    <t>12:08:00</t>
+  </si>
+  <si>
+    <t>急修件</t>
+  </si>
+  <si>
+    <t>到店時網路已恢復正常
+更換HUB ZYXEL
+換上 8107005201
+換下 8107003261</t>
   </si>
   <si>
     <t>TX30000054</t>
@@ -1467,10 +1638,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB114"/>
+  <dimension ref="A1:AB137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A114" sqref="A114"/>
+      <selection activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3380,7 +3551,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025100662</v>
+        <v>2025101085</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3392,13 +3563,13 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="I29" s="7" t="s">
         <v>149</v>
@@ -3446,7 +3617,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100501</v>
+        <v>2025100662</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3458,7 +3629,7 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>152</v>
@@ -3512,7 +3683,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100682</v>
+        <v>2025100501</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3524,16 +3695,16 @@
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
@@ -3541,10 +3712,10 @@
         <v>79</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -3578,7 +3749,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025100723</v>
+        <v>2025100682</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3593,7 +3764,7 @@
         <v>130</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>162</v>
@@ -3644,7 +3815,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025100731</v>
+        <v>2025101203</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3656,16 +3827,16 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G33" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="I33" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
@@ -3673,10 +3844,10 @@
         <v>79</v>
       </c>
       <c r="M33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N33" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -3710,7 +3881,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025100855</v>
+        <v>2025100723</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3722,13 +3893,13 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>136</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>172</v>
@@ -3776,7 +3947,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025101018</v>
+        <v>2025100731</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3788,16 +3959,16 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -3805,10 +3976,10 @@
         <v>79</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -3842,7 +4013,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025100457</v>
+        <v>2025101184</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -3854,13 +4025,13 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>180</v>
@@ -3908,7 +4079,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025100326</v>
+        <v>2025101097</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -3920,41 +4091,39 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="I37" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
         <v>79</v>
       </c>
       <c r="M37" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="N37" s="8" t="s">
-        <v>187</v>
-      </c>
       <c r="O37" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7">
         <v>0</v>
       </c>
-      <c r="S37" s="7"/>
+      <c r="S37" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
@@ -3962,7 +4131,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
@@ -3976,7 +4145,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025100405</v>
+        <v>2025100855</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -3988,16 +4157,16 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -4005,10 +4174,10 @@
         <v>79</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
@@ -4033,14 +4202,16 @@
       <c r="AA38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB38" s="3"/>
+      <c r="AB38" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025100602</v>
+        <v>2025101018</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4049,42 +4220,38 @@
         <v>29</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M39" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="K39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="N39" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="N39" s="8"/>
       <c r="O39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P39" s="7"/>
-      <c r="Q39" s="7">
-        <v>2150</v>
-      </c>
+      <c r="Q39" s="7"/>
       <c r="R39" s="7">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="S39" s="7" t="s">
         <v>41</v>
@@ -4096,7 +4263,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -4110,7 +4277,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025100603</v>
+        <v>2025100457</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4119,44 +4286,42 @@
         <v>29</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="L40" s="6" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="N40" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="O40" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P40" s="3"/>
-      <c r="Q40" s="3">
-        <v>2150</v>
-      </c>
+      <c r="Q40" s="3"/>
       <c r="R40" s="3">
-        <v>43000</v>
-      </c>
-      <c r="S40" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -4164,19 +4329,21 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB40" s="3"/>
+      <c r="AB40" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:28">
       <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025100333</v>
+        <v>2025101238</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4185,28 +4352,24 @@
         <v>29</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>36</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
       <c r="L41" s="8" t="s">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="M41" s="8" t="s">
         <v>200</v>
@@ -4218,17 +4381,15 @@
         <v>40</v>
       </c>
       <c r="P41" s="7"/>
-      <c r="Q41" s="7">
-        <v>16366</v>
-      </c>
+      <c r="Q41" s="7"/>
       <c r="R41" s="7">
-        <v>143510</v>
+        <v>0</v>
       </c>
       <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="T41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
@@ -4248,7 +4409,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025100335</v>
+        <v>2025100326</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4257,56 +4418,52 @@
         <v>29</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="P42" s="3"/>
-      <c r="Q42" s="3">
-        <v>5983</v>
-      </c>
+      <c r="Q42" s="3"/>
       <c r="R42" s="3">
-        <v>32582</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -4320,7 +4477,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025100847</v>
+        <v>2025100405</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4329,46 +4486,38 @@
         <v>29</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="I43" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>207</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>210</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P43" s="7">
-        <v>6677</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>15120</v>
-      </c>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
       <c r="R43" s="7">
-        <v>19337</v>
+        <v>0</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>41</v>
@@ -4380,21 +4529,19 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025100848</v>
+        <v>2025100602</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4403,48 +4550,46 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N44" s="6" t="s">
-        <v>210</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N44" s="6"/>
       <c r="O44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P44" s="3">
-        <v>6677</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P44" s="3"/>
       <c r="Q44" s="3">
-        <v>15120</v>
+        <v>2150</v>
       </c>
       <c r="R44" s="3">
-        <v>19337</v>
-      </c>
-      <c r="S44" s="3"/>
+        <v>43000</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -4452,19 +4597,21 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="3"/>
+      <c r="AB44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
         <v>43</v>
       </c>
       <c r="B45" s="7">
-        <v>2025100845</v>
+        <v>2025100603</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
@@ -4473,50 +4620,44 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>171</v>
+        <v>44</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>211</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>213</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="N45" s="8"/>
       <c r="O45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P45" s="7">
-        <v>1800</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P45" s="7"/>
       <c r="Q45" s="7">
-        <v>2596</v>
+        <v>2150</v>
       </c>
       <c r="R45" s="7">
-        <v>7150</v>
-      </c>
-      <c r="S45" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>43000</v>
+      </c>
+      <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
@@ -4524,21 +4665,19 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB45" s="7"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025100846</v>
+        <v>2025100333</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4547,68 +4686,70 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1800</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P46" s="3"/>
       <c r="Q46" s="3">
-        <v>2596</v>
+        <v>16366</v>
       </c>
       <c r="R46" s="3">
-        <v>7150</v>
+        <v>143510</v>
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AA46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB46" s="3"/>
+      <c r="AB46" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025100597</v>
+        <v>2025100335</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4617,56 +4758,56 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>35</v>
+        <v>212</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7">
-        <v>900</v>
+        <v>5983</v>
       </c>
       <c r="R47" s="7">
-        <v>13500</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>32582</v>
+      </c>
+      <c r="S47" s="7"/>
       <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
+      <c r="U47" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V47" s="7"/>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
@@ -4680,7 +4821,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025100598</v>
+        <v>2025100847</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4689,19 +4830,19 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>35</v>
@@ -4710,25 +4851,29 @@
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P48" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P48" s="3">
+        <v>6677</v>
+      </c>
       <c r="Q48" s="3">
-        <v>900</v>
+        <v>15120</v>
       </c>
       <c r="R48" s="3">
-        <v>13500</v>
-      </c>
-      <c r="S48" s="3"/>
+        <v>19337</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -4736,19 +4881,21 @@
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB48" s="3"/>
+      <c r="AB48" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:28">
       <c r="A49" s="7">
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025101025</v>
+        <v>2025100848</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4757,19 +4904,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>75</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>35</v>
@@ -4778,29 +4925,27 @@
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P49" s="7">
-        <v>117</v>
+        <v>6677</v>
       </c>
       <c r="Q49" s="7">
-        <v>926</v>
+        <v>15120</v>
       </c>
       <c r="R49" s="7">
-        <v>3189</v>
-      </c>
-      <c r="S49" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>19337</v>
+      </c>
+      <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4808,21 +4953,19 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB49" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB49" s="7"/>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025101026</v>
+        <v>2025100845</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4831,19 +4974,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>75</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>35</v>
@@ -4852,27 +4995,29 @@
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P50" s="3">
-        <v>117</v>
+        <v>1800</v>
       </c>
       <c r="Q50" s="3">
-        <v>926</v>
+        <v>2596</v>
       </c>
       <c r="R50" s="3">
-        <v>3189</v>
-      </c>
-      <c r="S50" s="3"/>
+        <v>7150</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4880,19 +5025,21 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB50" s="3"/>
+      <c r="AB50" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025100077</v>
+        <v>2025100846</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -4901,19 +5048,19 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>35</v>
@@ -4922,27 +5069,27 @@
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P51" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P51" s="7">
+        <v>1800</v>
+      </c>
       <c r="Q51" s="7">
-        <v>843</v>
+        <v>2596</v>
       </c>
       <c r="R51" s="7">
-        <v>44687</v>
-      </c>
-      <c r="S51" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -4950,9 +5097,11 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA51" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB51" s="7"/>
     </row>
     <row r="52" spans="1:28">
@@ -4960,7 +5109,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025100078</v>
+        <v>2025100597</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -4969,19 +5118,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>50</v>
+        <v>187</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>35</v>
@@ -4990,25 +5139,27 @@
         <v>36</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="R52" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S52" s="3"/>
+        <v>13500</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -5016,19 +5167,21 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3"/>
+      <c r="AB52" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025100454</v>
+        <v>2025100598</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5037,19 +5190,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>35</v>
@@ -5058,23 +5211,23 @@
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7">
-        <v>843</v>
+        <v>900</v>
       </c>
       <c r="R53" s="7">
-        <v>44687</v>
+        <v>13500</v>
       </c>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
@@ -5084,21 +5237,19 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB53" s="7"/>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025100085</v>
+        <v>2025101025</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5107,19 +5258,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>35</v>
@@ -5128,25 +5279,29 @@
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="P54" s="3">
+        <v>117</v>
+      </c>
       <c r="Q54" s="3">
-        <v>56</v>
+        <v>926</v>
       </c>
       <c r="R54" s="3">
-        <v>400</v>
-      </c>
-      <c r="S54" s="3"/>
+        <v>3189</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5154,7 +5309,7 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
@@ -5168,7 +5323,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025100084</v>
+        <v>2025101026</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5177,19 +5332,19 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>35</v>
@@ -5198,27 +5353,27 @@
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>47</v>
+        <v>228</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P55" s="7"/>
+        <v>43</v>
+      </c>
+      <c r="P55" s="7">
+        <v>117</v>
+      </c>
       <c r="Q55" s="7">
-        <v>56</v>
+        <v>926</v>
       </c>
       <c r="R55" s="7">
-        <v>400</v>
-      </c>
-      <c r="S55" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3189</v>
+      </c>
+      <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5226,7 +5381,7 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
@@ -5238,7 +5393,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025100074</v>
+        <v>2025100077</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5247,42 +5402,44 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K56" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="Q56" s="3">
+        <v>843</v>
+      </c>
       <c r="R56" s="3">
-        <v>193</v>
+        <v>44687</v>
       </c>
       <c r="S56" s="3" t="s">
         <v>41</v>
@@ -5294,21 +5451,17 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA56" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB56" s="3">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="7">
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025100075</v>
+        <v>2025100078</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5317,42 +5470,44 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>228</v>
+        <v>50</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K57" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="O57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="Q57" s="7">
+        <v>843</v>
+      </c>
       <c r="R57" s="7">
-        <v>193</v>
+        <v>44687</v>
       </c>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -5362,7 +5517,7 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA57" s="7" t="s">
         <v>41</v>
@@ -5374,7 +5529,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025100368</v>
+        <v>2025100454</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5383,46 +5538,46 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="Q58" s="3">
+        <v>843</v>
+      </c>
       <c r="R58" s="3">
-        <v>155192</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -5430,7 +5585,7 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>195</v>
+        <v>245</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
@@ -5444,7 +5599,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025100369</v>
+        <v>2025100084</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5453,44 +5608,48 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K59" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
+      <c r="Q59" s="7">
+        <v>56</v>
+      </c>
       <c r="R59" s="7">
-        <v>155192</v>
-      </c>
-      <c r="S59" s="7"/>
+        <v>400</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5498,19 +5657,21 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB59" s="7"/>
+      <c r="AB59" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025100370</v>
+        <v>2025100085</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5519,46 +5680,46 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
+      <c r="Q60" s="3">
+        <v>56</v>
+      </c>
       <c r="R60" s="3">
-        <v>140987</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="S60" s="3"/>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5566,21 +5727,19 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB60" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025100371</v>
+        <v>2025101243</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5589,42 +5748,44 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>84</v>
+        <v>248</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
+      <c r="Q61" s="7">
+        <v>56</v>
+      </c>
       <c r="R61" s="7">
-        <v>140987</v>
+        <v>400</v>
       </c>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
@@ -5634,19 +5795,21 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7"/>
+      <c r="AB61" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025100599</v>
+        <v>2025101232</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5655,40 +5818,44 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="N62" s="6"/>
+        <v>252</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="O62" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="Q62" s="3">
+        <v>2168</v>
+      </c>
       <c r="R62" s="3">
-        <v>50000</v>
+        <v>1179</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>41</v>
@@ -5700,21 +5867,17 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA62" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB62" s="3">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA62" s="3"/>
+      <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025100600</v>
+        <v>2025101233</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5723,40 +5886,44 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="N63" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>253</v>
+      </c>
       <c r="O63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
+      <c r="Q63" s="7">
+        <v>2168</v>
+      </c>
       <c r="R63" s="7">
-        <v>50000</v>
+        <v>1179</v>
       </c>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
@@ -5766,7 +5933,7 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA63" s="7" t="s">
         <v>41</v>
@@ -5778,7 +5945,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025100713</v>
+        <v>2025100074</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5787,34 +5954,34 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>157</v>
+        <v>254</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>40</v>
@@ -5822,19 +5989,19 @@
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3">
-        <v>10255</v>
-      </c>
-      <c r="S64" s="3"/>
+        <v>193</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T64" s="3"/>
-      <c r="U64" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
@@ -5848,7 +6015,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025100836</v>
+        <v>2025100075</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -5857,68 +6024,64 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
-        <v>10255</v>
+        <v>193</v>
       </c>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
-      <c r="U65" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U65" s="7"/>
       <c r="V65" s="7"/>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB65" s="7"/>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025100502</v>
+        <v>2025101095</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -5927,34 +6090,34 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>40</v>
@@ -5962,7 +6125,7 @@
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>299683</v>
+        <v>47953</v>
       </c>
       <c r="S66" s="3" t="s">
         <v>41</v>
@@ -5974,17 +6137,21 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025100503</v>
+        <v>2025101096</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -5993,34 +6160,34 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K67" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>43</v>
@@ -6028,7 +6195,7 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
-        <v>299683</v>
+        <v>47953</v>
       </c>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
@@ -6038,7 +6205,7 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
@@ -6050,7 +6217,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025100498</v>
+        <v>2025101094</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6059,46 +6226,44 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>240934</v>
-      </c>
-      <c r="S68" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>79124</v>
+      </c>
+      <c r="S68" s="3"/>
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
@@ -6106,17 +6271,21 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
+        <v>215</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
         <v>67</v>
       </c>
       <c r="B69" s="7">
-        <v>2025100499</v>
+        <v>2025101093</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
@@ -6125,44 +6294,46 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7">
-        <v>240934</v>
-      </c>
-      <c r="S69" s="7"/>
+        <v>79124</v>
+      </c>
+      <c r="S69" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
       <c r="V69" s="7"/>
@@ -6170,7 +6341,7 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
@@ -6182,7 +6353,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025100070</v>
+        <v>2025100368</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6191,19 +6362,19 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>60</v>
@@ -6212,13 +6383,13 @@
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="O70" s="3" t="s">
         <v>40</v>
@@ -6226,7 +6397,7 @@
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>4020</v>
+        <v>155192</v>
       </c>
       <c r="S70" s="3" t="s">
         <v>41</v>
@@ -6238,7 +6409,7 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>41</v>
@@ -6252,7 +6423,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025100071</v>
+        <v>2025100369</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6261,19 +6432,19 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>60</v>
@@ -6282,13 +6453,13 @@
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="O71" s="7" t="s">
         <v>43</v>
@@ -6296,7 +6467,7 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
-        <v>4020</v>
+        <v>155192</v>
       </c>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
@@ -6306,7 +6477,7 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
@@ -6318,7 +6489,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025100065</v>
+        <v>2025100370</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6327,19 +6498,19 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>60</v>
@@ -6348,13 +6519,13 @@
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>40</v>
@@ -6362,7 +6533,7 @@
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>5001</v>
+        <v>140987</v>
       </c>
       <c r="S72" s="3" t="s">
         <v>41</v>
@@ -6374,7 +6545,7 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
@@ -6388,7 +6559,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025100066</v>
+        <v>2025100371</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6397,19 +6568,19 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>60</v>
@@ -6418,13 +6589,13 @@
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="O73" s="7" t="s">
         <v>43</v>
@@ -6432,7 +6603,7 @@
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
-        <v>5001</v>
+        <v>140987</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -6442,7 +6613,7 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
@@ -6454,7 +6625,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025100059</v>
+        <v>2025100599</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6463,19 +6634,19 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>60</v>
@@ -6484,21 +6655,19 @@
         <v>36</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="N74" s="6" t="s">
-        <v>263</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N74" s="6"/>
       <c r="O74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>3173</v>
+        <v>50000</v>
       </c>
       <c r="S74" s="3" t="s">
         <v>41</v>
@@ -6510,7 +6679,7 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
@@ -6524,7 +6693,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025100060</v>
+        <v>2025100600</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6533,19 +6702,19 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>60</v>
@@ -6554,21 +6723,19 @@
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N75" s="8" t="s">
-        <v>263</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N75" s="8"/>
       <c r="O75" s="7" t="s">
         <v>43</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
-        <v>3173</v>
+        <v>50000</v>
       </c>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
@@ -6578,7 +6745,7 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
@@ -6590,7 +6757,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025100063</v>
+        <v>2025100713</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6599,19 +6766,19 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>60</v>
@@ -6620,13 +6787,13 @@
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N76" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>40</v>
@@ -6634,19 +6801,19 @@
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>2841</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>10255</v>
+      </c>
+      <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
+      <c r="U76" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AA76" s="3" t="s">
         <v>41</v>
@@ -6660,7 +6827,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025100064</v>
+        <v>2025100836</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6669,19 +6836,19 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>60</v>
@@ -6690,43 +6857,47 @@
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7">
-        <v>2841</v>
+        <v>10255</v>
       </c>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
+      <c r="U77" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB77" s="7"/>
+      <c r="AB77" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:28">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025100061</v>
+        <v>2025100502</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6735,19 +6906,19 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>60</v>
@@ -6756,13 +6927,13 @@
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>40</v>
@@ -6770,7 +6941,7 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>1935</v>
+        <v>299683</v>
       </c>
       <c r="S78" s="3" t="s">
         <v>41</v>
@@ -6782,21 +6953,17 @@
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA78" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB78" s="3">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025100062</v>
+        <v>2025100503</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6805,19 +6972,19 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>171</v>
+        <v>107</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>60</v>
@@ -6826,13 +6993,13 @@
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O79" s="7" t="s">
         <v>43</v>
@@ -6840,7 +7007,7 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
-        <v>1935</v>
+        <v>299683</v>
       </c>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -6850,7 +7017,7 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA79" s="7" t="s">
         <v>41</v>
@@ -6862,7 +7029,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025100336</v>
+        <v>2025100498</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -6871,70 +7038,64 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>119</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>171</v>
+        <v>50</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P80" s="3"/>
-      <c r="Q80" s="3">
-        <v>28805</v>
-      </c>
+      <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>28881</v>
-      </c>
-      <c r="S80" s="3"/>
+        <v>240934</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T80" s="3"/>
-      <c r="U80" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA80" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB80" s="3">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28">
       <c r="A81" s="7">
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025100516</v>
+        <v>2025100499</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -6943,46 +7104,44 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>274</v>
+        <v>50</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K81" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
-        <v>297956</v>
-      </c>
-      <c r="S81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>240934</v>
+      </c>
+      <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -6990,9 +7149,11 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA81" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -7000,7 +7161,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025100517</v>
+        <v>2025101091</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7009,44 +7170,46 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K82" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>297956</v>
-      </c>
-      <c r="S82" s="3"/>
+        <v>3516</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7054,19 +7217,21 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB82" s="3"/>
+      <c r="AB82" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025100511</v>
+        <v>2025101092</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7075,46 +7240,44 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K83" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
-        <v>117288</v>
-      </c>
-      <c r="S83" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3516</v>
+      </c>
+      <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7122,9 +7285,11 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA83" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB83" s="7"/>
     </row>
     <row r="84" spans="1:28">
@@ -7132,7 +7297,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025100512</v>
+        <v>2025100070</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7141,44 +7306,46 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>274</v>
+        <v>140</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K84" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>117288</v>
-      </c>
-      <c r="S84" s="3"/>
+        <v>4020</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7186,19 +7353,21 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3"/>
+      <c r="AB84" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025100072</v>
+        <v>2025100071</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7207,46 +7376,44 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H85" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="I85" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K85" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
-        <v>54</v>
-      </c>
-      <c r="S85" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>4020</v>
+      </c>
+      <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7254,21 +7421,19 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB85" s="7"/>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025100073</v>
+        <v>2025100065</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7277,44 +7442,46 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>228</v>
+        <v>44</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K86" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>54</v>
-      </c>
-      <c r="S86" s="3"/>
+        <v>5001</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7322,19 +7489,21 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB86" s="3"/>
+      <c r="AB86" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025100067</v>
+        <v>2025100066</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7343,46 +7512,44 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G87" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H87" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="I87" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
-        <v>942</v>
-      </c>
-      <c r="S87" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7390,21 +7557,19 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB87" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB87" s="7"/>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025100068</v>
+        <v>2025100059</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7413,44 +7578,46 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>942</v>
-      </c>
-      <c r="S88" s="3"/>
+        <v>3173</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7458,19 +7625,21 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB88" s="3"/>
+      <c r="AB88" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025100505</v>
+        <v>2025100060</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7479,46 +7648,44 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K89" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
-        <v>187561</v>
-      </c>
-      <c r="S89" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7526,9 +7693,11 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA89" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA89" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB89" s="7"/>
     </row>
     <row r="90" spans="1:28">
@@ -7536,7 +7705,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025100506</v>
+        <v>2025100063</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7545,44 +7714,46 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K90" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>187561</v>
-      </c>
-      <c r="S90" s="3"/>
+        <v>2841</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7590,19 +7761,21 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB90" s="3"/>
+      <c r="AB90" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025100508</v>
+        <v>2025100064</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7611,46 +7784,44 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
-        <v>367919</v>
-      </c>
-      <c r="S91" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>2841</v>
+      </c>
+      <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -7658,9 +7829,11 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA91" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA91" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB91" s="7"/>
     </row>
     <row r="92" spans="1:28">
@@ -7668,7 +7841,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025100509</v>
+        <v>2025100061</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7677,44 +7850,46 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K92" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>367919</v>
-      </c>
-      <c r="S92" s="3"/>
+        <v>1935</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -7722,19 +7897,21 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB92" s="3"/>
+      <c r="AB92" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025100559</v>
+        <v>2025100062</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7743,44 +7920,44 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="K93" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="N93" s="8"/>
+        <v>302</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="O93" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
-        <v>140018</v>
-      </c>
-      <c r="S93" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>1935</v>
+      </c>
+      <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -7788,21 +7965,19 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB93" s="7"/>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025100560</v>
+        <v>2025100336</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7811,62 +7986,70 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="N94" s="6"/>
+        <v>306</v>
+      </c>
+      <c r="N94" s="6" t="s">
+        <v>307</v>
+      </c>
       <c r="O94" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3"/>
+      <c r="Q94" s="3">
+        <v>28805</v>
+      </c>
       <c r="R94" s="3">
-        <v>140018</v>
+        <v>28881</v>
       </c>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="3"/>
+      <c r="U94" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
       <c r="Y94" s="3"/>
       <c r="Z94" s="6" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="AA94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB94" s="3"/>
+      <c r="AB94" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025100557</v>
+        <v>2025100516</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -7875,44 +8058,42 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="O95" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7">
-        <v>3480</v>
-      </c>
+      <c r="Q95" s="7"/>
       <c r="R95" s="7">
-        <v>8923</v>
+        <v>297956</v>
       </c>
       <c r="S95" s="7" t="s">
         <v>41</v>
@@ -7924,21 +8105,17 @@
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA95" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB95" s="7">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA95" s="7"/>
+      <c r="AB95" s="7"/>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025100558</v>
+        <v>2025100517</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -7947,44 +8124,42 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>196</v>
+        <v>308</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>217</v>
+        <v>313</v>
       </c>
       <c r="O96" s="3" t="s">
         <v>43</v>
       </c>
       <c r="P96" s="3"/>
-      <c r="Q96" s="3">
-        <v>3480</v>
-      </c>
+      <c r="Q96" s="3"/>
       <c r="R96" s="3">
-        <v>8923</v>
+        <v>297956</v>
       </c>
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
@@ -7994,7 +8169,7 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA96" s="3" t="s">
         <v>41</v>
@@ -8006,7 +8181,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025100708</v>
+        <v>2025100511</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8015,34 +8190,34 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>121</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O97" s="7" t="s">
         <v>40</v>
@@ -8050,7 +8225,7 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>28</v>
+        <v>117288</v>
       </c>
       <c r="S97" s="7" t="s">
         <v>41</v>
@@ -8062,7 +8237,7 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA97" s="7"/>
       <c r="AB97" s="7"/>
@@ -8072,7 +8247,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025100709</v>
+        <v>2025100512</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8081,34 +8256,34 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>121</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="O98" s="3" t="s">
         <v>43</v>
@@ -8116,7 +8291,7 @@
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
-        <v>28</v>
+        <v>117288</v>
       </c>
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
@@ -8126,7 +8301,7 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA98" s="3" t="s">
         <v>41</v>
@@ -8138,7 +8313,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025100712</v>
+        <v>2025101215</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8147,34 +8322,34 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>40</v>
@@ -8182,33 +8357,29 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>12160</v>
-      </c>
-      <c r="S99" s="7"/>
+        <v>1898</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T99" s="7"/>
-      <c r="U99" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U99" s="7"/>
       <c r="V99" s="7"/>
       <c r="W99" s="7"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA99" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB99" s="7">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA99" s="7"/>
+      <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="1:28">
       <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="3">
-        <v>2025100835</v>
+        <v>2025101216</v>
       </c>
       <c r="C100" s="3">
         <v>1</v>
@@ -8217,68 +8388,64 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
       <c r="R100" s="3">
-        <v>12160</v>
+        <v>1898</v>
       </c>
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
-      <c r="U100" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB100" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB100" s="3"/>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025100711</v>
+        <v>2025100072</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8287,34 +8454,34 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>107</v>
+        <v>254</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>40</v>
@@ -8322,19 +8489,19 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>87781</v>
-      </c>
-      <c r="S101" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T101" s="7"/>
-      <c r="U101" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U101" s="7"/>
       <c r="V101" s="7"/>
       <c r="W101" s="7"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA101" s="7" t="s">
         <v>41</v>
@@ -8348,7 +8515,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025100834</v>
+        <v>2025100073</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8357,68 +8524,64 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>311</v>
+        <v>140</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
-        <v>87781</v>
+        <v>54</v>
       </c>
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
-      <c r="U102" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U102" s="3"/>
       <c r="V102" s="3"/>
       <c r="W102" s="3"/>
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB102" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB102" s="3"/>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025100079</v>
+        <v>2025100067</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8427,34 +8590,34 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="O103" s="7" t="s">
         <v>40</v>
@@ -8462,7 +8625,7 @@
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>68795</v>
+        <v>942</v>
       </c>
       <c r="S103" s="7" t="s">
         <v>41</v>
@@ -8474,17 +8637,21 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="AA103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB103" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025100080</v>
+        <v>2025100068</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8493,34 +8660,34 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="O104" s="3" t="s">
         <v>43</v>
@@ -8528,7 +8695,7 @@
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
-        <v>68795</v>
+        <v>942</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
@@ -8538,7 +8705,7 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
@@ -8550,7 +8717,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025100710</v>
+        <v>2025100505</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8559,31 +8726,31 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="N105" s="8" t="s">
         <v>316</v>
@@ -8594,33 +8761,29 @@
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>47607</v>
-      </c>
-      <c r="S105" s="7"/>
+        <v>187561</v>
+      </c>
+      <c r="S105" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T105" s="7"/>
-      <c r="U105" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="U105" s="7"/>
       <c r="V105" s="7"/>
       <c r="W105" s="7"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA105" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB105" s="7">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA105" s="7"/>
+      <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
       <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025100833</v>
+        <v>2025100506</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8629,68 +8792,64 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>311</v>
+        <v>162</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="N106" s="6" t="s">
         <v>316</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
-        <v>47607</v>
+        <v>187561</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
-      <c r="U106" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U106" s="3"/>
       <c r="V106" s="3"/>
       <c r="W106" s="3"/>
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA106" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB106" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
       <c r="A107" s="7">
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025100009</v>
+        <v>2025100508</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -8699,44 +8858,46 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>91</v>
+        <v>310</v>
       </c>
       <c r="K107" s="7" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>0</v>
-      </c>
-      <c r="S107" s="7"/>
+        <v>367919</v>
+      </c>
+      <c r="S107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -8744,21 +8905,17 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA107" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB107" s="7">
-        <v>1</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="AA107" s="7"/>
+      <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="1:28">
       <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025100042</v>
+        <v>2025100509</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -8767,42 +8924,44 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+        <v>328</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L108" s="6" t="s">
-        <v>79</v>
+        <v>281</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
-        <v>0</v>
-      </c>
-      <c r="S108" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>367919</v>
+      </c>
+      <c r="S108" s="3"/>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -8810,7 +8969,7 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AA108" s="3" t="s">
         <v>41</v>
@@ -8822,7 +8981,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025100974</v>
+        <v>2025100559</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -8831,50 +8990,52 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>121</v>
+        <v>217</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
+        <v>331</v>
+      </c>
+      <c r="J109" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L109" s="8" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="N109" s="8" t="s">
-        <v>324</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N109" s="8"/>
       <c r="O109" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>0</v>
-      </c>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>140018</v>
+      </c>
+      <c r="S109" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
       <c r="W109" s="7"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
@@ -8888,7 +9049,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025100926</v>
+        <v>2025100560</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -8897,42 +9058,42 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L110" s="6" t="s">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="N110" s="6" t="s">
-        <v>328</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N110" s="6"/>
       <c r="O110" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
-        <v>0</v>
-      </c>
-      <c r="S110" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>140018</v>
+      </c>
+      <c r="S110" s="3"/>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -8940,21 +9101,19 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AA110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB110" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB110" s="3"/>
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="7">
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025100894</v>
+        <v>2025100557</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -8963,38 +9122,44 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
+        <v>334</v>
+      </c>
+      <c r="J111" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K111" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L111" s="8" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="O111" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
+      <c r="Q111" s="7">
+        <v>3480</v>
+      </c>
       <c r="R111" s="7">
-        <v>0</v>
+        <v>8923</v>
       </c>
       <c r="S111" s="7" t="s">
         <v>41</v>
@@ -9006,19 +9171,21 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>329</v>
+        <v>215</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB111" s="7"/>
+      <c r="AB111" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025100752</v>
+        <v>2025100558</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9027,42 +9194,44 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>102</v>
+        <v>217</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>91</v>
+        <v>335</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>328</v>
+        <v>237</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="P112" s="3"/>
-      <c r="Q112" s="3"/>
+      <c r="Q112" s="3">
+        <v>3480</v>
+      </c>
       <c r="R112" s="3">
-        <v>0</v>
+        <v>8923</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9072,7 +9241,7 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
@@ -9084,7 +9253,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025100636</v>
+        <v>2025101235</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9093,44 +9262,46 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K113" s="7" t="s">
-        <v>334</v>
+        <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7">
-        <v>0</v>
-      </c>
-      <c r="S113" s="7"/>
+        <v>1138</v>
+      </c>
+      <c r="S113" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
@@ -9138,47 +9309,1585 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+    </row>
+    <row r="114" spans="1:28">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2025101236</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I114" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="AA113" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB113" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="9"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="T114" s="9"/>
-      <c r="U114" s="9"/>
-      <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
-      <c r="X114" s="9"/>
-      <c r="Y114" s="9"/>
-      <c r="Z114" s="10"/>
-      <c r="AA114" s="9" t="s">
+      <c r="J114" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AB114" s="9">
-        <v>63</v>
+      <c r="K114" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3">
+        <v>1138</v>
+      </c>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA114" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28">
+      <c r="A115" s="7">
+        <v>113</v>
+      </c>
+      <c r="B115" s="7">
+        <v>2025101361</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K115" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M115" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="N115" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7">
+        <v>29514</v>
+      </c>
+      <c r="S115" s="7"/>
+      <c r="T115" s="7"/>
+      <c r="U115" s="7"/>
+      <c r="V115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="W115" s="7"/>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA115" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB115" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2025100708</v>
+      </c>
+      <c r="C116" s="3">
+        <v>1</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L116" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="N116" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3">
+        <v>28</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28">
+      <c r="A117" s="7">
+        <v>115</v>
+      </c>
+      <c r="B117" s="7">
+        <v>2025100709</v>
+      </c>
+      <c r="C117" s="7">
+        <v>1</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="J117" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K117" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M117" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="7"/>
+      <c r="R117" s="7">
+        <v>28</v>
+      </c>
+      <c r="S117" s="7"/>
+      <c r="T117" s="7"/>
+      <c r="U117" s="7"/>
+      <c r="V117" s="7"/>
+      <c r="W117" s="7"/>
+      <c r="X117" s="7"/>
+      <c r="Y117" s="7"/>
+      <c r="Z117" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA117" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB117" s="7"/>
+    </row>
+    <row r="118" spans="1:28">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2025101217</v>
+      </c>
+      <c r="C118" s="3">
+        <v>1</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3">
+        <v>53</v>
+      </c>
+      <c r="S118" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="1:28">
+      <c r="A119" s="7">
+        <v>117</v>
+      </c>
+      <c r="B119" s="7">
+        <v>2025101218</v>
+      </c>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="J119" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="M119" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="N119" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="O119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="7"/>
+      <c r="R119" s="7">
+        <v>53</v>
+      </c>
+      <c r="S119" s="7"/>
+      <c r="T119" s="7"/>
+      <c r="U119" s="7"/>
+      <c r="V119" s="7"/>
+      <c r="W119" s="7"/>
+      <c r="X119" s="7"/>
+      <c r="Y119" s="7"/>
+      <c r="Z119" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA119" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB119" s="7"/>
+    </row>
+    <row r="120" spans="1:28">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2025100712</v>
+      </c>
+      <c r="C120" s="3">
+        <v>1</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="O120" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3">
+        <v>12160</v>
+      </c>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA120" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28">
+      <c r="A121" s="7">
+        <v>119</v>
+      </c>
+      <c r="B121" s="7">
+        <v>2025100835</v>
+      </c>
+      <c r="C121" s="7">
+        <v>1</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="J121" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K121" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="7"/>
+      <c r="R121" s="7">
+        <v>12160</v>
+      </c>
+      <c r="S121" s="7"/>
+      <c r="T121" s="7"/>
+      <c r="U121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V121" s="7"/>
+      <c r="W121" s="7"/>
+      <c r="X121" s="7"/>
+      <c r="Y121" s="7"/>
+      <c r="Z121" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA121" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2025100711</v>
+      </c>
+      <c r="C122" s="3">
+        <v>1</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L122" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="O122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3">
+        <v>87781</v>
+      </c>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA122" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28">
+      <c r="A123" s="7">
+        <v>121</v>
+      </c>
+      <c r="B123" s="7">
+        <v>2025100834</v>
+      </c>
+      <c r="C123" s="7">
+        <v>1</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G123" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="J123" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K123" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M123" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N123" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="7"/>
+      <c r="R123" s="7">
+        <v>87781</v>
+      </c>
+      <c r="S123" s="7"/>
+      <c r="T123" s="7"/>
+      <c r="U123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V123" s="7"/>
+      <c r="W123" s="7"/>
+      <c r="X123" s="7"/>
+      <c r="Y123" s="7"/>
+      <c r="Z123" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA123" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" s="3">
+        <v>2025100079</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L124" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="O124" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3">
+        <v>68795</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28">
+      <c r="A125" s="7">
+        <v>123</v>
+      </c>
+      <c r="B125" s="7">
+        <v>2025100080</v>
+      </c>
+      <c r="C125" s="7">
+        <v>1</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="J125" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K125" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="7"/>
+      <c r="R125" s="7">
+        <v>68795</v>
+      </c>
+      <c r="S125" s="7"/>
+      <c r="T125" s="7"/>
+      <c r="U125" s="7"/>
+      <c r="V125" s="7"/>
+      <c r="W125" s="7"/>
+      <c r="X125" s="7"/>
+      <c r="Y125" s="7"/>
+      <c r="Z125" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA125" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB125" s="7"/>
+    </row>
+    <row r="126" spans="1:28">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="3">
+        <v>2025100710</v>
+      </c>
+      <c r="C126" s="3">
+        <v>1</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L126" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3">
+        <v>47607</v>
+      </c>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA126" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28">
+      <c r="A127" s="7">
+        <v>125</v>
+      </c>
+      <c r="B127" s="7">
+        <v>2025100833</v>
+      </c>
+      <c r="C127" s="7">
+        <v>1</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="J127" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K127" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="7"/>
+      <c r="R127" s="7">
+        <v>47607</v>
+      </c>
+      <c r="S127" s="7"/>
+      <c r="T127" s="7"/>
+      <c r="U127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V127" s="7"/>
+      <c r="W127" s="7"/>
+      <c r="X127" s="7"/>
+      <c r="Y127" s="7"/>
+      <c r="Z127" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA127" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:28">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" s="3">
+        <v>2025100009</v>
+      </c>
+      <c r="C128" s="3">
+        <v>1</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L128" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA128" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28">
+      <c r="A129" s="7">
+        <v>127</v>
+      </c>
+      <c r="B129" s="7">
+        <v>2025100042</v>
+      </c>
+      <c r="C129" s="7">
+        <v>1</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7"/>
+      <c r="L129" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="7"/>
+      <c r="R129" s="7">
+        <v>0</v>
+      </c>
+      <c r="S129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T129" s="7"/>
+      <c r="U129" s="7"/>
+      <c r="V129" s="7"/>
+      <c r="W129" s="7"/>
+      <c r="X129" s="7"/>
+      <c r="Y129" s="7"/>
+      <c r="Z129" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA129" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB129" s="7"/>
+    </row>
+    <row r="130" spans="1:28">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" s="3">
+        <v>2025100974</v>
+      </c>
+      <c r="C130" s="3">
+        <v>1</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3">
+        <v>0</v>
+      </c>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB130" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28">
+      <c r="A131" s="7">
+        <v>129</v>
+      </c>
+      <c r="B131" s="7">
+        <v>2025100894</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="7"/>
+      <c r="R131" s="7">
+        <v>0</v>
+      </c>
+      <c r="S131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T131" s="7"/>
+      <c r="U131" s="7"/>
+      <c r="V131" s="7"/>
+      <c r="W131" s="7"/>
+      <c r="X131" s="7"/>
+      <c r="Y131" s="7"/>
+      <c r="Z131" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="AA131" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" s="3">
+        <v>2025100926</v>
+      </c>
+      <c r="C132" s="3">
+        <v>1</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="N132" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3">
+        <v>0</v>
+      </c>
+      <c r="S132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA132" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28">
+      <c r="A133" s="7">
+        <v>131</v>
+      </c>
+      <c r="B133" s="7">
+        <v>2025100752</v>
+      </c>
+      <c r="C133" s="7">
+        <v>1</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="J133" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K133" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7">
+        <v>0</v>
+      </c>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA133" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB133" s="7"/>
+    </row>
+    <row r="134" spans="1:28">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" s="3">
+        <v>2025101206</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3">
+        <v>0</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+    </row>
+    <row r="135" spans="1:28">
+      <c r="A135" s="7">
+        <v>133</v>
+      </c>
+      <c r="B135" s="7">
+        <v>2025101048</v>
+      </c>
+      <c r="C135" s="7">
+        <v>1</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="J135" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K135" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="7"/>
+      <c r="R135" s="7">
+        <v>0</v>
+      </c>
+      <c r="S135" s="7"/>
+      <c r="T135" s="7"/>
+      <c r="U135" s="7"/>
+      <c r="V135" s="7"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA135" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB135" s="7"/>
+    </row>
+    <row r="136" spans="1:28">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3">
+        <v>2025100636</v>
+      </c>
+      <c r="C136" s="3">
+        <v>1</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3">
+        <v>0</v>
+      </c>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="9"/>
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="S137" s="9"/>
+      <c r="T137" s="9"/>
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="9"/>
+      <c r="Y137" s="9"/>
+      <c r="Z137" s="10"/>
+      <c r="AA137" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB137" s="9">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$137</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$138</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="401">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -239,6 +239,33 @@
     <t>新北市淡水區民族路50巷46號3樓</t>
   </si>
   <si>
+    <t>2025-10-09</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>T351500014</t>
+  </si>
+  <si>
+    <t>eS-3515AC 彩色複合機</t>
+  </si>
+  <si>
+    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
+  </si>
+  <si>
+    <t>新北市三重區重新路五段609巷2號10樓-2(三重湯城)</t>
+  </si>
+  <si>
+    <t>台北客服10樓-2(彩)</t>
+  </si>
+  <si>
+    <t>湯城10F 客服裝機版更 6</t>
+  </si>
+  <si>
     <t>13:36:00</t>
   </si>
   <si>
@@ -246,9 +273,6 @@
   </si>
   <si>
     <t>T351500137</t>
-  </si>
-  <si>
-    <t>eS-3515AC 彩色複合機</t>
   </si>
   <si>
     <t>華南永昌綜合証券股份有限公司-淡水?</t>
@@ -442,9 +466,6 @@
     <t>北縣天龍店</t>
   </si>
   <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>THILF03890</t>
   </si>
   <si>
@@ -862,9 +883,6 @@
     <t>T302800029</t>
   </si>
   <si>
-    <t xml:space="preserve">台灣大哥大股份有限公司 </t>
-  </si>
-  <si>
     <t>新北市三重區重新路5段609巷2號3樓</t>
   </si>
   <si>
@@ -1058,9 +1076,6 @@
   </si>
   <si>
     <t>新北市新莊區中正路657-10號2樓</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
   </si>
   <si>
     <t>T451800022</t>
@@ -1638,10 +1653,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB137"/>
+  <dimension ref="A1:AB138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A137" sqref="A137"/>
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2483,7 +2498,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="7">
-        <v>2025100056</v>
+        <v>2025101521</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -2495,53 +2510,53 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7">
-        <v>2436</v>
+        <v>1000</v>
       </c>
       <c r="R13" s="7">
-        <v>302935</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13" s="7"/>
+        <v>9152</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U13" s="7"/>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
       <c r="Z13" s="8" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="AA13" s="7" t="s">
         <v>41</v>
@@ -2555,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2025100057</v>
+        <v>2025100056</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -2570,31 +2585,31 @@
         <v>31</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>56</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3">
@@ -2603,7 +2618,9 @@
       <c r="R14" s="3">
         <v>302935</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2616,14 +2633,16 @@
       <c r="AA14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB14" s="3"/>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>2025100991</v>
+        <v>2025100057</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -2635,39 +2654,43 @@
         <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="L15" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="Q15" s="7">
+        <v>2436</v>
+      </c>
       <c r="R15" s="7">
-        <v>0</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>302935</v>
+      </c>
+      <c r="S15" s="7"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -2675,21 +2698,19 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
       <c r="Z15" s="8" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="AA15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB15" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB15" s="7"/>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2025100874</v>
+        <v>2025100991</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -2701,27 +2722,27 @@
         <v>30</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>40</v>
@@ -2741,7 +2762,7 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA16" s="3" t="s">
         <v>41</v>
@@ -2755,7 +2776,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="7">
-        <v>2025100008</v>
+        <v>2025100874</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -2767,41 +2788,39 @@
         <v>30</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
         <v>0</v>
       </c>
-      <c r="S17" s="7"/>
+      <c r="S17" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T17" s="7"/>
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
@@ -2809,7 +2828,7 @@
       <c r="X17" s="7"/>
       <c r="Y17" s="7"/>
       <c r="Z17" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>41</v>
@@ -2823,7 +2842,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025100856</v>
+        <v>2025100008</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -2835,39 +2854,41 @@
         <v>30</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="L18" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>0</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2875,7 +2896,7 @@
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="6" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AA18" s="3" t="s">
         <v>41</v>
@@ -2889,7 +2910,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025100916</v>
+        <v>2025100856</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -2901,27 +2922,27 @@
         <v>30</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -2941,7 +2962,7 @@
       <c r="X19" s="7"/>
       <c r="Y19" s="7"/>
       <c r="Z19" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA19" s="7" t="s">
         <v>41</v>
@@ -2955,7 +2976,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2025100893</v>
+        <v>2025100916</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
@@ -2967,41 +2988,39 @@
         <v>30</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="L20" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -3009,7 +3028,7 @@
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="6" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>41</v>
@@ -3023,7 +3042,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="7">
-        <v>2025100966</v>
+        <v>2025100893</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -3035,39 +3054,41 @@
         <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="L21" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
         <v>0</v>
       </c>
-      <c r="S21" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S21" s="7"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
@@ -3075,19 +3096,21 @@
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
       <c r="Z21" s="8" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AA21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>2025100973</v>
+        <v>2025100966</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
@@ -3099,13 +3122,13 @@
         <v>30</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>116</v>
@@ -3113,7 +3136,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M22" s="6" t="s">
         <v>117</v>
@@ -3139,21 +3162,19 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB22" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="7">
-        <v>2025100452</v>
+        <v>2025100973</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
@@ -3165,27 +3186,27 @@
         <v>30</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3205,7 +3226,7 @@
       <c r="X23" s="7"/>
       <c r="Y23" s="7"/>
       <c r="Z23" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA23" s="7" t="s">
         <v>41</v>
@@ -3219,7 +3240,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>2025101027</v>
+        <v>2025100452</v>
       </c>
       <c r="C24" s="3">
         <v>1</v>
@@ -3231,27 +3252,27 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>40</v>
@@ -3271,7 +3292,7 @@
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
       <c r="Z24" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>41</v>
@@ -3285,7 +3306,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="7">
-        <v>2025100705</v>
+        <v>2025101027</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
@@ -3297,27 +3318,27 @@
         <v>30</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>40</v>
@@ -3337,7 +3358,7 @@
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA25" s="7" t="s">
         <v>41</v>
@@ -3351,7 +3372,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>2025100396</v>
+        <v>2025100705</v>
       </c>
       <c r="C26" s="3">
         <v>1</v>
@@ -3363,27 +3384,27 @@
         <v>30</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>40</v>
@@ -3403,7 +3424,7 @@
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
       <c r="Z26" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA26" s="3" t="s">
         <v>41</v>
@@ -3417,7 +3438,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="7">
-        <v>2025100094</v>
+        <v>2025100396</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
@@ -3429,41 +3450,39 @@
         <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
         <v>0</v>
       </c>
-      <c r="S27" s="7"/>
+      <c r="S27" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -3471,7 +3490,7 @@
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="8" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="AA27" s="7" t="s">
         <v>41</v>
@@ -3485,7 +3504,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>2025100520</v>
+        <v>2025100094</v>
       </c>
       <c r="C28" s="3">
         <v>1</v>
@@ -3497,21 +3516,25 @@
         <v>30</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="J28" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="L28" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M28" s="6" t="s">
         <v>145</v>
@@ -3520,16 +3543,14 @@
         <v>146</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3">
         <v>0</v>
       </c>
-      <c r="S28" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3537,7 +3558,7 @@
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
       <c r="Z28" s="6" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AA28" s="3" t="s">
         <v>41</v>
@@ -3551,7 +3572,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="7">
-        <v>2025101085</v>
+        <v>2025100520</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
@@ -3563,27 +3584,27 @@
         <v>30</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>40</v>
@@ -3603,7 +3624,7 @@
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA29" s="7" t="s">
         <v>41</v>
@@ -3617,7 +3638,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>2025100662</v>
+        <v>2025101085</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3629,27 +3650,27 @@
         <v>30</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>40</v>
@@ -3669,7 +3690,7 @@
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
       <c r="Z30" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>41</v>
@@ -3683,7 +3704,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="7">
-        <v>2025100501</v>
+        <v>2025100662</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
@@ -3695,27 +3716,27 @@
         <v>30</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -3735,7 +3756,7 @@
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA31" s="7" t="s">
         <v>41</v>
@@ -3749,7 +3770,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2025100682</v>
+        <v>2025100501</v>
       </c>
       <c r="C32" s="3">
         <v>1</v>
@@ -3761,27 +3782,27 @@
         <v>30</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>40</v>
@@ -3801,7 +3822,7 @@
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
       <c r="Z32" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA32" s="3" t="s">
         <v>41</v>
@@ -3815,7 +3836,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="7">
-        <v>2025101203</v>
+        <v>2025100682</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
@@ -3827,27 +3848,27 @@
         <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>40</v>
@@ -3867,7 +3888,7 @@
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA33" s="7" t="s">
         <v>41</v>
@@ -3881,7 +3902,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>2025100723</v>
+        <v>2025101203</v>
       </c>
       <c r="C34" s="3">
         <v>1</v>
@@ -3893,27 +3914,27 @@
         <v>30</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>40</v>
@@ -3933,7 +3954,7 @@
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA34" s="3" t="s">
         <v>41</v>
@@ -3947,7 +3968,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="7">
-        <v>2025100731</v>
+        <v>2025100723</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -3959,27 +3980,27 @@
         <v>30</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -3999,7 +4020,7 @@
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA35" s="7" t="s">
         <v>41</v>
@@ -4013,7 +4034,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>2025101184</v>
+        <v>2025100731</v>
       </c>
       <c r="C36" s="3">
         <v>1</v>
@@ -4025,27 +4046,27 @@
         <v>30</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>84</v>
+        <v>182</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O36" s="3" t="s">
         <v>40</v>
@@ -4065,7 +4086,7 @@
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA36" s="3" t="s">
         <v>41</v>
@@ -4079,7 +4100,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="7">
-        <v>2025101097</v>
+        <v>2025101184</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -4091,27 +4112,27 @@
         <v>30</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>183</v>
+        <v>109</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>40</v>
@@ -4131,7 +4152,7 @@
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="7" t="s">
         <v>41</v>
@@ -4145,7 +4166,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2025100855</v>
+        <v>2025101097</v>
       </c>
       <c r="C38" s="3">
         <v>1</v>
@@ -4157,27 +4178,27 @@
         <v>30</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>187</v>
+        <v>44</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O38" s="3" t="s">
         <v>40</v>
@@ -4197,7 +4218,7 @@
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA38" s="3" t="s">
         <v>41</v>
@@ -4211,7 +4232,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="7">
-        <v>2025101018</v>
+        <v>2025100855</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -4223,27 +4244,27 @@
         <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>175</v>
+        <v>70</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
@@ -4263,7 +4284,7 @@
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="8" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA39" s="7" t="s">
         <v>41</v>
@@ -4277,7 +4298,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2025100457</v>
+        <v>2025101018</v>
       </c>
       <c r="C40" s="3">
         <v>1</v>
@@ -4289,27 +4310,27 @@
         <v>30</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N40" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O40" s="3" t="s">
         <v>40</v>
@@ -4329,7 +4350,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="6" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AA40" s="3" t="s">
         <v>41</v>
@@ -4343,7 +4364,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="7">
-        <v>2025101238</v>
+        <v>2025100457</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -4355,27 +4376,27 @@
         <v>30</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M41" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>40</v>
@@ -4385,17 +4406,17 @@
       <c r="R41" s="7">
         <v>0</v>
       </c>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T41" s="7"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="8" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="AA41" s="7" t="s">
         <v>41</v>
@@ -4409,7 +4430,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>2025100326</v>
+        <v>2025101238</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -4421,34 +4442,30 @@
         <v>30</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
       <c r="L42" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N42" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
@@ -4456,14 +4473,16 @@
         <v>0</v>
       </c>
       <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
+      <c r="T42" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
       <c r="Y42" s="3"/>
       <c r="Z42" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA42" s="3" t="s">
         <v>41</v>
@@ -4477,7 +4496,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="7">
-        <v>2025100405</v>
+        <v>2025100326</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -4489,39 +4508,41 @@
         <v>30</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>102</v>
+        <v>210</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+        <v>212</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="L43" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7">
         <v>0</v>
       </c>
-      <c r="S43" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
@@ -4529,19 +4550,21 @@
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="8" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="AA43" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB43" s="7"/>
+      <c r="AB43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="3">
-        <v>2025100602</v>
+        <v>2025100405</v>
       </c>
       <c r="C44" s="3">
         <v>1</v>
@@ -4550,42 +4573,38 @@
         <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>84</v>
+        <v>216</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="J44" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
       <c r="L44" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="N44" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="N44" s="6"/>
       <c r="O44" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P44" s="3"/>
-      <c r="Q44" s="3">
-        <v>2150</v>
-      </c>
+      <c r="Q44" s="3"/>
       <c r="R44" s="3">
-        <v>43000</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>41</v>
@@ -4597,14 +4616,12 @@
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="6" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB44" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="7">
@@ -4620,31 +4637,31 @@
         <v>29</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="N45" s="8"/>
       <c r="O45" s="7" t="s">
@@ -4665,19 +4682,21 @@
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB45" s="7"/>
+      <c r="AB45" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="3">
-        <v>2025100333</v>
+        <v>2025100602</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -4686,50 +4705,48 @@
         <v>29</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>218</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="N46" s="6" t="s">
         <v>221</v>
       </c>
+      <c r="N46" s="6"/>
       <c r="O46" s="3" t="s">
         <v>40</v>
       </c>
       <c r="P46" s="3"/>
       <c r="Q46" s="3">
-        <v>16366</v>
+        <v>2150</v>
       </c>
       <c r="R46" s="3">
-        <v>143510</v>
-      </c>
-      <c r="S46" s="3"/>
+        <v>43000</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T46" s="3"/>
-      <c r="U46" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
@@ -4740,16 +4757,14 @@
       <c r="AA46" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB46" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="7">
         <v>45</v>
       </c>
       <c r="B47" s="7">
-        <v>2025100335</v>
+        <v>2025100333</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
@@ -4758,44 +4773,44 @@
         <v>29</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="K47" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7">
-        <v>5983</v>
+        <v>16366</v>
       </c>
       <c r="R47" s="7">
-        <v>32582</v>
+        <v>143510</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -4807,7 +4822,7 @@
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA47" s="7" t="s">
         <v>41</v>
@@ -4821,7 +4836,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3">
-        <v>2025100847</v>
+        <v>2025100335</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -4830,58 +4845,56 @@
         <v>29</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P48" s="3">
-        <v>6677</v>
-      </c>
+      <c r="P48" s="3"/>
       <c r="Q48" s="3">
-        <v>15120</v>
+        <v>5983</v>
       </c>
       <c r="R48" s="3">
-        <v>19337</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>32582</v>
+      </c>
+      <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
+      <c r="U48" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
       <c r="Z48" s="6" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="AA48" s="3" t="s">
         <v>41</v>
@@ -4895,7 +4908,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="7">
-        <v>2025100848</v>
+        <v>2025100847</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
@@ -4904,19 +4917,19 @@
         <v>29</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>35</v>
@@ -4925,16 +4938,16 @@
         <v>36</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P49" s="7">
         <v>6677</v>
@@ -4945,7 +4958,9 @@
       <c r="R49" s="7">
         <v>19337</v>
       </c>
-      <c r="S49" s="7"/>
+      <c r="S49" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
       <c r="V49" s="7"/>
@@ -4953,19 +4968,21 @@
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA49" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB49" s="7"/>
+      <c r="AB49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:28">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="3">
-        <v>2025100845</v>
+        <v>2025100848</v>
       </c>
       <c r="C50" s="3">
         <v>1</v>
@@ -4974,19 +4991,19 @@
         <v>29</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>35</v>
@@ -4995,29 +5012,27 @@
         <v>36</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P50" s="3">
-        <v>1800</v>
+        <v>6677</v>
       </c>
       <c r="Q50" s="3">
-        <v>2596</v>
+        <v>15120</v>
       </c>
       <c r="R50" s="3">
-        <v>7150</v>
-      </c>
-      <c r="S50" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>19337</v>
+      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -5025,21 +5040,19 @@
       <c r="X50" s="3"/>
       <c r="Y50" s="3"/>
       <c r="Z50" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA50" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB50" s="3"/>
     </row>
     <row r="51" spans="1:28">
       <c r="A51" s="7">
         <v>49</v>
       </c>
       <c r="B51" s="7">
-        <v>2025100846</v>
+        <v>2025100845</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
@@ -5048,19 +5061,19 @@
         <v>29</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>35</v>
@@ -5069,16 +5082,16 @@
         <v>36</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P51" s="7">
         <v>1800</v>
@@ -5089,7 +5102,9 @@
       <c r="R51" s="7">
         <v>7150</v>
       </c>
-      <c r="S51" s="7"/>
+      <c r="S51" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
       <c r="V51" s="7"/>
@@ -5097,19 +5112,21 @@
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB51" s="7"/>
+      <c r="AB51" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:28">
       <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="3">
-        <v>2025100597</v>
+        <v>2025100846</v>
       </c>
       <c r="C52" s="3">
         <v>1</v>
@@ -5118,19 +5135,19 @@
         <v>29</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>35</v>
@@ -5142,24 +5159,24 @@
         <v>235</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N52" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P52" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1800</v>
+      </c>
       <c r="Q52" s="3">
-        <v>900</v>
+        <v>2596</v>
       </c>
       <c r="R52" s="3">
-        <v>13500</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="S52" s="3"/>
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
@@ -5167,21 +5184,19 @@
       <c r="X52" s="3"/>
       <c r="Y52" s="3"/>
       <c r="Z52" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB52" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="7">
         <v>51</v>
       </c>
       <c r="B53" s="7">
-        <v>2025100598</v>
+        <v>2025100597</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
@@ -5190,19 +5205,19 @@
         <v>29</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>35</v>
@@ -5211,16 +5226,16 @@
         <v>36</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P53" s="7"/>
       <c r="Q53" s="7">
@@ -5229,7 +5244,9 @@
       <c r="R53" s="7">
         <v>13500</v>
       </c>
-      <c r="S53" s="7"/>
+      <c r="S53" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -5237,19 +5254,21 @@
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB53" s="7"/>
+      <c r="AB53" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="3">
-        <v>2025101025</v>
+        <v>2025100598</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -5258,19 +5277,19 @@
         <v>29</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>143</v>
+        <v>70</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>35</v>
@@ -5279,29 +5298,25 @@
         <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="N54" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P54" s="3">
-        <v>117</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3">
-        <v>926</v>
+        <v>900</v>
       </c>
       <c r="R54" s="3">
-        <v>3189</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>13500</v>
+      </c>
+      <c r="S54" s="3"/>
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
@@ -5309,21 +5324,19 @@
       <c r="X54" s="3"/>
       <c r="Y54" s="3"/>
       <c r="Z54" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB54" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="7">
         <v>53</v>
       </c>
       <c r="B55" s="7">
-        <v>2025101026</v>
+        <v>2025101025</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
@@ -5332,19 +5345,19 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="J55" s="7" t="s">
         <v>35</v>
@@ -5353,16 +5366,16 @@
         <v>36</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P55" s="7">
         <v>117</v>
@@ -5373,7 +5386,9 @@
       <c r="R55" s="7">
         <v>3189</v>
       </c>
-      <c r="S55" s="7"/>
+      <c r="S55" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
       <c r="V55" s="7"/>
@@ -5381,19 +5396,21 @@
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB55" s="7"/>
+      <c r="AB55" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="3">
-        <v>2025100077</v>
+        <v>2025101026</v>
       </c>
       <c r="C56" s="3">
         <v>1</v>
@@ -5402,19 +5419,19 @@
         <v>29</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>35</v>
@@ -5423,27 +5440,27 @@
         <v>36</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P56" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="P56" s="3">
+        <v>117</v>
+      </c>
       <c r="Q56" s="3">
-        <v>843</v>
+        <v>926</v>
       </c>
       <c r="R56" s="3">
-        <v>44687</v>
-      </c>
-      <c r="S56" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3189</v>
+      </c>
+      <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -5451,9 +5468,11 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA56" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28">
@@ -5461,7 +5480,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="7">
-        <v>2025100078</v>
+        <v>2025100077</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
@@ -5470,7 +5489,7 @@
         <v>29</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>31</v>
@@ -5479,10 +5498,10 @@
         <v>50</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J57" s="7" t="s">
         <v>35</v>
@@ -5491,16 +5510,16 @@
         <v>36</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P57" s="7"/>
       <c r="Q57" s="7">
@@ -5509,7 +5528,9 @@
       <c r="R57" s="7">
         <v>44687</v>
       </c>
-      <c r="S57" s="7"/>
+      <c r="S57" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
       <c r="V57" s="7"/>
@@ -5517,11 +5538,9 @@
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA57" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="1:28">
@@ -5529,7 +5548,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3">
-        <v>2025100454</v>
+        <v>2025100078</v>
       </c>
       <c r="C58" s="3">
         <v>1</v>
@@ -5538,19 +5557,19 @@
         <v>29</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>35</v>
@@ -5559,16 +5578,16 @@
         <v>36</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="P58" s="3"/>
       <c r="Q58" s="3">
@@ -5585,21 +5604,19 @@
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="6" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB58" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28">
       <c r="A59" s="7">
         <v>57</v>
       </c>
       <c r="B59" s="7">
-        <v>2025100084</v>
+        <v>2025100454</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -5608,19 +5625,19 @@
         <v>29</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="J59" s="7" t="s">
         <v>35</v>
@@ -5629,27 +5646,25 @@
         <v>36</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7">
-        <v>56</v>
+        <v>843</v>
       </c>
       <c r="R59" s="7">
-        <v>400</v>
-      </c>
-      <c r="S59" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>44687</v>
+      </c>
+      <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
       <c r="V59" s="7"/>
@@ -5657,7 +5672,7 @@
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="8" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="AA59" s="7" t="s">
         <v>41</v>
@@ -5671,7 +5686,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3">
-        <v>2025100085</v>
+        <v>2025100084</v>
       </c>
       <c r="C60" s="3">
         <v>1</v>
@@ -5680,19 +5695,19 @@
         <v>29</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>35</v>
@@ -5704,13 +5719,13 @@
         <v>47</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P60" s="3"/>
       <c r="Q60" s="3">
@@ -5719,7 +5734,9 @@
       <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3"/>
+      <c r="S60" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -5727,19 +5744,21 @@
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA60" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB60" s="3"/>
+      <c r="AB60" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:28">
       <c r="A61" s="7">
         <v>59</v>
       </c>
       <c r="B61" s="7">
-        <v>2025101243</v>
+        <v>2025100085</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
@@ -5748,19 +5767,19 @@
         <v>29</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>35</v>
@@ -5772,13 +5791,13 @@
         <v>47</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7">
@@ -5795,21 +5814,19 @@
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="8" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="AA61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB61" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB61" s="7"/>
     </row>
     <row r="62" spans="1:28">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="3">
-        <v>2025101232</v>
+        <v>2025101243</v>
       </c>
       <c r="C62" s="3">
         <v>1</v>
@@ -5818,19 +5835,19 @@
         <v>29</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>35</v>
@@ -5839,27 +5856,25 @@
         <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>251</v>
+        <v>47</v>
       </c>
       <c r="M62" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P62" s="3"/>
       <c r="Q62" s="3">
-        <v>2168</v>
+        <v>56</v>
       </c>
       <c r="R62" s="3">
-        <v>1179</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="S62" s="3"/>
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -5867,17 +5882,21 @@
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
+        <v>256</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:28">
       <c r="A63" s="7">
         <v>61</v>
       </c>
       <c r="B63" s="7">
-        <v>2025101233</v>
+        <v>2025101232</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
@@ -5886,19 +5905,19 @@
         <v>29</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F63" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H63" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="I63" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>35</v>
@@ -5907,16 +5926,16 @@
         <v>36</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7">
@@ -5925,7 +5944,9 @@
       <c r="R63" s="7">
         <v>1179</v>
       </c>
-      <c r="S63" s="7"/>
+      <c r="S63" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
       <c r="V63" s="7"/>
@@ -5933,11 +5954,9 @@
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA63" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
     <row r="64" spans="1:28">
@@ -5945,7 +5964,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3">
-        <v>2025100074</v>
+        <v>2025101233</v>
       </c>
       <c r="C64" s="3">
         <v>1</v>
@@ -5954,46 +5973,46 @@
         <v>29</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="3">
+        <v>2168</v>
+      </c>
       <c r="R64" s="3">
-        <v>193</v>
-      </c>
-      <c r="S64" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>1179</v>
+      </c>
+      <c r="S64" s="3"/>
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -6001,21 +6020,19 @@
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA64" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB64" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28">
       <c r="A65" s="7">
         <v>63</v>
       </c>
       <c r="B65" s="7">
-        <v>2025100075</v>
+        <v>2025100074</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
@@ -6024,19 +6041,19 @@
         <v>29</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="J65" s="7" t="s">
         <v>53</v>
@@ -6045,23 +6062,25 @@
         <v>36</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7">
         <v>193</v>
       </c>
-      <c r="S65" s="7"/>
+      <c r="S65" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
       <c r="V65" s="7"/>
@@ -6069,19 +6088,21 @@
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA65" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB65" s="7"/>
+      <c r="AB65" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:28">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="3">
-        <v>2025101095</v>
+        <v>2025100075</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -6090,19 +6111,19 @@
         <v>29</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>53</v>
@@ -6111,25 +6132,23 @@
         <v>36</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
       <c r="M66" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3">
-        <v>47953</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="S66" s="3"/>
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -6137,21 +6156,19 @@
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA66" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB66" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28">
       <c r="A67" s="7">
         <v>65</v>
       </c>
       <c r="B67" s="7">
-        <v>2025101096</v>
+        <v>2025101095</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
@@ -6160,19 +6177,19 @@
         <v>29</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>53</v>
@@ -6184,20 +6201,22 @@
         <v>54</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7">
         <v>47953</v>
       </c>
-      <c r="S67" s="7"/>
+      <c r="S67" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
       <c r="V67" s="7"/>
@@ -6205,19 +6224,21 @@
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA67" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB67" s="7"/>
+      <c r="AB67" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="3">
-        <v>2025101094</v>
+        <v>2025101096</v>
       </c>
       <c r="C68" s="3">
         <v>1</v>
@@ -6226,19 +6247,19 @@
         <v>29</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>53</v>
@@ -6250,10 +6271,10 @@
         <v>54</v>
       </c>
       <c r="M68" s="6" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>43</v>
@@ -6261,7 +6282,7 @@
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3">
-        <v>79124</v>
+        <v>47953</v>
       </c>
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
@@ -6271,14 +6292,12 @@
       <c r="X68" s="3"/>
       <c r="Y68" s="3"/>
       <c r="Z68" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA68" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB68" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB68" s="3"/>
     </row>
     <row r="69" spans="1:28">
       <c r="A69" s="7">
@@ -6294,19 +6313,19 @@
         <v>29</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>53</v>
@@ -6318,10 +6337,10 @@
         <v>54</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="O69" s="7" t="s">
         <v>40</v>
@@ -6341,19 +6360,21 @@
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA69" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB69" s="7"/>
+      <c r="AB69" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="3">
-        <v>2025100368</v>
+        <v>2025101094</v>
       </c>
       <c r="C70" s="3">
         <v>1</v>
@@ -6362,46 +6383,44 @@
         <v>29</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3">
-        <v>155192</v>
-      </c>
-      <c r="S70" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>79124</v>
+      </c>
+      <c r="S70" s="3"/>
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
@@ -6409,21 +6428,19 @@
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA70" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB70" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28">
       <c r="A71" s="7">
         <v>69</v>
       </c>
       <c r="B71" s="7">
-        <v>2025100369</v>
+        <v>2025100368</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
@@ -6432,19 +6449,19 @@
         <v>29</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="J71" s="7" t="s">
         <v>60</v>
@@ -6453,23 +6470,25 @@
         <v>36</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7">
         <v>155192</v>
       </c>
-      <c r="S71" s="7"/>
+      <c r="S71" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
       <c r="V71" s="7"/>
@@ -6477,19 +6496,21 @@
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA71" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB71" s="7"/>
+      <c r="AB71" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:28">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3">
-        <v>2025100370</v>
+        <v>2025100369</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -6498,19 +6519,19 @@
         <v>29</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="I72" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>60</v>
@@ -6519,25 +6540,23 @@
         <v>36</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3">
-        <v>140987</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>155192</v>
+      </c>
+      <c r="S72" s="3"/>
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
@@ -6545,21 +6564,19 @@
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA72" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB72" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28">
       <c r="A73" s="7">
         <v>71</v>
       </c>
       <c r="B73" s="7">
-        <v>2025100371</v>
+        <v>2025100370</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
@@ -6568,19 +6585,19 @@
         <v>29</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="J73" s="7" t="s">
         <v>60</v>
@@ -6589,23 +6606,25 @@
         <v>36</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7">
         <v>140987</v>
       </c>
-      <c r="S73" s="7"/>
+      <c r="S73" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
       <c r="V73" s="7"/>
@@ -6613,19 +6632,21 @@
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA73" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB73" s="7"/>
+      <c r="AB73" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:28">
       <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="3">
-        <v>2025100599</v>
+        <v>2025100371</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -6634,19 +6655,19 @@
         <v>29</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>60</v>
@@ -6658,20 +6679,20 @@
         <v>273</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="N74" s="6"/>
+        <v>277</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>278</v>
+      </c>
       <c r="O74" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <v>50000</v>
-      </c>
-      <c r="S74" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>140987</v>
+      </c>
+      <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
@@ -6679,21 +6700,19 @@
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA74" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB74" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28">
       <c r="A75" s="7">
         <v>73</v>
       </c>
       <c r="B75" s="7">
-        <v>2025100600</v>
+        <v>2025100599</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
@@ -6702,19 +6721,19 @@
         <v>29</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>60</v>
@@ -6723,21 +6742,23 @@
         <v>36</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="N75" s="8"/>
       <c r="O75" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7">
         <v>50000</v>
       </c>
-      <c r="S75" s="7"/>
+      <c r="S75" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
       <c r="V75" s="7"/>
@@ -6745,19 +6766,21 @@
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA75" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB75" s="7"/>
+      <c r="AB75" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:28">
       <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="3">
-        <v>2025100713</v>
+        <v>2025100600</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -6766,19 +6789,19 @@
         <v>29</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>60</v>
@@ -6787,27 +6810,23 @@
         <v>36</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M76" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>278</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N76" s="6"/>
       <c r="O76" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3">
-        <v>10255</v>
+        <v>50000</v>
       </c>
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
-      <c r="U76" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
@@ -6818,16 +6837,14 @@
       <c r="AA76" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB76" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28">
       <c r="A77" s="7">
         <v>75</v>
       </c>
       <c r="B77" s="7">
-        <v>2025100836</v>
+        <v>2025100713</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -6836,19 +6853,19 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>60</v>
@@ -6857,13 +6874,13 @@
         <v>36</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="O77" s="7" t="s">
         <v>40</v>
@@ -6883,7 +6900,7 @@
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA77" s="7" t="s">
         <v>41</v>
@@ -6897,7 +6914,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3">
-        <v>2025100502</v>
+        <v>2025100836</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -6906,19 +6923,19 @@
         <v>29</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>152</v>
+        <v>285</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>60</v>
@@ -6927,13 +6944,13 @@
         <v>36</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>281</v>
+        <v>74</v>
       </c>
       <c r="M78" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>40</v>
@@ -6941,29 +6958,33 @@
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3">
-        <v>299683</v>
-      </c>
-      <c r="S78" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>10255</v>
+      </c>
+      <c r="S78" s="3"/>
       <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
+      <c r="U78" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3"/>
       <c r="Z78" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:28">
       <c r="A79" s="7">
         <v>77</v>
       </c>
       <c r="B79" s="7">
-        <v>2025100503</v>
+        <v>2025100502</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -6972,19 +6993,19 @@
         <v>29</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="J79" s="7" t="s">
         <v>60</v>
@@ -6993,23 +7014,25 @@
         <v>36</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7">
         <v>299683</v>
       </c>
-      <c r="S79" s="7"/>
+      <c r="S79" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
       <c r="V79" s="7"/>
@@ -7017,11 +7040,9 @@
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA79" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
     <row r="80" spans="1:28">
@@ -7029,7 +7050,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3">
-        <v>2025100498</v>
+        <v>2025100503</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -7038,19 +7059,19 @@
         <v>29</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>60</v>
@@ -7059,25 +7080,23 @@
         <v>36</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M80" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N80" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
       <c r="R80" s="3">
-        <v>240934</v>
-      </c>
-      <c r="S80" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>299683</v>
+      </c>
+      <c r="S80" s="3"/>
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
@@ -7085,9 +7104,11 @@
       <c r="X80" s="3"/>
       <c r="Y80" s="3"/>
       <c r="Z80" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA80" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28">
@@ -7095,7 +7116,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="7">
-        <v>2025100499</v>
+        <v>2025100498</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -7104,19 +7125,19 @@
         <v>29</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="J81" s="7" t="s">
         <v>60</v>
@@ -7125,23 +7146,25 @@
         <v>36</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M81" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7">
         <v>240934</v>
       </c>
-      <c r="S81" s="7"/>
+      <c r="S81" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
       <c r="V81" s="7"/>
@@ -7149,11 +7172,9 @@
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA81" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA81" s="7"/>
       <c r="AB81" s="7"/>
     </row>
     <row r="82" spans="1:28">
@@ -7161,7 +7182,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3">
-        <v>2025101091</v>
+        <v>2025100499</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -7170,19 +7191,19 @@
         <v>29</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>60</v>
@@ -7191,25 +7212,23 @@
         <v>36</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>54</v>
+        <v>287</v>
       </c>
       <c r="M82" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="N82" s="6" t="s">
-        <v>237</v>
+        <v>292</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3">
-        <v>3516</v>
-      </c>
-      <c r="S82" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>240934</v>
+      </c>
+      <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
@@ -7217,21 +7236,19 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA82" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB82" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB82" s="3"/>
     </row>
     <row r="83" spans="1:28">
       <c r="A83" s="7">
         <v>81</v>
       </c>
       <c r="B83" s="7">
-        <v>2025101092</v>
+        <v>2025101091</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -7240,19 +7257,19 @@
         <v>29</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="J83" s="7" t="s">
         <v>60</v>
@@ -7264,20 +7281,22 @@
         <v>54</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7">
         <v>3516</v>
       </c>
-      <c r="S83" s="7"/>
+      <c r="S83" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
       <c r="V83" s="7"/>
@@ -7285,19 +7304,21 @@
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB83" s="7"/>
+      <c r="AB83" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="3">
-        <v>2025100070</v>
+        <v>2025101092</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -7306,19 +7327,19 @@
         <v>29</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>60</v>
@@ -7327,25 +7348,23 @@
         <v>36</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="M84" s="6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="N84" s="6" t="s">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3">
-        <v>4020</v>
-      </c>
-      <c r="S84" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3516</v>
+      </c>
+      <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
@@ -7353,21 +7372,19 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA84" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB84" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB84" s="3"/>
     </row>
     <row r="85" spans="1:28">
       <c r="A85" s="7">
         <v>83</v>
       </c>
       <c r="B85" s="7">
-        <v>2025100071</v>
+        <v>2025100070</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -7376,19 +7393,19 @@
         <v>29</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>60</v>
@@ -7397,23 +7414,25 @@
         <v>36</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7">
         <v>4020</v>
       </c>
-      <c r="S85" s="7"/>
+      <c r="S85" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
       <c r="V85" s="7"/>
@@ -7421,19 +7440,21 @@
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA85" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB85" s="7"/>
+      <c r="AB85" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="86" spans="1:28">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3">
-        <v>2025100065</v>
+        <v>2025100071</v>
       </c>
       <c r="C86" s="3">
         <v>1</v>
@@ -7442,19 +7463,19 @@
         <v>29</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>60</v>
@@ -7463,25 +7484,23 @@
         <v>36</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M86" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
       <c r="R86" s="3">
-        <v>5001</v>
-      </c>
-      <c r="S86" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>4020</v>
+      </c>
+      <c r="S86" s="3"/>
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
@@ -7489,21 +7508,19 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA86" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB86" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB86" s="3"/>
     </row>
     <row r="87" spans="1:28">
       <c r="A87" s="7">
         <v>85</v>
       </c>
       <c r="B87" s="7">
-        <v>2025100066</v>
+        <v>2025100065</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -7512,19 +7529,19 @@
         <v>29</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>44</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="J87" s="7" t="s">
         <v>60</v>
@@ -7533,23 +7550,25 @@
         <v>36</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7">
         <v>5001</v>
       </c>
-      <c r="S87" s="7"/>
+      <c r="S87" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
       <c r="V87" s="7"/>
@@ -7557,19 +7576,21 @@
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA87" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB87" s="7"/>
+      <c r="AB87" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:28">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3">
-        <v>2025100059</v>
+        <v>2025100066</v>
       </c>
       <c r="C88" s="3">
         <v>1</v>
@@ -7578,19 +7599,19 @@
         <v>29</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>60</v>
@@ -7599,25 +7620,23 @@
         <v>36</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M88" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
       <c r="R88" s="3">
-        <v>3173</v>
-      </c>
-      <c r="S88" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="S88" s="3"/>
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
@@ -7625,21 +7644,19 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA88" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB88" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB88" s="3"/>
     </row>
     <row r="89" spans="1:28">
       <c r="A89" s="7">
         <v>87</v>
       </c>
       <c r="B89" s="7">
-        <v>2025100060</v>
+        <v>2025100059</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -7648,19 +7665,19 @@
         <v>29</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="J89" s="7" t="s">
         <v>60</v>
@@ -7669,23 +7686,25 @@
         <v>36</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7">
         <v>3173</v>
       </c>
-      <c r="S89" s="7"/>
+      <c r="S89" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
       <c r="V89" s="7"/>
@@ -7693,19 +7712,21 @@
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA89" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB89" s="7"/>
+      <c r="AB89" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:28">
       <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="3">
-        <v>2025100063</v>
+        <v>2025100060</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -7714,19 +7735,19 @@
         <v>29</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>60</v>
@@ -7735,25 +7756,23 @@
         <v>36</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3">
-        <v>2841</v>
-      </c>
-      <c r="S90" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>3173</v>
+      </c>
+      <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
@@ -7761,21 +7780,19 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA90" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB90" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB90" s="3"/>
     </row>
     <row r="91" spans="1:28">
       <c r="A91" s="7">
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025100064</v>
+        <v>2025100063</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -7784,19 +7801,19 @@
         <v>29</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>60</v>
@@ -7805,23 +7822,25 @@
         <v>36</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7">
         <v>2841</v>
       </c>
-      <c r="S91" s="7"/>
+      <c r="S91" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -7829,19 +7848,21 @@
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA91" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB91" s="7"/>
+      <c r="AB91" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:28">
       <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025100061</v>
+        <v>2025100064</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -7850,19 +7871,19 @@
         <v>29</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>187</v>
+        <v>70</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>60</v>
@@ -7871,25 +7892,23 @@
         <v>36</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M92" s="6" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N92" s="6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
       <c r="R92" s="3">
-        <v>1935</v>
-      </c>
-      <c r="S92" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>2841</v>
+      </c>
+      <c r="S92" s="3"/>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -7897,21 +7916,19 @@
       <c r="X92" s="3"/>
       <c r="Y92" s="3"/>
       <c r="Z92" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA92" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB92" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB92" s="3"/>
     </row>
     <row r="93" spans="1:28">
       <c r="A93" s="7">
         <v>91</v>
       </c>
       <c r="B93" s="7">
-        <v>2025100062</v>
+        <v>2025100061</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
@@ -7920,19 +7937,19 @@
         <v>29</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I93" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="J93" s="7" t="s">
         <v>60</v>
@@ -7941,23 +7958,25 @@
         <v>36</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M93" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7">
         <v>1935</v>
       </c>
-      <c r="S93" s="7"/>
+      <c r="S93" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
       <c r="V93" s="7"/>
@@ -7965,19 +7984,21 @@
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB93" s="7"/>
+      <c r="AB93" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:28">
       <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="3">
-        <v>2025100336</v>
+        <v>2025100062</v>
       </c>
       <c r="C94" s="3">
         <v>1</v>
@@ -7986,50 +8007,46 @@
         <v>29</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="M94" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N94" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P94" s="3"/>
-      <c r="Q94" s="3">
-        <v>28805</v>
-      </c>
+      <c r="Q94" s="3"/>
       <c r="R94" s="3">
-        <v>28881</v>
+        <v>1935</v>
       </c>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
-      <c r="U94" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
@@ -8040,16 +8057,14 @@
       <c r="AA94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB94" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB94" s="3"/>
     </row>
     <row r="95" spans="1:28">
       <c r="A95" s="7">
         <v>93</v>
       </c>
       <c r="B95" s="7">
-        <v>2025100516</v>
+        <v>2025100336</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
@@ -8058,22 +8073,22 @@
         <v>29</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>36</v>
@@ -8091,31 +8106,37 @@
         <v>40</v>
       </c>
       <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
+      <c r="Q95" s="7">
+        <v>28805</v>
+      </c>
       <c r="R95" s="7">
-        <v>297956</v>
-      </c>
-      <c r="S95" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>28881</v>
+      </c>
+      <c r="S95" s="7"/>
       <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
+      <c r="U95" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="V95" s="7"/>
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="AA95" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB95" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:28">
       <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="3">
-        <v>2025100517</v>
+        <v>2025100516</v>
       </c>
       <c r="C96" s="3">
         <v>1</v>
@@ -8124,44 +8145,46 @@
         <v>29</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M96" s="6" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="N96" s="6" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
       <c r="R96" s="3">
         <v>297956</v>
       </c>
-      <c r="S96" s="3"/>
+      <c r="S96" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
@@ -8169,11 +8192,9 @@
       <c r="X96" s="3"/>
       <c r="Y96" s="3"/>
       <c r="Z96" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA96" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA96" s="3"/>
       <c r="AB96" s="3"/>
     </row>
     <row r="97" spans="1:28">
@@ -8181,7 +8202,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="7">
-        <v>2025100511</v>
+        <v>2025100517</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
@@ -8190,46 +8211,44 @@
         <v>29</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>308</v>
+        <v>165</v>
       </c>
       <c r="I97" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7">
-        <v>117288</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>297956</v>
+      </c>
+      <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
       <c r="V97" s="7"/>
@@ -8237,9 +8256,11 @@
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA97" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="AA97" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB97" s="7"/>
     </row>
     <row r="98" spans="1:28">
@@ -8247,7 +8268,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3">
-        <v>2025100512</v>
+        <v>2025100511</v>
       </c>
       <c r="C98" s="3">
         <v>1</v>
@@ -8256,44 +8277,46 @@
         <v>29</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M98" s="6" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="N98" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
       <c r="R98" s="3">
         <v>117288</v>
       </c>
-      <c r="S98" s="3"/>
+      <c r="S98" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
@@ -8301,11 +8324,9 @@
       <c r="X98" s="3"/>
       <c r="Y98" s="3"/>
       <c r="Z98" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA98" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA98" s="3"/>
       <c r="AB98" s="3"/>
     </row>
     <row r="99" spans="1:28">
@@ -8313,7 +8334,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="7">
-        <v>2025101215</v>
+        <v>2025100512</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
@@ -8322,46 +8343,44 @@
         <v>29</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K99" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7">
-        <v>1898</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>117288</v>
+      </c>
+      <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
       <c r="V99" s="7"/>
@@ -8369,9 +8388,11 @@
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA99" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="AA99" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB99" s="7"/>
     </row>
     <row r="100" spans="1:28">
@@ -8388,34 +8409,34 @@
         <v>29</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>43</v>
@@ -8433,19 +8454,21 @@
       <c r="X100" s="3"/>
       <c r="Y100" s="3"/>
       <c r="Z100" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB100" s="3"/>
+      <c r="AB100" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" spans="1:28">
       <c r="A101" s="7">
         <v>99</v>
       </c>
       <c r="B101" s="7">
-        <v>2025100072</v>
+        <v>2025101215</v>
       </c>
       <c r="C101" s="7">
         <v>1</v>
@@ -8454,34 +8477,34 @@
         <v>29</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="I101" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K101" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="O101" s="7" t="s">
         <v>40</v>
@@ -8489,7 +8512,7 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7">
-        <v>54</v>
+        <v>1898</v>
       </c>
       <c r="S101" s="7" t="s">
         <v>41</v>
@@ -8501,21 +8524,17 @@
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB101" s="7">
-        <v>1</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA101" s="7"/>
+      <c r="AB101" s="7"/>
     </row>
     <row r="102" spans="1:28">
       <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <v>2025100073</v>
+        <v>2025100072</v>
       </c>
       <c r="C102" s="3">
         <v>1</v>
@@ -8524,44 +8543,46 @@
         <v>29</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>31</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N102" s="6" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
         <v>54</v>
       </c>
-      <c r="S102" s="3"/>
+      <c r="S102" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
       <c r="V102" s="3"/>
@@ -8569,19 +8590,21 @@
       <c r="X102" s="3"/>
       <c r="Y102" s="3"/>
       <c r="Z102" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA102" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB102" s="3"/>
+      <c r="AB102" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" spans="1:28">
       <c r="A103" s="7">
         <v>101</v>
       </c>
       <c r="B103" s="7">
-        <v>2025100067</v>
+        <v>2025100073</v>
       </c>
       <c r="C103" s="7">
         <v>1</v>
@@ -8590,46 +8613,44 @@
         <v>29</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K103" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7">
-        <v>942</v>
-      </c>
-      <c r="S103" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
       <c r="V103" s="7"/>
@@ -8637,21 +8658,19 @@
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA103" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB103" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB103" s="7"/>
     </row>
     <row r="104" spans="1:28">
       <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="3">
-        <v>2025100068</v>
+        <v>2025100067</v>
       </c>
       <c r="C104" s="3">
         <v>1</v>
@@ -8660,7 +8679,7 @@
         <v>29</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>31</v>
@@ -8669,35 +8688,37 @@
         <v>44</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K104" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
         <v>942</v>
       </c>
-      <c r="S104" s="3"/>
+      <c r="S104" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -8705,19 +8726,21 @@
       <c r="X104" s="3"/>
       <c r="Y104" s="3"/>
       <c r="Z104" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA104" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB104" s="3"/>
+      <c r="AB104" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:28">
       <c r="A105" s="7">
         <v>103</v>
       </c>
       <c r="B105" s="7">
-        <v>2025100505</v>
+        <v>2025100068</v>
       </c>
       <c r="C105" s="7">
         <v>1</v>
@@ -8726,46 +8749,44 @@
         <v>29</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="I105" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J105" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K105" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7">
-        <v>187561</v>
-      </c>
-      <c r="S105" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>942</v>
+      </c>
+      <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
       <c r="V105" s="7"/>
@@ -8773,9 +8794,11 @@
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA105" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="AA105" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB105" s="7"/>
     </row>
     <row r="106" spans="1:28">
@@ -8783,7 +8806,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3">
-        <v>2025100506</v>
+        <v>2025100505</v>
       </c>
       <c r="C106" s="3">
         <v>1</v>
@@ -8792,44 +8815,46 @@
         <v>29</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K106" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
         <v>187561</v>
       </c>
-      <c r="S106" s="3"/>
+      <c r="S106" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
       <c r="V106" s="3"/>
@@ -8837,11 +8862,9 @@
       <c r="X106" s="3"/>
       <c r="Y106" s="3"/>
       <c r="Z106" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA106" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA106" s="3"/>
       <c r="AB106" s="3"/>
     </row>
     <row r="107" spans="1:28">
@@ -8849,7 +8872,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="7">
-        <v>2025100508</v>
+        <v>2025100506</v>
       </c>
       <c r="C107" s="7">
         <v>1</v>
@@ -8858,46 +8881,44 @@
         <v>29</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="I107" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="J107" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K107" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7">
-        <v>367919</v>
-      </c>
-      <c r="S107" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>187561</v>
+      </c>
+      <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
       <c r="V107" s="7"/>
@@ -8905,9 +8926,11 @@
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA107" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="AA107" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB107" s="7"/>
     </row>
     <row r="108" spans="1:28">
@@ -8915,7 +8938,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3">
-        <v>2025100509</v>
+        <v>2025100508</v>
       </c>
       <c r="C108" s="3">
         <v>1</v>
@@ -8924,44 +8947,46 @@
         <v>29</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
         <v>367919</v>
       </c>
-      <c r="S108" s="3"/>
+      <c r="S108" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
       <c r="V108" s="3"/>
@@ -8969,11 +8994,9 @@
       <c r="X108" s="3"/>
       <c r="Y108" s="3"/>
       <c r="Z108" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA108" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA108" s="3"/>
       <c r="AB108" s="3"/>
     </row>
     <row r="109" spans="1:28">
@@ -8981,7 +9004,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="7">
-        <v>2025100559</v>
+        <v>2025100509</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -8990,44 +9013,44 @@
         <v>29</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>217</v>
+        <v>169</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I109" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="J109" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K109" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="N109" s="8"/>
+        <v>335</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>336</v>
+      </c>
       <c r="O109" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7">
-        <v>140018</v>
-      </c>
-      <c r="S109" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>367919</v>
+      </c>
+      <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
       <c r="V109" s="7"/>
@@ -9035,21 +9058,19 @@
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA109" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB109" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB109" s="7"/>
     </row>
     <row r="110" spans="1:28">
       <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="3">
-        <v>2025100560</v>
+        <v>2025100559</v>
       </c>
       <c r="C110" s="3">
         <v>1</v>
@@ -9058,42 +9079,44 @@
         <v>29</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="M110" s="6" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="N110" s="6"/>
       <c r="O110" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
         <v>140018</v>
       </c>
-      <c r="S110" s="3"/>
+      <c r="S110" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9101,19 +9124,21 @@
       <c r="X110" s="3"/>
       <c r="Y110" s="3"/>
       <c r="Z110" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA110" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB110" s="3"/>
+      <c r="AB110" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:28">
       <c r="A111" s="7">
         <v>109</v>
       </c>
       <c r="B111" s="7">
-        <v>2025100557</v>
+        <v>2025100560</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -9122,48 +9147,42 @@
         <v>29</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="I111" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="J111" s="7" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="K111" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="N111" s="8" t="s">
-        <v>237</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N111" s="8"/>
       <c r="O111" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P111" s="7"/>
-      <c r="Q111" s="7">
-        <v>3480</v>
-      </c>
+      <c r="Q111" s="7"/>
       <c r="R111" s="7">
-        <v>8923</v>
-      </c>
-      <c r="S111" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>140018</v>
+      </c>
+      <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
@@ -9171,21 +9190,19 @@
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="8" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA111" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB111" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB111" s="7"/>
     </row>
     <row r="112" spans="1:28">
       <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="3">
-        <v>2025100558</v>
+        <v>2025100557</v>
       </c>
       <c r="C112" s="3">
         <v>1</v>
@@ -9194,37 +9211,37 @@
         <v>29</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="M112" s="6" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="O112" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P112" s="3"/>
       <c r="Q112" s="3">
@@ -9233,7 +9250,9 @@
       <c r="R112" s="3">
         <v>8923</v>
       </c>
-      <c r="S112" s="3"/>
+      <c r="S112" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
       <c r="V112" s="3"/>
@@ -9241,19 +9260,21 @@
       <c r="X112" s="3"/>
       <c r="Y112" s="3"/>
       <c r="Z112" s="6" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AA112" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB112" s="3"/>
+      <c r="AB112" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:28">
       <c r="A113" s="7">
         <v>111</v>
       </c>
       <c r="B113" s="7">
-        <v>2025101235</v>
+        <v>2025100558</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -9262,46 +9283,46 @@
         <v>29</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="I113" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K113" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="O113" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
+      <c r="Q113" s="7">
+        <v>3480</v>
+      </c>
       <c r="R113" s="7">
-        <v>1138</v>
-      </c>
-      <c r="S113" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>8923</v>
+      </c>
+      <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
       <c r="V113" s="7"/>
@@ -9309,9 +9330,11 @@
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA113" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="AA113" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="AB113" s="7"/>
     </row>
     <row r="114" spans="1:28">
@@ -9319,7 +9342,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3">
-        <v>2025101236</v>
+        <v>2025101235</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -9328,44 +9351,46 @@
         <v>29</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F114" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G114" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="H114" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="O114" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
         <v>1138</v>
       </c>
-      <c r="S114" s="3"/>
+      <c r="S114" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
       <c r="V114" s="3"/>
@@ -9373,11 +9398,9 @@
       <c r="X114" s="3"/>
       <c r="Y114" s="3"/>
       <c r="Z114" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA114" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA114" s="3"/>
       <c r="AB114" s="3"/>
     </row>
     <row r="115" spans="1:28">
@@ -9385,7 +9408,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="7">
-        <v>2025101361</v>
+        <v>2025101236</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -9394,68 +9417,64 @@
         <v>29</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F115" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="H115" s="7" t="s">
-        <v>342</v>
+        <v>110</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J115" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K115" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>276</v>
+        <v>346</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7">
-        <v>29514</v>
+        <v>1138</v>
       </c>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="V115" s="7"/>
       <c r="W115" s="7"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="8" t="s">
-        <v>346</v>
+        <v>222</v>
       </c>
       <c r="AA115" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB115" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB115" s="7"/>
     </row>
     <row r="116" spans="1:28">
       <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="3">
-        <v>2025100708</v>
+        <v>2025101361</v>
       </c>
       <c r="C116" s="3">
         <v>1</v>
@@ -9464,34 +9483,34 @@
         <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K116" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M116" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N116" s="6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O116" s="3" t="s">
         <v>40</v>
@@ -9499,29 +9518,33 @@
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
       <c r="R116" s="3">
-        <v>28</v>
-      </c>
-      <c r="S116" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>29514</v>
+      </c>
+      <c r="S116" s="3"/>
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
-      <c r="V116" s="3"/>
+      <c r="V116" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="W116" s="3"/>
       <c r="X116" s="3"/>
       <c r="Y116" s="3"/>
       <c r="Z116" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA116" s="3"/>
-      <c r="AB116" s="3"/>
+        <v>351</v>
+      </c>
+      <c r="AA116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:28">
       <c r="A117" s="7">
         <v>115</v>
       </c>
       <c r="B117" s="7">
-        <v>2025100709</v>
+        <v>2025100708</v>
       </c>
       <c r="C117" s="7">
         <v>1</v>
@@ -9530,44 +9553,46 @@
         <v>29</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="I117" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="J117" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K117" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O117" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7">
         <v>28</v>
       </c>
-      <c r="S117" s="7"/>
+      <c r="S117" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
       <c r="V117" s="7"/>
@@ -9575,11 +9600,9 @@
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA117" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA117" s="7"/>
       <c r="AB117" s="7"/>
     </row>
     <row r="118" spans="1:28">
@@ -9587,7 +9610,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3">
-        <v>2025101217</v>
+        <v>2025100709</v>
       </c>
       <c r="C118" s="3">
         <v>1</v>
@@ -9596,46 +9619,44 @@
         <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K118" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
-        <v>53</v>
-      </c>
-      <c r="S118" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="S118" s="3"/>
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
       <c r="V118" s="3"/>
@@ -9643,9 +9664,11 @@
       <c r="X118" s="3"/>
       <c r="Y118" s="3"/>
       <c r="Z118" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA118" s="3"/>
+        <v>222</v>
+      </c>
+      <c r="AA118" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB118" s="3"/>
     </row>
     <row r="119" spans="1:28">
@@ -9653,7 +9676,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="7">
-        <v>2025101218</v>
+        <v>2025101217</v>
       </c>
       <c r="C119" s="7">
         <v>1</v>
@@ -9662,44 +9685,46 @@
         <v>29</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I119" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="K119" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7">
         <v>53</v>
       </c>
-      <c r="S119" s="7"/>
+      <c r="S119" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
       <c r="V119" s="7"/>
@@ -9707,11 +9732,9 @@
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA119" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA119" s="7"/>
       <c r="AB119" s="7"/>
     </row>
     <row r="120" spans="1:28">
@@ -9719,7 +9742,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3">
-        <v>2025100712</v>
+        <v>2025101218</v>
       </c>
       <c r="C120" s="3">
         <v>1</v>
@@ -9728,48 +9751,46 @@
         <v>29</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="K120" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="O120" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
       <c r="R120" s="3">
-        <v>12160</v>
+        <v>53</v>
       </c>
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
-      <c r="U120" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U120" s="3"/>
       <c r="V120" s="3"/>
       <c r="W120" s="3"/>
       <c r="X120" s="3"/>
@@ -9780,16 +9801,14 @@
       <c r="AA120" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB120" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB120" s="3"/>
     </row>
     <row r="121" spans="1:28">
       <c r="A121" s="7">
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025100835</v>
+        <v>2025100712</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -9798,34 +9817,34 @@
         <v>29</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>217</v>
+        <v>115</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="I121" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K121" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="O121" s="7" t="s">
         <v>40</v>
@@ -9845,7 +9864,7 @@
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA121" s="7" t="s">
         <v>41</v>
@@ -9859,7 +9878,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>2025100711</v>
+        <v>2025100835</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -9868,34 +9887,34 @@
         <v>29</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K122" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M122" s="6" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O122" s="3" t="s">
         <v>40</v>
@@ -9903,7 +9922,7 @@
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
-        <v>87781</v>
+        <v>12160</v>
       </c>
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
@@ -9915,7 +9934,7 @@
       <c r="X122" s="3"/>
       <c r="Y122" s="3"/>
       <c r="Z122" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA122" s="3" t="s">
         <v>41</v>
@@ -9929,7 +9948,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="7">
-        <v>2025100834</v>
+        <v>2025100711</v>
       </c>
       <c r="C123" s="7">
         <v>1</v>
@@ -9938,34 +9957,34 @@
         <v>29</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G123" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="I123" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="K123" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="O123" s="7" t="s">
         <v>40</v>
@@ -9985,7 +10004,7 @@
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA123" s="7" t="s">
         <v>41</v>
@@ -9999,7 +10018,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3">
-        <v>2025100079</v>
+        <v>2025100834</v>
       </c>
       <c r="C124" s="3">
         <v>1</v>
@@ -10008,34 +10027,34 @@
         <v>29</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>152</v>
+        <v>363</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K124" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="M124" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O124" s="3" t="s">
         <v>40</v>
@@ -10043,29 +10062,33 @@
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
-        <v>68795</v>
-      </c>
-      <c r="S124" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>87781</v>
+      </c>
+      <c r="S124" s="3"/>
       <c r="T124" s="3"/>
-      <c r="U124" s="3"/>
+      <c r="U124" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V124" s="3"/>
       <c r="W124" s="3"/>
       <c r="X124" s="3"/>
       <c r="Y124" s="3"/>
       <c r="Z124" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA124" s="3"/>
-      <c r="AB124" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="AA124" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB124" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:28">
       <c r="A125" s="7">
         <v>123</v>
       </c>
       <c r="B125" s="7">
-        <v>2025100080</v>
+        <v>2025100079</v>
       </c>
       <c r="C125" s="7">
         <v>1</v>
@@ -10074,44 +10097,46 @@
         <v>29</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F125" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I125" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K125" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7">
         <v>68795</v>
       </c>
-      <c r="S125" s="7"/>
+      <c r="S125" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
       <c r="V125" s="7"/>
@@ -10119,11 +10144,9 @@
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA125" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="AA125" s="7"/>
       <c r="AB125" s="7"/>
     </row>
     <row r="126" spans="1:28">
@@ -10131,7 +10154,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3">
-        <v>2025100710</v>
+        <v>2025100080</v>
       </c>
       <c r="C126" s="3">
         <v>1</v>
@@ -10140,48 +10163,46 @@
         <v>29</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K126" s="3" t="s">
         <v>36</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O126" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
-        <v>47607</v>
+        <v>68795</v>
       </c>
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
-      <c r="U126" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="U126" s="3"/>
       <c r="V126" s="3"/>
       <c r="W126" s="3"/>
       <c r="X126" s="3"/>
@@ -10192,16 +10213,14 @@
       <c r="AA126" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB126" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB126" s="3"/>
     </row>
     <row r="127" spans="1:28">
       <c r="A127" s="7">
         <v>125</v>
       </c>
       <c r="B127" s="7">
-        <v>2025100833</v>
+        <v>2025100710</v>
       </c>
       <c r="C127" s="7">
         <v>1</v>
@@ -10210,34 +10229,34 @@
         <v>29</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>216</v>
+        <v>50</v>
       </c>
       <c r="H127" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J127" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="I127" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="J127" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="K127" s="7" t="s">
         <v>36</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O127" s="7" t="s">
         <v>40</v>
@@ -10257,7 +10276,7 @@
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="8" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="AA127" s="7" t="s">
         <v>41</v>
@@ -10271,7 +10290,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3">
-        <v>2025100009</v>
+        <v>2025100833</v>
       </c>
       <c r="C128" s="3">
         <v>1</v>
@@ -10280,52 +10299,54 @@
         <v>29</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>102</v>
+        <v>363</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>91</v>
+        <v>358</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M128" s="6" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O128" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
       <c r="R128" s="3">
-        <v>0</v>
+        <v>47607</v>
       </c>
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
-      <c r="U128" s="3"/>
+      <c r="U128" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="V128" s="3"/>
       <c r="W128" s="3"/>
       <c r="X128" s="3"/>
       <c r="Y128" s="3"/>
       <c r="Z128" s="6" t="s">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="AA128" s="3" t="s">
         <v>41</v>
@@ -10339,7 +10360,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="7">
-        <v>2025100042</v>
+        <v>2025100009</v>
       </c>
       <c r="C129" s="7">
         <v>1</v>
@@ -10348,42 +10369,44 @@
         <v>29</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F129" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
+        <v>369</v>
+      </c>
+      <c r="J129" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="L129" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7">
         <v>0</v>
       </c>
-      <c r="S129" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
       <c r="V129" s="7"/>
@@ -10391,19 +10414,21 @@
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="8" t="s">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AA129" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB129" s="7"/>
+      <c r="AB129" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:28">
       <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="3">
-        <v>2025100974</v>
+        <v>2025100042</v>
       </c>
       <c r="C130" s="3">
         <v>1</v>
@@ -10412,16 +10437,16 @@
         <v>29</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>369</v>
@@ -10429,7 +10454,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
       <c r="L130" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M130" s="6" t="s">
         <v>370</v>
@@ -10445,31 +10470,29 @@
       <c r="R130" s="3">
         <v>0</v>
       </c>
-      <c r="S130" s="3"/>
-      <c r="T130" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S130" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T130" s="3"/>
       <c r="U130" s="3"/>
       <c r="V130" s="3"/>
       <c r="W130" s="3"/>
       <c r="X130" s="3"/>
       <c r="Y130" s="3"/>
       <c r="Z130" s="6" t="s">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="AA130" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB130" s="3">
-        <v>1</v>
-      </c>
+      <c r="AB130" s="3"/>
     </row>
     <row r="131" spans="1:28">
       <c r="A131" s="7">
         <v>129</v>
       </c>
       <c r="B131" s="7">
-        <v>2025100894</v>
+        <v>2025100974</v>
       </c>
       <c r="C131" s="7">
         <v>1</v>
@@ -10478,30 +10501,30 @@
         <v>29</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="I131" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
       <c r="L131" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O131" s="7" t="s">
         <v>40</v>
@@ -10511,17 +10534,17 @@
       <c r="R131" s="7">
         <v>0</v>
       </c>
-      <c r="S131" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T131" s="7"/>
+      <c r="S131" s="7"/>
+      <c r="T131" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="U131" s="7"/>
       <c r="V131" s="7"/>
       <c r="W131" s="7"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA131" s="7" t="s">
         <v>41</v>
@@ -10535,7 +10558,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3">
-        <v>2025100926</v>
+        <v>2025100894</v>
       </c>
       <c r="C132" s="3">
         <v>1</v>
@@ -10544,30 +10567,30 @@
         <v>29</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
       <c r="L132" s="6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M132" s="6" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N132" s="6" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O132" s="3" t="s">
         <v>40</v>
@@ -10587,19 +10610,21 @@
       <c r="X132" s="3"/>
       <c r="Y132" s="3"/>
       <c r="Z132" s="6" t="s">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AA132" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AB132" s="3"/>
+      <c r="AB132" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:28">
       <c r="A133" s="7">
         <v>131</v>
       </c>
       <c r="B133" s="7">
-        <v>2025100752</v>
+        <v>2025100926</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -10608,44 +10633,42 @@
         <v>29</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K133" s="7" t="s">
-        <v>92</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
       <c r="L133" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7">
         <v>0</v>
       </c>
-      <c r="S133" s="7"/>
+      <c r="S133" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
       <c r="V133" s="7"/>
@@ -10653,7 +10676,7 @@
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="8" t="s">
-        <v>377</v>
+        <v>90</v>
       </c>
       <c r="AA133" s="7" t="s">
         <v>41</v>
@@ -10665,7 +10688,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3">
-        <v>2025101206</v>
+        <v>2025100752</v>
       </c>
       <c r="C134" s="3">
         <v>1</v>
@@ -10674,42 +10697,44 @@
         <v>29</v>
       </c>
       <c r="E134" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I134" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G134" s="3" t="s">
+      <c r="J134" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L134" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M134" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="H134" s="3" t="s">
+      <c r="N134" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="I134" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="J134" s="3"/>
-      <c r="K134" s="3"/>
-      <c r="L134" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M134" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="N134" s="6" t="s">
-        <v>383</v>
-      </c>
       <c r="O134" s="3" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
         <v>0</v>
       </c>
-      <c r="S134" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S134" s="3"/>
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
       <c r="V134" s="3"/>
@@ -10717,9 +10742,11 @@
       <c r="X134" s="3"/>
       <c r="Y134" s="3"/>
       <c r="Z134" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA134" s="3"/>
+        <v>382</v>
+      </c>
+      <c r="AA134" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB134" s="3"/>
     </row>
     <row r="135" spans="1:28">
@@ -10727,7 +10754,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="7">
-        <v>2025101048</v>
+        <v>2025101206</v>
       </c>
       <c r="C135" s="7">
         <v>1</v>
@@ -10736,10 +10763,10 @@
         <v>29</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>384</v>
@@ -10748,32 +10775,30 @@
         <v>385</v>
       </c>
       <c r="I135" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="J135" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K135" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
       <c r="L135" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7">
         <v>0</v>
       </c>
-      <c r="S135" s="7"/>
+      <c r="S135" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
       <c r="V135" s="7"/>
@@ -10781,11 +10806,9 @@
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA135" s="7" t="s">
-        <v>41</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AA135" s="7"/>
       <c r="AB135" s="7"/>
     </row>
     <row r="136" spans="1:28">
@@ -10793,7 +10816,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3">
-        <v>2025100636</v>
+        <v>2025101048</v>
       </c>
       <c r="C136" s="3">
         <v>1</v>
@@ -10802,37 +10825,37 @@
         <v>29</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>140</v>
+        <v>389</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="I136" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="L136" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="N136" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="K136" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="M136" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="N136" s="6" t="s">
-        <v>393</v>
-      </c>
       <c r="O136" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
@@ -10847,47 +10870,113 @@
       <c r="X136" s="3"/>
       <c r="Y136" s="3"/>
       <c r="Z136" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA136" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB136" s="3"/>
+    </row>
+    <row r="137" spans="1:28">
+      <c r="A137" s="7">
+        <v>135</v>
+      </c>
+      <c r="B137" s="7">
+        <v>2025100636</v>
+      </c>
+      <c r="C137" s="7">
+        <v>1</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="J137" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="AA136" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB136" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="9"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
-      <c r="L137" s="10"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="10"/>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9"/>
-      <c r="V137" s="9"/>
-      <c r="W137" s="9"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="10"/>
-      <c r="AA137" s="9" t="s">
+      <c r="K137" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="AB137" s="9">
-        <v>73</v>
+      <c r="L137" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="M137" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="N137" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="7"/>
+      <c r="R137" s="7">
+        <v>0</v>
+      </c>
+      <c r="S137" s="7"/>
+      <c r="T137" s="7"/>
+      <c r="U137" s="7"/>
+      <c r="V137" s="7"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AA137" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:28">
+      <c r="A138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="9"/>
+      <c r="P138" s="9"/>
+      <c r="Q138" s="9"/>
+      <c r="R138" s="9"/>
+      <c r="S138" s="9"/>
+      <c r="T138" s="9"/>
+      <c r="U138" s="9"/>
+      <c r="V138" s="9"/>
+      <c r="W138" s="9"/>
+      <c r="X138" s="9"/>
+      <c r="Y138" s="9"/>
+      <c r="Z138" s="10"/>
+      <c r="AA138" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="AB138" s="9">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/IM/202510_Service_Count_Report.xlsx
+++ b/IM/202510_Service_Count_Report.xlsx
@@ -11,14 +11,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Report'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$215</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Report'!$A$1:$AA$216</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="602">
   <si>
     <t>服務次數統計表        篩選月份：202510</t>
   </si>
@@ -1788,6 +1788,12 @@
   </si>
   <si>
     <t>更換SC第二顆硬碟無備份還原</t>
+  </si>
+  <si>
+    <t>17:35:00</t>
+  </si>
+  <si>
+    <t>17:45:00</t>
   </si>
   <si>
     <t>11:40:00</t>
@@ -2264,10 +2270,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB215"/>
+  <dimension ref="A1:AB216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A215" sqref="A215"/>
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3459,7 +3465,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2025100101</v>
+        <v>2025100100</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -3496,14 +3502,16 @@
       </c>
       <c r="N18" s="6"/>
       <c r="O18" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3">
         <v>28400</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -3525,7 +3533,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="7">
-        <v>2025100100</v>
+        <v>2025100101</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -3562,16 +3570,14 @@
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
         <v>28400</v>
       </c>
-      <c r="S19" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S19" s="7"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -8397,7 +8403,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="7">
-        <v>2025100084</v>
+        <v>2025100085</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
@@ -8436,7 +8442,7 @@
         <v>331</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P91" s="7"/>
       <c r="Q91" s="7">
@@ -8445,9 +8451,7 @@
       <c r="R91" s="7">
         <v>400</v>
       </c>
-      <c r="S91" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
       <c r="V91" s="7"/>
@@ -8469,7 +8473,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3">
-        <v>2025100085</v>
+        <v>2025100084</v>
       </c>
       <c r="C92" s="3">
         <v>1</v>
@@ -8508,7 +8512,7 @@
         <v>331</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P92" s="3"/>
       <c r="Q92" s="3">
@@ -8517,7 +8521,9 @@
       <c r="R92" s="3">
         <v>400</v>
       </c>
-      <c r="S92" s="3"/>
+      <c r="S92" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
@@ -10431,7 +10437,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="7">
-        <v>2025101092</v>
+        <v>2025101091</v>
       </c>
       <c r="C121" s="7">
         <v>1</v>
@@ -10470,14 +10476,16 @@
         <v>331</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7">
         <v>3516</v>
       </c>
-      <c r="S121" s="7"/>
+      <c r="S121" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
       <c r="V121" s="7"/>
@@ -10499,7 +10507,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3">
-        <v>2025101091</v>
+        <v>2025101092</v>
       </c>
       <c r="C122" s="3">
         <v>1</v>
@@ -10538,16 +10546,14 @@
         <v>331</v>
       </c>
       <c r="O122" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
         <v>3516</v>
       </c>
-      <c r="S122" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S122" s="3"/>
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
       <c r="V122" s="3"/>
@@ -12533,7 +12539,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="3">
-        <v>2025100559</v>
+        <v>2025100560</v>
       </c>
       <c r="C152" s="3">
         <v>1</v>
@@ -12570,16 +12576,14 @@
       </c>
       <c r="N152" s="6"/>
       <c r="O152" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
       <c r="R152" s="3">
         <v>140018</v>
       </c>
-      <c r="S152" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S152" s="3"/>
       <c r="T152" s="3"/>
       <c r="U152" s="3"/>
       <c r="V152" s="3"/>
@@ -12601,7 +12605,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="7">
-        <v>2025100560</v>
+        <v>2025100559</v>
       </c>
       <c r="C153" s="7">
         <v>1</v>
@@ -12638,14 +12642,16 @@
       </c>
       <c r="N153" s="8"/>
       <c r="O153" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
       <c r="R153" s="7">
         <v>140018</v>
       </c>
-      <c r="S153" s="7"/>
+      <c r="S153" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
       <c r="V153" s="7"/>
@@ -13409,7 +13415,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="7">
-        <v>2025100709</v>
+        <v>2025100708</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
@@ -13448,14 +13454,16 @@
         <v>475</v>
       </c>
       <c r="O165" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P165" s="7"/>
       <c r="Q165" s="7"/>
       <c r="R165" s="7">
         <v>28</v>
       </c>
-      <c r="S165" s="7"/>
+      <c r="S165" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
       <c r="V165" s="7"/>
@@ -13465,19 +13473,15 @@
       <c r="Z165" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="AA165" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB165" s="7">
-        <v>1</v>
-      </c>
+      <c r="AA165" s="7"/>
+      <c r="AB165" s="7"/>
     </row>
     <row r="166" spans="1:28">
       <c r="A166" s="3">
         <v>164</v>
       </c>
       <c r="B166" s="3">
-        <v>2025100708</v>
+        <v>2025100709</v>
       </c>
       <c r="C166" s="3">
         <v>1</v>
@@ -13516,16 +13520,14 @@
         <v>475</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
       <c r="R166" s="3">
         <v>28</v>
       </c>
-      <c r="S166" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="S166" s="3"/>
       <c r="T166" s="3"/>
       <c r="U166" s="3"/>
       <c r="V166" s="3"/>
@@ -13535,7 +13537,9 @@
       <c r="Z166" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="AA166" s="3"/>
+      <c r="AA166" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="AB166" s="3"/>
     </row>
     <row r="167" spans="1:28">
@@ -15435,7 +15439,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="7">
-        <v>2025100926</v>
+        <v>2025100894</v>
       </c>
       <c r="C195" s="7">
         <v>1</v>
@@ -15487,7 +15491,7 @@
       <c r="X195" s="7"/>
       <c r="Y195" s="7"/>
       <c r="Z195" s="8" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="AA195" s="7" t="s">
         <v>41</v>
@@ -15501,7 +15505,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="3">
-        <v>2025100894</v>
+        <v>2025100926</v>
       </c>
       <c r="C196" s="3">
         <v>1</v>
@@ -15553,7 +15557,7 @@
       <c r="X196" s="3"/>
       <c r="Y196" s="3"/>
       <c r="Z196" s="6" t="s">
-        <v>538</v>
+        <v>112</v>
       </c>
       <c r="AA196" s="3" t="s">
         <v>41</v>
@@ -16371,7 +16375,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="7">
-        <v>2025102037</v>
+        <v>2025102005</v>
       </c>
       <c r="C209" s="7">
         <v>1</v>
@@ -16394,8 +16398,12 @@
       <c r="I209" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="J209" s="7"/>
-      <c r="K209" s="7"/>
+      <c r="J209" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K209" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="L209" s="8" t="s">
         <v>109</v>
       </c>
@@ -16406,16 +16414,14 @@
         <v>579</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="P209" s="7"/>
       <c r="Q209" s="7"/>
       <c r="R209" s="7">
         <v>0</v>
       </c>
-      <c r="S209" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="S209" s="7"/>
       <c r="T209" s="7"/>
       <c r="U209" s="7"/>
       <c r="V209" s="7"/>
@@ -16423,17 +16429,21 @@
       <c r="X209" s="7"/>
       <c r="Y209" s="7"/>
       <c r="Z209" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="AA209" s="7"/>
-      <c r="AB209" s="7"/>
+        <v>580</v>
+      </c>
+      <c r="AA209" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB209" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="210" spans="1:28">
       <c r="A210" s="3">
         <v>208</v>
       </c>
       <c r="B210" s="3">
-        <v>2025102005</v>
+        <v>2025102037</v>
       </c>
       <c r="C210" s="3">
         <v>1</v>
@@ -16456,12 +16466,8 @@
       <c r="I210" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="K210" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="J210" s="3"/>
+      <c r="K210" s="3"/>
       <c r="L210" s="6" t="s">
         <v>109</v>
       </c>
@@ -16472,14 +16478,16 @@
         <v>579</v>
       </c>
       <c r="O210" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
       <c r="R210" s="3">
         <v>0</v>
       </c>
-      <c r="S210" s="3"/>
+      <c r="S210" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T210" s="3"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3"/>
@@ -16487,11 +16495,9 @@
       <c r="X210" s="3"/>
       <c r="Y210" s="3"/>
       <c r="Z210" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="AA210" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="AA210" s="3"/>
       <c r="AB210" s="3"/>
     </row>
     <row r="211" spans="1:28">
@@ -16499,7 +16505,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="7">
-        <v>2025101206</v>
+        <v>2025102331</v>
       </c>
       <c r="C211" s="7">
         <v>1</v>
@@ -16511,7 +16517,7 @@
         <v>569</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>581</v>
@@ -16520,7 +16526,7 @@
         <v>582</v>
       </c>
       <c r="I211" s="7" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
@@ -16528,10 +16534,10 @@
         <v>109</v>
       </c>
       <c r="M211" s="8" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N211" s="8" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="O211" s="7" t="s">
         <v>40</v>
@@ -16553,15 +16559,19 @@
       <c r="Z211" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="AA211" s="7"/>
-      <c r="AB211" s="7"/>
+      <c r="AA211" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB211" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="212" spans="1:28">
       <c r="A212" s="3">
         <v>210</v>
       </c>
       <c r="B212" s="3">
-        <v>2025101048</v>
+        <v>2025101206</v>
       </c>
       <c r="C212" s="3">
         <v>1</v>
@@ -16576,38 +16586,36 @@
         <v>203</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="J212" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="K212" s="3" t="s">
-        <v>127</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="J212" s="3"/>
+      <c r="K212" s="3"/>
       <c r="L212" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M212" s="6" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
       <c r="R212" s="3">
         <v>0</v>
       </c>
-      <c r="S212" s="3"/>
+      <c r="S212" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="T212" s="3"/>
       <c r="U212" s="3"/>
       <c r="V212" s="3"/>
@@ -16615,11 +16623,9 @@
       <c r="X212" s="3"/>
       <c r="Y212" s="3"/>
       <c r="Z212" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA212" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AA212" s="3"/>
       <c r="AB212" s="3"/>
     </row>
     <row r="213" spans="1:28">
@@ -16627,7 +16633,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="7">
-        <v>2025100636</v>
+        <v>2025101048</v>
       </c>
       <c r="C213" s="7">
         <v>1</v>
@@ -16639,31 +16645,31 @@
         <v>569</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G213" s="7" t="s">
-        <v>187</v>
+        <v>588</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="I213" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="J213" s="7" t="s">
-        <v>590</v>
+        <v>527</v>
       </c>
       <c r="K213" s="7" t="s">
-        <v>564</v>
+        <v>127</v>
       </c>
       <c r="L213" s="8" t="s">
-        <v>591</v>
+        <v>109</v>
       </c>
       <c r="M213" s="8" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="N213" s="8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="O213" s="7" t="s">
         <v>67</v>
@@ -16681,21 +16687,19 @@
       <c r="X213" s="7"/>
       <c r="Y213" s="7"/>
       <c r="Z213" s="8" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AA213" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AB213" s="7">
-        <v>1</v>
-      </c>
+      <c r="AB213" s="7"/>
     </row>
     <row r="214" spans="1:28">
       <c r="A214" s="3">
         <v>212</v>
       </c>
       <c r="B214" s="3">
-        <v>2025101954</v>
+        <v>2025100636</v>
       </c>
       <c r="C214" s="3">
         <v>1</v>
@@ -16707,31 +16711,31 @@
         <v>569</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>221</v>
+        <v>514</v>
       </c>
       <c r="I214" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K214" s="3" t="s">
         <v>564</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M214" s="6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="O214" s="3" t="s">
         <v>67</v>
@@ -16749,47 +16753,115 @@
       <c r="X214" s="3"/>
       <c r="Y214" s="3"/>
       <c r="Z214" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="AA214" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:28">
+      <c r="A215" s="7">
+        <v>213</v>
+      </c>
+      <c r="B215" s="7">
+        <v>2025101954</v>
+      </c>
+      <c r="C215" s="7">
+        <v>1</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G215" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H215" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I215" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="J215" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="K215" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L215" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="M215" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="AA214" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB214" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:28">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
-      <c r="E215" s="9"/>
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="9"/>
-      <c r="I215" s="9"/>
-      <c r="J215" s="9"/>
-      <c r="K215" s="9"/>
-      <c r="L215" s="10"/>
-      <c r="M215" s="10"/>
-      <c r="N215" s="10"/>
-      <c r="O215" s="9"/>
-      <c r="P215" s="9"/>
-      <c r="Q215" s="9"/>
-      <c r="R215" s="9"/>
-      <c r="S215" s="9"/>
-      <c r="T215" s="9"/>
-      <c r="U215" s="9"/>
-      <c r="V215" s="9"/>
-      <c r="W215" s="9"/>
-      <c r="X215" s="9"/>
-      <c r="Y215" s="9"/>
-      <c r="Z215" s="10"/>
-      <c r="AA215" s="9" t="s">
+      <c r="N215" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="AB215" s="9">
-        <v>127</v>
+      <c r="O215" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="7"/>
+      <c r="R215" s="7">
+        <v>0</v>
+      </c>
+      <c r="S215" s="7"/>
+      <c r="T215" s="7"/>
+      <c r="U215" s="7"/>
+      <c r="V215" s="7"/>
+      <c r="W215" s="7"/>
+      <c r="X215" s="7"/>
+      <c r="Y215" s="7"/>
+      <c r="Z215" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="AA215" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB215" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:28">
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="E216" s="9"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="9"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="9"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="9"/>
+      <c r="P216" s="9"/>
+      <c r="Q216" s="9"/>
+      <c r="R216" s="9"/>
+      <c r="S216" s="9"/>
+      <c r="T216" s="9"/>
+      <c r="U216" s="9"/>
+      <c r="V216" s="9"/>
+      <c r="W216" s="9"/>
+      <c r="X216" s="9"/>
+      <c r="Y216" s="9"/>
+      <c r="Z216" s="10"/>
+      <c r="AA216" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB216" s="9">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
